--- a/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
+++ b/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7545" tabRatio="576" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7545" tabRatio="576" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Principal - ABP" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="586">
   <si>
     <t>Apellidos</t>
   </si>
@@ -4878,9 +4878,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4889,21 +4904,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11591,32 +11591,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="266" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
     </row>
     <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="267" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="67"/>
@@ -11631,20 +11631,20 @@
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="268" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="263"/>
+      <c r="B4" s="268"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="263" t="s">
+      <c r="D4" s="268" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
+      <c r="I4" s="268"/>
+      <c r="J4" s="268"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
@@ -11654,14 +11654,14 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="260" t="s">
+      <c r="D5" s="261" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
@@ -11675,14 +11675,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="261" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
@@ -11696,14 +11696,14 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="260" t="s">
+      <c r="D7" s="261" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
       <c r="J7" s="73">
         <f>I13</f>
         <v>694</v>
@@ -11717,14 +11717,14 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="260" t="s">
+      <c r="D8" s="261" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
         <v>5.1515151515151514E-2</v>
@@ -11739,14 +11739,14 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="262" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="262"/>
+      <c r="I9" s="262"/>
       <c r="J9" s="77">
         <f>J13</f>
         <v>63.090909090909079</v>
@@ -11765,37 +11765,37 @@
       <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="266" t="s">
+      <c r="B11" s="263" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="266" t="s">
+      <c r="C11" s="263" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="267" t="s">
+      <c r="D11" s="264" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="268" t="s">
+      <c r="E11" s="265" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="267" t="s">
+      <c r="F11" s="264" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="267"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="268" t="s">
+      <c r="G11" s="264"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="265" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="268"/>
+      <c r="J11" s="265"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="266"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
+      <c r="A12" s="263"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="264"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -11813,14 +11813,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="264"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="264"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="264"/>
+      <c r="A13" s="260"/>
+      <c r="B13" s="260"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
       <c r="I13" s="80">
         <f>SUM(I14:I49)</f>
         <v>694</v>
@@ -12982,6 +12982,12 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -12993,12 +12999,6 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
@@ -13026,8 +13026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13039,32 +13039,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="266" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="266"/>
     </row>
     <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="267" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="267"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="67"/>
@@ -13079,20 +13079,20 @@
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="268" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="263"/>
+      <c r="B4" s="268"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="263" t="s">
+      <c r="D4" s="268" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
+      <c r="E4" s="268"/>
+      <c r="F4" s="268"/>
+      <c r="G4" s="268"/>
+      <c r="H4" s="268"/>
+      <c r="I4" s="268"/>
+      <c r="J4" s="268"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
@@ -13102,14 +13102,14 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="260" t="s">
+      <c r="D5" s="261" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="261"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="261"/>
+      <c r="I5" s="261"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
@@ -13123,14 +13123,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="261" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
@@ -13144,17 +13144,17 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="260" t="s">
+      <c r="D7" s="261" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
       <c r="J7" s="73">
         <f>I13</f>
-        <v>441</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13165,17 +13165,17 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="260" t="s">
+      <c r="D8" s="261" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
-        <v>0.33181818181818185</v>
+        <v>0.37424242424242427</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -13187,17 +13187,17 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="262" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="262"/>
+      <c r="I9" s="262"/>
       <c r="J9" s="77">
         <f>J13</f>
-        <v>40.090909090909101</v>
+        <v>37.545454545454554</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -13213,37 +13213,37 @@
       <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="266" t="s">
+      <c r="B11" s="263" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="266" t="s">
+      <c r="C11" s="263" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="267" t="s">
+      <c r="D11" s="264" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="268" t="s">
+      <c r="E11" s="265" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="267" t="s">
+      <c r="F11" s="264" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="267"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="268" t="s">
+      <c r="G11" s="264"/>
+      <c r="H11" s="264"/>
+      <c r="I11" s="265" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="268"/>
+      <c r="J11" s="265"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="266"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
+      <c r="A12" s="263"/>
+      <c r="B12" s="263"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="264"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -13261,21 +13261,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="264"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="264"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="264"/>
+      <c r="A13" s="260"/>
+      <c r="B13" s="260"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
       <c r="I13" s="80">
         <f>SUM(I14:I48)</f>
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="J13" s="80">
         <f>SUM(J14:J48)</f>
-        <v>40.090909090909101</v>
+        <v>37.545454545454554</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -14305,8 +14305,8 @@
       <c r="D45" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="E45" s="92">
-        <v>3</v>
+      <c r="E45" s="92" t="s">
+        <v>584</v>
       </c>
       <c r="F45" s="85">
         <v>3</v>
@@ -14318,12 +14318,10 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I45" s="87">
-        <v>28</v>
-      </c>
+      <c r="I45" s="87"/>
       <c r="J45" s="88">
         <f t="shared" si="1"/>
-        <v>2.5454545454545454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14421,12 +14419,6 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -14438,6 +14430,12 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
@@ -17282,7 +17280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
+++ b/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7545" tabRatio="576" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7545" tabRatio="576" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Principal - ABP" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="586">
   <si>
     <t>Apellidos</t>
   </si>
@@ -4296,7 +4296,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4727,6 +4727,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4879,20 +4885,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4905,6 +4902,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4963,12 +4969,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="168">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
@@ -5262,11 +5264,13 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -5334,13 +5338,11 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -5847,113 +5849,113 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:18" ht="23.25">
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="215" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="215"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
     </row>
     <row r="3" spans="2:18" ht="47.1" customHeight="1">
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="218"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="220"/>
     </row>
     <row r="4" spans="2:18" ht="15.75">
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="223"/>
-      <c r="P4" s="223"/>
-      <c r="Q4" s="223"/>
-      <c r="R4" s="224"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
+      <c r="E4" s="225"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="225"/>
+      <c r="P4" s="225"/>
+      <c r="Q4" s="225"/>
+      <c r="R4" s="226"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="225" t="s">
+      <c r="B5" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="226" t="s">
+      <c r="C5" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="226"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="226"/>
-      <c r="N5" s="226"/>
-      <c r="O5" s="226"/>
-      <c r="P5" s="226"/>
-      <c r="Q5" s="226"/>
-      <c r="R5" s="227"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="228"/>
+      <c r="N5" s="228"/>
+      <c r="O5" s="228"/>
+      <c r="P5" s="228"/>
+      <c r="Q5" s="228"/>
+      <c r="R5" s="229"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="221"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="222"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="223"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="8"/>
@@ -5997,32 +5999,32 @@
       <c r="B9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="228" t="s">
+      <c r="C9" s="230" t="s">
         <v>570</v>
       </c>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="229"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="231"/>
     </row>
     <row r="11" spans="2:18" ht="15.75">
-      <c r="E11" s="210" t="s">
+      <c r="E11" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="210"/>
-      <c r="G11" s="211" t="s">
+      <c r="F11" s="212"/>
+      <c r="G11" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="212" t="s">
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="212"/>
-      <c r="N11" s="212"/>
-      <c r="O11" s="212"/>
-      <c r="P11" s="212"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="214"/>
+      <c r="P11" s="214"/>
     </row>
     <row r="12" spans="2:18" s="14" customFormat="1" ht="76.5" thickBot="1">
       <c r="B12" s="9" t="s">
@@ -6485,82 +6487,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>532</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="234"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="233"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="237"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="240"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="240"/>
-      <c r="O5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="243"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:15" ht="21" thickBot="1">
@@ -6688,7 +6690,9 @@
       </c>
       <c r="L12" s="188"/>
       <c r="M12" s="188"/>
-      <c r="N12" s="188"/>
+      <c r="N12" s="290">
+        <v>0.02</v>
+      </c>
       <c r="O12" s="189" t="s">
         <v>537</v>
       </c>
@@ -6709,7 +6713,9 @@
       </c>
       <c r="L13" s="188"/>
       <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
+      <c r="N13" s="291">
+        <v>0.15</v>
+      </c>
       <c r="O13" s="189" t="s">
         <v>539</v>
       </c>
@@ -6733,7 +6739,9 @@
       </c>
       <c r="L14" s="188"/>
       <c r="M14" s="188"/>
-      <c r="N14" s="188"/>
+      <c r="N14" s="291">
+        <v>0.15</v>
+      </c>
       <c r="O14" s="194" t="s">
         <v>539</v>
       </c>
@@ -6762,7 +6770,9 @@
       </c>
       <c r="L15" s="188"/>
       <c r="M15" s="188"/>
-      <c r="N15" s="188"/>
+      <c r="N15" s="291">
+        <v>0.02</v>
+      </c>
       <c r="O15" s="189" t="s">
         <v>543</v>
       </c>
@@ -6791,7 +6801,9 @@
       </c>
       <c r="L16" s="188"/>
       <c r="M16" s="188"/>
-      <c r="N16" s="188"/>
+      <c r="N16" s="291">
+        <v>0.1</v>
+      </c>
       <c r="O16" s="189" t="s">
         <v>503</v>
       </c>
@@ -6806,7 +6818,9 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="187"/>
-      <c r="F17" s="188"/>
+      <c r="F17" s="188" t="s">
+        <v>585</v>
+      </c>
       <c r="G17" s="188"/>
       <c r="H17" s="188"/>
       <c r="I17" s="188"/>
@@ -6818,7 +6832,9 @@
       </c>
       <c r="L17" s="188"/>
       <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
+      <c r="N17" s="291">
+        <v>0.25</v>
+      </c>
       <c r="O17" s="189" t="s">
         <v>512</v>
       </c>
@@ -6892,7 +6908,9 @@
       </c>
       <c r="L21" s="188"/>
       <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
+      <c r="N21" s="290">
+        <v>0.02</v>
+      </c>
       <c r="O21" s="189" t="s">
         <v>537</v>
       </c>
@@ -6916,7 +6934,9 @@
       </c>
       <c r="L22" s="188"/>
       <c r="M22" s="188"/>
-      <c r="N22" s="188"/>
+      <c r="N22" s="290">
+        <v>0.02</v>
+      </c>
       <c r="O22" s="189" t="s">
         <v>537</v>
       </c>
@@ -6940,7 +6960,9 @@
       </c>
       <c r="L23" s="188"/>
       <c r="M23" s="188"/>
-      <c r="N23" s="188"/>
+      <c r="N23" s="291">
+        <v>0.2</v>
+      </c>
       <c r="O23" s="189" t="s">
         <v>550</v>
       </c>
@@ -6964,7 +6986,9 @@
       </c>
       <c r="L24" s="188"/>
       <c r="M24" s="188"/>
-      <c r="N24" s="188"/>
+      <c r="N24" s="291">
+        <v>0.15</v>
+      </c>
       <c r="O24" s="189" t="s">
         <v>539</v>
       </c>
@@ -6982,7 +7006,10 @@
       <c r="K25" s="188"/>
       <c r="L25" s="188"/>
       <c r="M25" s="188"/>
-      <c r="N25" s="188"/>
+      <c r="N25" s="290">
+        <f>SUM(N12:N24)</f>
+        <v>1.0799999999999998</v>
+      </c>
       <c r="O25" s="189"/>
     </row>
     <row r="26" spans="2:15">
@@ -7081,22 +7108,22 @@
     <mergeCell ref="B5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:O7">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>($C$15=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:O16">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>($C$15=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:O30">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>($C$15=3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:O27">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>($C$15=2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7130,84 +7157,84 @@
       <c r="G1" s="145"/>
     </row>
     <row r="2" spans="2:17" ht="23.25">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="280" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
-      <c r="P2" s="278"/>
-      <c r="Q2" s="278"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="280"/>
+      <c r="K2" s="280"/>
+      <c r="L2" s="280"/>
+      <c r="M2" s="280"/>
+      <c r="N2" s="280"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="280"/>
+      <c r="Q2" s="280"/>
     </row>
     <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1">
-      <c r="B3" s="279" t="s">
+      <c r="B3" s="281" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="279"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="279"/>
-      <c r="L3" s="279"/>
-      <c r="M3" s="279"/>
-      <c r="N3" s="279"/>
-      <c r="O3" s="279"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
+      <c r="C3" s="281"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="281"/>
+      <c r="H3" s="281"/>
+      <c r="I3" s="281"/>
+      <c r="J3" s="281"/>
+      <c r="K3" s="281"/>
+      <c r="L3" s="281"/>
+      <c r="M3" s="281"/>
+      <c r="N3" s="281"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="281"/>
+      <c r="Q3" s="281"/>
     </row>
     <row r="4" spans="2:17" ht="15.6" customHeight="1">
-      <c r="B4" s="280" t="s">
+      <c r="B4" s="282" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="280"/>
-      <c r="G4" s="280"/>
-      <c r="H4" s="280"/>
-      <c r="I4" s="280"/>
-      <c r="J4" s="280"/>
-      <c r="K4" s="280"/>
-      <c r="L4" s="280"/>
-      <c r="M4" s="280"/>
-      <c r="N4" s="280"/>
-      <c r="O4" s="280"/>
-      <c r="P4" s="280"/>
-      <c r="Q4" s="280"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="282"/>
+      <c r="O4" s="282"/>
+      <c r="P4" s="282"/>
+      <c r="Q4" s="282"/>
     </row>
     <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="241" t="s">
         <v>567</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="240"/>
-      <c r="O5" s="240"/>
-      <c r="P5" s="240"/>
-      <c r="Q5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="242"/>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="243"/>
     </row>
     <row r="7" spans="2:17" ht="21" thickBot="1">
       <c r="B7" s="146" t="s">
@@ -7225,29 +7252,29 @@
       <c r="C8" s="148">
         <v>30</v>
       </c>
-      <c r="E8" s="281" t="s">
+      <c r="E8" s="283" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="282" t="s">
+      <c r="F8" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="282" t="s">
+      <c r="G8" s="284" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="283" t="s">
+      <c r="H8" s="285" t="s">
         <v>400</v>
       </c>
-      <c r="I8" s="284" t="s">
+      <c r="I8" s="286" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="284"/>
-      <c r="N8" s="284"/>
-      <c r="O8" s="284"/>
-      <c r="P8" s="284"/>
-      <c r="Q8" s="284"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
+      <c r="M8" s="286"/>
+      <c r="N8" s="286"/>
+      <c r="O8" s="286"/>
+      <c r="P8" s="286"/>
+      <c r="Q8" s="286"/>
     </row>
     <row r="9" spans="2:17" ht="47.25">
       <c r="B9" s="148" t="s">
@@ -7256,10 +7283,10 @@
       <c r="C9" s="148">
         <v>120</v>
       </c>
-      <c r="E9" s="281"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="282"/>
-      <c r="H9" s="283"/>
+      <c r="E9" s="283"/>
+      <c r="F9" s="284"/>
+      <c r="G9" s="284"/>
+      <c r="H9" s="285"/>
       <c r="I9" s="149" t="s">
         <v>401</v>
       </c>
@@ -7945,84 +7972,84 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:17" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="231"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="234"/>
     </row>
     <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="235" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
+      <c r="Q3" s="237"/>
     </row>
     <row r="4" spans="2:17" ht="15.75">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="240"/>
     </row>
     <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="241" t="s">
         <v>433</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="240"/>
-      <c r="O5" s="240"/>
-      <c r="P5" s="240"/>
-      <c r="Q5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="242"/>
+      <c r="P5" s="242"/>
+      <c r="Q5" s="243"/>
     </row>
     <row r="7" spans="2:17" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
@@ -8040,29 +8067,29 @@
       <c r="C8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="242" t="s">
+      <c r="E8" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="244" t="s">
+      <c r="F8" s="246" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="244" t="s">
+      <c r="G8" s="246" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="246" t="s">
+      <c r="H8" s="248" t="s">
         <v>400</v>
       </c>
-      <c r="I8" s="246" t="s">
+      <c r="I8" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="248"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="248"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="248"/>
+      <c r="O8" s="248"/>
+      <c r="P8" s="248"/>
+      <c r="Q8" s="250"/>
     </row>
     <row r="9" spans="2:17" ht="47.25">
       <c r="B9" s="1" t="s">
@@ -8071,10 +8098,10 @@
       <c r="C9" s="1">
         <v>120</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="247"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="249"/>
       <c r="I9" s="40" t="s">
         <v>401</v>
       </c>
@@ -8870,32 +8897,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="234"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="287" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="287"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288"/>
+      <c r="H3" s="288"/>
+      <c r="I3" s="288"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="289"/>
     </row>
     <row r="5" spans="2:11" ht="20.25">
       <c r="B5" s="3" t="s">
@@ -8986,32 +9013,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>560</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="234"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="287" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="287"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288"/>
+      <c r="H3" s="288"/>
+      <c r="I3" s="288"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="289"/>
     </row>
     <row r="5" spans="2:11" ht="20.25">
       <c r="B5" s="3" t="s">
@@ -9104,32 +9131,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="234"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="287" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="287"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="288"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="288"/>
+      <c r="H3" s="288"/>
+      <c r="I3" s="288"/>
+      <c r="J3" s="288"/>
+      <c r="K3" s="289"/>
     </row>
     <row r="5" spans="2:11" ht="20.25">
       <c r="B5" s="3" t="s">
@@ -9211,8 +9238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="D50" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="C28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9233,64 +9260,64 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="234"/>
     </row>
     <row r="3" spans="2:16" ht="36.950000000000003" customHeight="1">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="235" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="237"/>
     </row>
     <row r="4" spans="2:16" ht="15.75">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="240"/>
     </row>
     <row r="5" spans="2:16" ht="33" customHeight="1" thickBot="1">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="241" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="243"/>
     </row>
     <row r="7" spans="2:16" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
@@ -9308,24 +9335,24 @@
       <c r="C8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="242" t="s">
+      <c r="E8" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="244" t="s">
+      <c r="F8" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="244" t="s">
+      <c r="G8" s="246" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="246" t="s">
+      <c r="H8" s="248" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="246" t="s">
+      <c r="I8" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="248"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="248"/>
+      <c r="L8" s="250"/>
     </row>
     <row r="9" spans="2:16" ht="47.25">
       <c r="B9" s="1" t="s">
@@ -9334,10 +9361,10 @@
       <c r="C9" s="1">
         <v>96</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="247"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="249"/>
       <c r="I9" s="40" t="s">
         <v>397</v>
       </c>
@@ -10903,7 +10930,7 @@
     <mergeCell ref="I8:L8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10916,8 +10943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="F46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10932,60 +10959,60 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="234"/>
     </row>
     <row r="3" spans="2:11" ht="15.95" customHeight="1">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="235" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="237"/>
     </row>
     <row r="4" spans="2:11" ht="15.95" customHeight="1">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="240"/>
     </row>
     <row r="5" spans="2:11" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="241" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="243"/>
     </row>
     <row r="7" spans="2:11" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
@@ -11011,7 +11038,7 @@
       <c r="C8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="257" t="s">
+      <c r="E8" s="259" t="s">
         <v>195</v>
       </c>
       <c r="F8" s="59" t="s">
@@ -11029,7 +11056,7 @@
       <c r="J8" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="252" t="s">
+      <c r="K8" s="254" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11040,7 +11067,7 @@
       <c r="C9" s="1">
         <v>120</v>
       </c>
-      <c r="E9" s="258"/>
+      <c r="E9" s="260"/>
       <c r="F9" s="60" t="s">
         <v>154</v>
       </c>
@@ -11056,7 +11083,7 @@
       <c r="J9" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K9" s="253"/>
+      <c r="K9" s="255"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
@@ -11065,7 +11092,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="258"/>
+      <c r="E10" s="260"/>
       <c r="F10" s="60" t="s">
         <v>155</v>
       </c>
@@ -11081,7 +11108,7 @@
       <c r="J10" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="254"/>
+      <c r="K10" s="256"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
@@ -11091,7 +11118,7 @@
         <f>SUM(C8:C10)</f>
         <v>150</v>
       </c>
-      <c r="E11" s="258"/>
+      <c r="E11" s="260"/>
       <c r="F11" s="60" t="s">
         <v>157</v>
       </c>
@@ -11107,12 +11134,12 @@
       <c r="J11" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="255" t="s">
+      <c r="K11" s="257" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="E12" s="258"/>
+      <c r="E12" s="260"/>
       <c r="F12" s="60" t="s">
         <v>160</v>
       </c>
@@ -11128,10 +11155,10 @@
       <c r="J12" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="253"/>
+      <c r="K12" s="255"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="E13" s="258"/>
+      <c r="E13" s="260"/>
       <c r="F13" s="60" t="s">
         <v>162</v>
       </c>
@@ -11147,13 +11174,13 @@
       <c r="J13" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="253"/>
+      <c r="K13" s="255"/>
     </row>
     <row r="14" spans="2:11" ht="20.25">
       <c r="B14" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="258"/>
+      <c r="E14" s="260"/>
       <c r="F14" s="60" t="s">
         <v>165</v>
       </c>
@@ -11169,7 +11196,7 @@
       <c r="J14" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="253"/>
+      <c r="K14" s="255"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
@@ -11179,7 +11206,7 @@
         <f>'Principal - ABP'!F19</f>
         <v>6</v>
       </c>
-      <c r="E15" s="258"/>
+      <c r="E15" s="260"/>
       <c r="F15" s="60" t="s">
         <v>168</v>
       </c>
@@ -11195,7 +11222,7 @@
       <c r="J15" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="253"/>
+      <c r="K15" s="255"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="1" t="s">
@@ -11205,7 +11232,7 @@
         <f>C9*C15</f>
         <v>720</v>
       </c>
-      <c r="E16" s="258"/>
+      <c r="E16" s="260"/>
       <c r="F16" s="60" t="s">
         <v>170</v>
       </c>
@@ -11221,7 +11248,7 @@
       <c r="J16" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K16" s="253"/>
+      <c r="K16" s="255"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
@@ -11231,7 +11258,7 @@
         <f>(IF(C15=1,#REF!,IF(C15=2,#REF!,IF(C15=3,#REF!,IF(C15=4,H27,IF(C15=5,H48,H69))))))</f>
         <v>574</v>
       </c>
-      <c r="E17" s="258"/>
+      <c r="E17" s="260"/>
       <c r="F17" s="60" t="s">
         <v>173</v>
       </c>
@@ -11247,7 +11274,7 @@
       <c r="J17" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="253"/>
+      <c r="K17" s="255"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="1" t="s">
@@ -11257,7 +11284,7 @@
         <f>C17/C16-1</f>
         <v>-0.20277777777777772</v>
       </c>
-      <c r="E18" s="258"/>
+      <c r="E18" s="260"/>
       <c r="F18" s="60" t="s">
         <v>175</v>
       </c>
@@ -11273,7 +11300,7 @@
       <c r="J18" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K18" s="253"/>
+      <c r="K18" s="255"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="1" t="s">
@@ -11283,7 +11310,7 @@
         <f>C15*10</f>
         <v>60</v>
       </c>
-      <c r="E19" s="258"/>
+      <c r="E19" s="260"/>
       <c r="F19" s="60" t="s">
         <v>177</v>
       </c>
@@ -11299,7 +11326,7 @@
       <c r="J19" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="253"/>
+      <c r="K19" s="255"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="1" t="s">
@@ -11309,7 +11336,7 @@
         <f>IF(C15=1,#REF!,IF(C15=2,#REF!,IF(C15=3,#REF!,IF(C15=4,I27,IF(C15=5,I48,I69)))))</f>
         <v>60.000000000000007</v>
       </c>
-      <c r="E20" s="258"/>
+      <c r="E20" s="260"/>
       <c r="F20" s="60" t="s">
         <v>179</v>
       </c>
@@ -11325,10 +11352,10 @@
       <c r="J20" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="253"/>
+      <c r="K20" s="255"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="E21" s="258"/>
+      <c r="E21" s="260"/>
       <c r="F21" s="60" t="s">
         <v>184</v>
       </c>
@@ -11344,10 +11371,10 @@
       <c r="J21" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="253"/>
+      <c r="K21" s="255"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="E22" s="258"/>
+      <c r="E22" s="260"/>
       <c r="F22" s="60" t="s">
         <v>192</v>
       </c>
@@ -11363,10 +11390,10 @@
       <c r="J22" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K22" s="254"/>
+      <c r="K22" s="256"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="E23" s="258"/>
+      <c r="E23" s="260"/>
       <c r="F23" s="60" t="s">
         <v>193</v>
       </c>
@@ -11382,12 +11409,12 @@
       <c r="J23" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="K23" s="255" t="s">
+      <c r="K23" s="257" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="E24" s="258"/>
+      <c r="E24" s="260"/>
       <c r="F24" s="60" t="s">
         <v>197</v>
       </c>
@@ -11403,10 +11430,10 @@
       <c r="J24" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="K24" s="253"/>
+      <c r="K24" s="255"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="E25" s="258"/>
+      <c r="E25" s="260"/>
       <c r="F25" s="60" t="s">
         <v>199</v>
       </c>
@@ -11422,10 +11449,10 @@
       <c r="J25" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="253"/>
+      <c r="K25" s="255"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="E26" s="259"/>
+      <c r="E26" s="261"/>
       <c r="F26" s="62" t="s">
         <v>201</v>
       </c>
@@ -11441,7 +11468,7 @@
       <c r="J26" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="256"/>
+      <c r="K26" s="258"/>
     </row>
     <row r="27" spans="2:11" ht="15.75">
       <c r="F27" s="63"/>
@@ -11461,7 +11488,7 @@
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="29" spans="2:11">
-      <c r="E29" s="249" t="s">
+      <c r="E29" s="251" t="s">
         <v>203</v>
       </c>
       <c r="F29" s="59" t="s">
@@ -11479,12 +11506,12 @@
       <c r="J29" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="252" t="s">
+      <c r="K29" s="254" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="E30" s="250"/>
+      <c r="E30" s="252"/>
       <c r="F30" s="60" t="s">
         <v>154</v>
       </c>
@@ -11500,10 +11527,10 @@
       <c r="J30" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="253"/>
+      <c r="K30" s="255"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="E31" s="250"/>
+      <c r="E31" s="252"/>
       <c r="F31" s="60" t="s">
         <v>155</v>
       </c>
@@ -11519,10 +11546,10 @@
       <c r="J31" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K31" s="254"/>
+      <c r="K31" s="256"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="E32" s="250"/>
+      <c r="E32" s="252"/>
       <c r="F32" s="60" t="s">
         <v>157</v>
       </c>
@@ -11538,12 +11565,12 @@
       <c r="J32" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K32" s="255" t="s">
+      <c r="K32" s="257" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="5:11">
-      <c r="E33" s="250"/>
+      <c r="E33" s="252"/>
       <c r="F33" s="60" t="s">
         <v>160</v>
       </c>
@@ -11559,10 +11586,10 @@
       <c r="J33" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K33" s="253"/>
+      <c r="K33" s="255"/>
     </row>
     <row r="34" spans="5:11">
-      <c r="E34" s="250"/>
+      <c r="E34" s="252"/>
       <c r="F34" s="60" t="s">
         <v>162</v>
       </c>
@@ -11578,10 +11605,10 @@
       <c r="J34" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K34" s="253"/>
+      <c r="K34" s="255"/>
     </row>
     <row r="35" spans="5:11">
-      <c r="E35" s="250"/>
+      <c r="E35" s="252"/>
       <c r="F35" s="60" t="s">
         <v>165</v>
       </c>
@@ -11597,10 +11624,10 @@
       <c r="J35" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K35" s="253"/>
+      <c r="K35" s="255"/>
     </row>
     <row r="36" spans="5:11">
-      <c r="E36" s="250"/>
+      <c r="E36" s="252"/>
       <c r="F36" s="60" t="s">
         <v>168</v>
       </c>
@@ -11616,10 +11643,10 @@
       <c r="J36" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="253"/>
+      <c r="K36" s="255"/>
     </row>
     <row r="37" spans="5:11">
-      <c r="E37" s="250"/>
+      <c r="E37" s="252"/>
       <c r="F37" s="60" t="s">
         <v>170</v>
       </c>
@@ -11635,10 +11662,10 @@
       <c r="J37" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="253"/>
+      <c r="K37" s="255"/>
     </row>
     <row r="38" spans="5:11">
-      <c r="E38" s="250"/>
+      <c r="E38" s="252"/>
       <c r="F38" s="60" t="s">
         <v>173</v>
       </c>
@@ -11654,10 +11681,10 @@
       <c r="J38" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K38" s="253"/>
+      <c r="K38" s="255"/>
     </row>
     <row r="39" spans="5:11">
-      <c r="E39" s="250"/>
+      <c r="E39" s="252"/>
       <c r="F39" s="60" t="s">
         <v>175</v>
       </c>
@@ -11673,10 +11700,10 @@
       <c r="J39" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K39" s="253"/>
+      <c r="K39" s="255"/>
     </row>
     <row r="40" spans="5:11">
-      <c r="E40" s="250"/>
+      <c r="E40" s="252"/>
       <c r="F40" s="60" t="s">
         <v>177</v>
       </c>
@@ -11692,10 +11719,10 @@
       <c r="J40" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K40" s="253"/>
+      <c r="K40" s="255"/>
     </row>
     <row r="41" spans="5:11">
-      <c r="E41" s="250"/>
+      <c r="E41" s="252"/>
       <c r="F41" s="60" t="s">
         <v>179</v>
       </c>
@@ -11711,10 +11738,10 @@
       <c r="J41" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K41" s="253"/>
+      <c r="K41" s="255"/>
     </row>
     <row r="42" spans="5:11">
-      <c r="E42" s="250"/>
+      <c r="E42" s="252"/>
       <c r="F42" s="60" t="s">
         <v>184</v>
       </c>
@@ -11730,10 +11757,10 @@
       <c r="J42" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K42" s="253"/>
+      <c r="K42" s="255"/>
     </row>
     <row r="43" spans="5:11">
-      <c r="E43" s="250"/>
+      <c r="E43" s="252"/>
       <c r="F43" s="60" t="s">
         <v>192</v>
       </c>
@@ -11749,10 +11776,10 @@
       <c r="J43" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K43" s="253"/>
+      <c r="K43" s="255"/>
     </row>
     <row r="44" spans="5:11">
-      <c r="E44" s="250"/>
+      <c r="E44" s="252"/>
       <c r="F44" s="60" t="s">
         <v>193</v>
       </c>
@@ -11768,10 +11795,10 @@
       <c r="J44" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="K44" s="254"/>
+      <c r="K44" s="256"/>
     </row>
     <row r="45" spans="5:11">
-      <c r="E45" s="250"/>
+      <c r="E45" s="252"/>
       <c r="F45" s="60" t="s">
         <v>197</v>
       </c>
@@ -11787,12 +11814,12 @@
       <c r="J45" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="K45" s="255" t="s">
+      <c r="K45" s="257" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="46" spans="5:11">
-      <c r="E46" s="250"/>
+      <c r="E46" s="252"/>
       <c r="F46" s="60" t="s">
         <v>199</v>
       </c>
@@ -11808,10 +11835,10 @@
       <c r="J46" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="K46" s="253"/>
+      <c r="K46" s="255"/>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1">
-      <c r="E47" s="251"/>
+      <c r="E47" s="253"/>
       <c r="F47" s="62" t="s">
         <v>201</v>
       </c>
@@ -11827,7 +11854,7 @@
       <c r="J47" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="K47" s="256"/>
+      <c r="K47" s="258"/>
     </row>
     <row r="48" spans="5:11" ht="15.75">
       <c r="F48" s="63"/>
@@ -11847,7 +11874,7 @@
     </row>
     <row r="49" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="50" spans="5:11">
-      <c r="E50" s="249" t="s">
+      <c r="E50" s="251" t="s">
         <v>207</v>
       </c>
       <c r="F50" s="59" t="s">
@@ -11865,12 +11892,12 @@
       <c r="J50" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="K50" s="252" t="s">
+      <c r="K50" s="254" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="51" spans="5:11">
-      <c r="E51" s="250"/>
+      <c r="E51" s="252"/>
       <c r="F51" s="60" t="s">
         <v>154</v>
       </c>
@@ -11886,10 +11913,10 @@
       <c r="J51" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K51" s="253"/>
+      <c r="K51" s="255"/>
     </row>
     <row r="52" spans="5:11">
-      <c r="E52" s="250"/>
+      <c r="E52" s="252"/>
       <c r="F52" s="60" t="s">
         <v>155</v>
       </c>
@@ -11905,10 +11932,10 @@
       <c r="J52" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K52" s="254"/>
+      <c r="K52" s="256"/>
     </row>
     <row r="53" spans="5:11">
-      <c r="E53" s="250"/>
+      <c r="E53" s="252"/>
       <c r="F53" s="60" t="s">
         <v>157</v>
       </c>
@@ -11924,12 +11951,12 @@
       <c r="J53" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K53" s="255" t="s">
+      <c r="K53" s="257" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="5:11">
-      <c r="E54" s="250"/>
+      <c r="E54" s="252"/>
       <c r="F54" s="60" t="s">
         <v>160</v>
       </c>
@@ -11945,10 +11972,10 @@
       <c r="J54" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K54" s="253"/>
+      <c r="K54" s="255"/>
     </row>
     <row r="55" spans="5:11">
-      <c r="E55" s="250"/>
+      <c r="E55" s="252"/>
       <c r="F55" s="60" t="s">
         <v>162</v>
       </c>
@@ -11964,10 +11991,10 @@
       <c r="J55" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K55" s="253"/>
+      <c r="K55" s="255"/>
     </row>
     <row r="56" spans="5:11">
-      <c r="E56" s="250"/>
+      <c r="E56" s="252"/>
       <c r="F56" s="60" t="s">
         <v>165</v>
       </c>
@@ -11983,10 +12010,10 @@
       <c r="J56" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K56" s="253"/>
+      <c r="K56" s="255"/>
     </row>
     <row r="57" spans="5:11">
-      <c r="E57" s="250"/>
+      <c r="E57" s="252"/>
       <c r="F57" s="60" t="s">
         <v>168</v>
       </c>
@@ -12002,10 +12029,10 @@
       <c r="J57" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K57" s="253"/>
+      <c r="K57" s="255"/>
     </row>
     <row r="58" spans="5:11">
-      <c r="E58" s="250"/>
+      <c r="E58" s="252"/>
       <c r="F58" s="60" t="s">
         <v>170</v>
       </c>
@@ -12021,10 +12048,10 @@
       <c r="J58" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K58" s="253"/>
+      <c r="K58" s="255"/>
     </row>
     <row r="59" spans="5:11">
-      <c r="E59" s="250"/>
+      <c r="E59" s="252"/>
       <c r="F59" s="60" t="s">
         <v>173</v>
       </c>
@@ -12040,10 +12067,10 @@
       <c r="J59" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K59" s="253"/>
+      <c r="K59" s="255"/>
     </row>
     <row r="60" spans="5:11">
-      <c r="E60" s="250"/>
+      <c r="E60" s="252"/>
       <c r="F60" s="60" t="s">
         <v>175</v>
       </c>
@@ -12059,10 +12086,10 @@
       <c r="J60" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K60" s="253"/>
+      <c r="K60" s="255"/>
     </row>
     <row r="61" spans="5:11">
-      <c r="E61" s="250"/>
+      <c r="E61" s="252"/>
       <c r="F61" s="60" t="s">
         <v>177</v>
       </c>
@@ -12078,10 +12105,10 @@
       <c r="J61" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K61" s="253"/>
+      <c r="K61" s="255"/>
     </row>
     <row r="62" spans="5:11">
-      <c r="E62" s="250"/>
+      <c r="E62" s="252"/>
       <c r="F62" s="60" t="s">
         <v>179</v>
       </c>
@@ -12097,10 +12124,10 @@
       <c r="J62" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K62" s="253"/>
+      <c r="K62" s="255"/>
     </row>
     <row r="63" spans="5:11">
-      <c r="E63" s="250"/>
+      <c r="E63" s="252"/>
       <c r="F63" s="60" t="s">
         <v>184</v>
       </c>
@@ -12116,10 +12143,10 @@
       <c r="J63" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K63" s="253"/>
+      <c r="K63" s="255"/>
     </row>
     <row r="64" spans="5:11">
-      <c r="E64" s="250"/>
+      <c r="E64" s="252"/>
       <c r="F64" s="60" t="s">
         <v>192</v>
       </c>
@@ -12135,10 +12162,10 @@
       <c r="J64" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K64" s="253"/>
+      <c r="K64" s="255"/>
     </row>
     <row r="65" spans="5:11">
-      <c r="E65" s="250"/>
+      <c r="E65" s="252"/>
       <c r="F65" s="60" t="s">
         <v>193</v>
       </c>
@@ -12154,10 +12181,10 @@
       <c r="J65" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K65" s="253"/>
+      <c r="K65" s="255"/>
     </row>
     <row r="66" spans="5:11">
-      <c r="E66" s="250"/>
+      <c r="E66" s="252"/>
       <c r="F66" s="60" t="s">
         <v>197</v>
       </c>
@@ -12173,10 +12200,10 @@
       <c r="J66" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="K66" s="254"/>
+      <c r="K66" s="256"/>
     </row>
     <row r="67" spans="5:11">
-      <c r="E67" s="250"/>
+      <c r="E67" s="252"/>
       <c r="F67" s="60" t="s">
         <v>199</v>
       </c>
@@ -12192,12 +12219,12 @@
       <c r="J67" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="K67" s="255" t="s">
+      <c r="K67" s="257" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="68" spans="5:11" ht="15.75" thickBot="1">
-      <c r="E68" s="251"/>
+      <c r="E68" s="253"/>
       <c r="F68" s="62" t="s">
         <v>201</v>
       </c>
@@ -12213,7 +12240,7 @@
       <c r="J68" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="K68" s="256"/>
+      <c r="K68" s="258"/>
     </row>
     <row r="69" spans="5:11" ht="15.75">
       <c r="F69" s="63"/>
@@ -12280,8 +12307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
@@ -12293,32 +12320,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="268" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
     </row>
     <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="269" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="67"/>
@@ -12333,20 +12360,20 @@
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="20.85" customHeight="1">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="263"/>
+      <c r="B4" s="270"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="263" t="s">
+      <c r="D4" s="270" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="270"/>
+      <c r="J4" s="270"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="68" t="s">
@@ -12356,14 +12383,14 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="260" t="s">
+      <c r="D5" s="263" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
@@ -12377,14 +12404,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="263" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
@@ -12398,14 +12425,14 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="260" t="s">
+      <c r="D7" s="263" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
       <c r="J7" s="73">
         <f>I13</f>
         <v>694</v>
@@ -12419,14 +12446,14 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="260" t="s">
+      <c r="D8" s="263" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="263"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
         <v>5.1515151515151514E-2</v>
@@ -12441,14 +12468,14 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="264" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="264"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="264"/>
       <c r="J9" s="77">
         <f>J13</f>
         <v>63.090909090909079</v>
@@ -12467,37 +12494,37 @@
       <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="266" t="s">
+      <c r="B11" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="266" t="s">
+      <c r="C11" s="265" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="267" t="s">
+      <c r="D11" s="266" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="268" t="s">
+      <c r="E11" s="267" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="267" t="s">
+      <c r="F11" s="266" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="267"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="268" t="s">
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="267" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="268"/>
+      <c r="J11" s="267"/>
     </row>
     <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="266"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
+      <c r="A12" s="265"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="266"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -12515,14 +12542,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="264"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="264"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="264"/>
+      <c r="A13" s="262"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="262"/>
       <c r="I13" s="80">
         <f>SUM(I14:I49)</f>
         <v>694</v>
@@ -13684,6 +13711,12 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -13695,12 +13728,6 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
@@ -13728,8 +13755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
@@ -13741,32 +13768,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="268" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
     </row>
     <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="269" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="67"/>
@@ -13781,20 +13808,20 @@
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="20.85" customHeight="1">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="263"/>
+      <c r="B4" s="270"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="263" t="s">
+      <c r="D4" s="270" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="270"/>
+      <c r="H4" s="270"/>
+      <c r="I4" s="270"/>
+      <c r="J4" s="270"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="68" t="s">
@@ -13804,14 +13831,14 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="260" t="s">
+      <c r="D5" s="263" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
+      <c r="I5" s="263"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
@@ -13825,14 +13852,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="263" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="263"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="263"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
@@ -13846,17 +13873,17 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="260" t="s">
+      <c r="D7" s="263" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="263"/>
       <c r="J7" s="73">
         <f>I13</f>
-        <v>413</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1">
@@ -13867,17 +13894,17 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="260" t="s">
+      <c r="D8" s="263" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="263"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
-        <v>0.37424242424242427</v>
+        <v>0.18939393939393939</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75">
@@ -13889,17 +13916,17 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="264" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="264"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="264"/>
       <c r="J9" s="77">
         <f>J13</f>
-        <v>37.545454545454554</v>
+        <v>48.636363636363647</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13915,37 +13942,37 @@
       <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="266" t="s">
+      <c r="B11" s="265" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="266" t="s">
+      <c r="C11" s="265" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="267" t="s">
+      <c r="D11" s="266" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="268" t="s">
+      <c r="E11" s="267" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="267" t="s">
+      <c r="F11" s="266" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="267"/>
-      <c r="H11" s="267"/>
-      <c r="I11" s="268" t="s">
+      <c r="G11" s="266"/>
+      <c r="H11" s="266"/>
+      <c r="I11" s="267" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="268"/>
+      <c r="J11" s="267"/>
     </row>
     <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="266"/>
-      <c r="B12" s="266"/>
-      <c r="C12" s="266"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
+      <c r="A12" s="265"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="266"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -13963,21 +13990,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="264"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="264"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="264"/>
+      <c r="A13" s="262"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="262"/>
       <c r="I13" s="80">
         <f>SUM(I14:I48)</f>
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="J13" s="80">
         <f>SUM(J14:J48)</f>
-        <v>37.545454545454554</v>
+        <v>48.636363636363647</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31.5">
@@ -14159,7 +14186,9 @@
       <c r="D19" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="84"/>
+      <c r="E19" s="84">
+        <v>1</v>
+      </c>
       <c r="F19" s="85"/>
       <c r="G19" s="85">
         <v>5</v>
@@ -14168,10 +14197,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I19" s="87"/>
+      <c r="I19" s="87">
+        <v>8</v>
+      </c>
       <c r="J19" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
@@ -14401,11 +14432,11 @@
         <v>28</v>
       </c>
       <c r="I26" s="87">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J26" s="88">
         <f t="shared" si="1"/>
-        <v>2.5454545454545454</v>
+        <v>1.2727272727272727</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="31.5">
@@ -14421,7 +14452,9 @@
       <c r="D27" s="81">
         <v>1</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="84">
+        <v>1</v>
+      </c>
       <c r="F27" s="85">
         <v>1</v>
       </c>
@@ -14451,8 +14484,8 @@
       <c r="D28" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="84" t="s">
-        <v>584</v>
+      <c r="E28" s="84">
+        <v>1</v>
       </c>
       <c r="F28" s="85">
         <v>3</v>
@@ -14464,10 +14497,12 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I28" s="87"/>
+      <c r="I28" s="87">
+        <v>28</v>
+      </c>
       <c r="J28" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5454545454545454</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75">
@@ -14483,8 +14518,8 @@
       <c r="D29" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="84" t="s">
-        <v>584</v>
+      <c r="E29" s="84">
+        <v>1</v>
       </c>
       <c r="F29" s="85">
         <v>5</v>
@@ -14496,10 +14531,12 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="I29" s="87"/>
+      <c r="I29" s="87">
+        <v>55</v>
+      </c>
       <c r="J29" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75">
@@ -14515,8 +14552,8 @@
       <c r="D30" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="E30" s="84" t="s">
-        <v>584</v>
+      <c r="E30" s="84">
+        <v>3</v>
       </c>
       <c r="F30" s="85">
         <v>5</v>
@@ -14528,10 +14565,12 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I30" s="87"/>
+      <c r="I30" s="87">
+        <v>45</v>
+      </c>
       <c r="J30" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0909090909090908</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75">
@@ -15121,12 +15160,6 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -15138,6 +15171,12 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
@@ -15165,7 +15204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection sqref="A1:O62"/>
     </sheetView>
   </sheetViews>
@@ -15177,76 +15216,76 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="234"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="235" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="237"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="240"/>
     </row>
     <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="240"/>
-      <c r="O5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="243"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:15" ht="20.25">
@@ -16393,76 +16432,76 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="234"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="235" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="237"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="240"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="240"/>
-      <c r="O5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="243"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:15" ht="20.25">
@@ -16866,7 +16905,7 @@
       <c r="L25" s="188"/>
       <c r="M25" s="188"/>
       <c r="N25" s="188"/>
-      <c r="O25" s="288">
+      <c r="O25" s="210">
         <v>0.2</v>
       </c>
     </row>
@@ -16889,7 +16928,7 @@
       <c r="L26" s="188"/>
       <c r="M26" s="188"/>
       <c r="N26" s="188"/>
-      <c r="O26" s="288">
+      <c r="O26" s="210">
         <v>0.1</v>
       </c>
     </row>
@@ -16908,7 +16947,7 @@
       <c r="L27" s="188"/>
       <c r="M27" s="188"/>
       <c r="N27" s="188"/>
-      <c r="O27" s="288">
+      <c r="O27" s="210">
         <v>0.35</v>
       </c>
     </row>
@@ -16927,7 +16966,7 @@
       <c r="L28" s="188"/>
       <c r="M28" s="188"/>
       <c r="N28" s="188"/>
-      <c r="O28" s="288">
+      <c r="O28" s="210">
         <v>0.3</v>
       </c>
     </row>
@@ -16946,7 +16985,7 @@
       <c r="L29" s="191"/>
       <c r="M29" s="191"/>
       <c r="N29" s="191"/>
-      <c r="O29" s="289">
+      <c r="O29" s="211">
         <v>0.05</v>
       </c>
     </row>
@@ -17561,32 +17600,32 @@
     <mergeCell ref="B5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:O12">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>($C$15=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:O20">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>($C$15=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:O29">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>($C$15=3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:O39">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>($C$15=4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:O50">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>($C$15=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:O62">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>($C$15=6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17598,8 +17637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17615,72 +17654,72 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>434</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="234"/>
       <c r="L2" s="113"/>
       <c r="M2" s="113"/>
       <c r="N2" s="113"/>
       <c r="O2" s="113"/>
     </row>
     <row r="3" spans="2:15" ht="33.950000000000003" customHeight="1">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="235" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="237"/>
       <c r="L3" s="114"/>
       <c r="M3" s="114"/>
       <c r="N3" s="114"/>
       <c r="O3" s="114"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="240"/>
       <c r="L4" s="114"/>
       <c r="M4" s="114"/>
       <c r="N4" s="114"/>
       <c r="O4" s="114"/>
     </row>
     <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="241" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="243"/>
       <c r="L5" s="114"/>
       <c r="M5" s="114"/>
       <c r="N5" s="114"/>
@@ -17732,10 +17771,10 @@
       <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="269" t="s">
+      <c r="E10" s="271" t="s">
         <v>441</v>
       </c>
-      <c r="F10" s="273" t="s">
+      <c r="F10" s="275" t="s">
         <v>442</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -17764,8 +17803,8 @@
         <f>SUM(C8:C10)</f>
         <v>150</v>
       </c>
-      <c r="E11" s="270"/>
-      <c r="F11" s="274"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="276"/>
       <c r="G11" s="1" t="s">
         <v>445</v>
       </c>
@@ -17785,8 +17824,8 @@
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="E12" s="270"/>
-      <c r="F12" s="274"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="276"/>
       <c r="G12" s="1" t="s">
         <v>446</v>
       </c>
@@ -17812,8 +17851,8 @@
       <c r="C13" s="120">
         <v>10</v>
       </c>
-      <c r="E13" s="270"/>
-      <c r="F13" s="275"/>
+      <c r="E13" s="272"/>
+      <c r="F13" s="277"/>
       <c r="G13" s="1" t="s">
         <v>448</v>
       </c>
@@ -17839,8 +17878,8 @@
       <c r="C14" s="120">
         <v>1</v>
       </c>
-      <c r="E14" s="270"/>
-      <c r="F14" s="276" t="s">
+      <c r="E14" s="272"/>
+      <c r="F14" s="278" t="s">
         <v>450</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -17868,8 +17907,8 @@
       <c r="C15" s="1">
         <v>200</v>
       </c>
-      <c r="E15" s="270"/>
-      <c r="F15" s="277"/>
+      <c r="E15" s="272"/>
+      <c r="F15" s="279"/>
       <c r="G15" s="122" t="s">
         <v>453</v>
       </c>
@@ -17895,7 +17934,7 @@
       <c r="C16" s="1">
         <v>20</v>
       </c>
-      <c r="E16" s="271"/>
+      <c r="E16" s="273"/>
       <c r="F16" s="125" t="s">
         <v>455</v>
       </c>
@@ -17959,7 +17998,7 @@
         <f>C9*C20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="269" t="s">
+      <c r="E21" s="271" t="s">
         <v>459</v>
       </c>
       <c r="F21" s="132"/>
@@ -17989,7 +18028,7 @@
         <f>C20*10</f>
         <v>0</v>
       </c>
-      <c r="E22" s="270"/>
+      <c r="E22" s="272"/>
       <c r="F22" s="136"/>
       <c r="G22" s="122"/>
       <c r="H22" s="122"/>
@@ -18005,7 +18044,7 @@
         <f>J18/J34</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="E23" s="271"/>
+      <c r="E23" s="273"/>
       <c r="F23" s="125"/>
       <c r="G23" s="126"/>
       <c r="H23" s="126"/>
@@ -18035,7 +18074,7 @@
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="26" spans="2:11">
-      <c r="E26" s="269" t="s">
+      <c r="E26" s="271" t="s">
         <v>464</v>
       </c>
       <c r="F26" s="132"/>
@@ -18058,7 +18097,7 @@
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="E27" s="270"/>
+      <c r="E27" s="272"/>
       <c r="F27" s="138"/>
       <c r="G27" s="1" t="s">
         <v>466</v>
@@ -18079,10 +18118,10 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="272" t="s">
+      <c r="B28" s="274" t="s">
         <v>467</v>
       </c>
-      <c r="E28" s="270"/>
+      <c r="E28" s="272"/>
       <c r="F28" s="136"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -18091,8 +18130,8 @@
       <c r="K28" s="139"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="272"/>
-      <c r="E29" s="270"/>
+      <c r="B29" s="274"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="136"/>
       <c r="G29" s="122"/>
       <c r="H29" s="122"/>
@@ -18101,8 +18140,8 @@
       <c r="K29" s="124"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B30" s="272"/>
-      <c r="E30" s="271"/>
+      <c r="B30" s="274"/>
+      <c r="E30" s="273"/>
       <c r="F30" s="125"/>
       <c r="G30" s="126" t="s">
         <v>468</v>
@@ -18121,7 +18160,7 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="272"/>
+      <c r="B31" s="274"/>
       <c r="G31" s="131" t="s">
         <v>470</v>
       </c>
@@ -18135,13 +18174,13 @@
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="272"/>
+      <c r="B32" s="274"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="272"/>
+      <c r="B33" s="274"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="272"/>
+      <c r="B34" s="274"/>
       <c r="G34" s="29" t="s">
         <v>42</v>
       </c>
@@ -18159,7 +18198,7 @@
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="272"/>
+      <c r="B35" s="274"/>
     </row>
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
@@ -18176,12 +18215,12 @@
     <mergeCell ref="F14:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>OR($C$23&lt;60%,$C$23&gt;70%)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>OR($C$24&lt;30%,$C$24&gt;40%)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18211,74 +18250,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="232" t="s">
         <v>532</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
-      <c r="L2" s="231"/>
-      <c r="M2" s="231"/>
-      <c r="N2" s="231"/>
-      <c r="O2" s="232"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="234"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="233"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
-      <c r="N3" s="234"/>
-      <c r="O3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="237"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="238" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="237"/>
-      <c r="I4" s="237"/>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="238"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="240"/>
     </row>
     <row r="5" spans="2:15" ht="38.1" customHeight="1" thickBot="1">
-      <c r="B5" s="239" t="s">
+      <c r="B5" s="241" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="240"/>
-      <c r="O5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
+      <c r="O5" s="243"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:15" ht="21" thickBot="1">
@@ -19152,32 +19191,32 @@
     <mergeCell ref="B5:O5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:O7">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>($C$15=1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:O16">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>($C$15=2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:O39">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>($C$15=3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:O54">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>OR($C$15=4,$C$15=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:O56">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>($C$15=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:O27">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>($C$15=2)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
+++ b/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
@@ -4733,6 +4733,8 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4885,11 +4887,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4902,15 +4913,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4969,8 +4971,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="168">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
@@ -5849,113 +5849,113 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:18" ht="23.25">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="217" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="219"/>
     </row>
     <row r="3" spans="2:18" ht="47.1" customHeight="1">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="219"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
+      <c r="K3" s="221"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="222"/>
     </row>
     <row r="4" spans="2:18" ht="15.75">
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="226" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="225"/>
-      <c r="O4" s="225"/>
-      <c r="P4" s="225"/>
-      <c r="Q4" s="225"/>
-      <c r="R4" s="226"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="227"/>
+      <c r="F4" s="227"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="227"/>
+      <c r="O4" s="227"/>
+      <c r="P4" s="227"/>
+      <c r="Q4" s="227"/>
+      <c r="R4" s="228"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="228" t="s">
+      <c r="C5" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="228"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
-      <c r="N5" s="228"/>
-      <c r="O5" s="228"/>
-      <c r="P5" s="228"/>
-      <c r="Q5" s="228"/>
-      <c r="R5" s="229"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="230"/>
+      <c r="O5" s="230"/>
+      <c r="P5" s="230"/>
+      <c r="Q5" s="230"/>
+      <c r="R5" s="231"/>
     </row>
     <row r="6" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B6" s="221" t="s">
+      <c r="B6" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="222"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="222"/>
-      <c r="L6" s="222"/>
-      <c r="M6" s="222"/>
-      <c r="N6" s="222"/>
-      <c r="O6" s="222"/>
-      <c r="P6" s="222"/>
-      <c r="Q6" s="222"/>
-      <c r="R6" s="223"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="224"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="224"/>
+      <c r="N6" s="224"/>
+      <c r="O6" s="224"/>
+      <c r="P6" s="224"/>
+      <c r="Q6" s="224"/>
+      <c r="R6" s="225"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="8"/>
@@ -5999,32 +5999,32 @@
       <c r="B9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="230" t="s">
+      <c r="C9" s="232" t="s">
         <v>570</v>
       </c>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="231"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="233"/>
     </row>
     <row r="11" spans="2:18" ht="15.75">
-      <c r="E11" s="212" t="s">
+      <c r="E11" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="212"/>
-      <c r="G11" s="213" t="s">
+      <c r="F11" s="214"/>
+      <c r="G11" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="214" t="s">
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="214"/>
-      <c r="P11" s="214"/>
+      <c r="M11" s="216"/>
+      <c r="N11" s="216"/>
+      <c r="O11" s="216"/>
+      <c r="P11" s="216"/>
     </row>
     <row r="12" spans="2:18" s="14" customFormat="1" ht="76.5" thickBot="1">
       <c r="B12" s="9" t="s">
@@ -6495,74 +6495,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>532</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="236"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="239"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="240"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="242"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="245"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:15" ht="21" thickBot="1">
@@ -6690,7 +6690,7 @@
       </c>
       <c r="L12" s="188"/>
       <c r="M12" s="188"/>
-      <c r="N12" s="290">
+      <c r="N12" s="212">
         <v>0.02</v>
       </c>
       <c r="O12" s="189" t="s">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="L13" s="188"/>
       <c r="M13" s="188"/>
-      <c r="N13" s="291">
+      <c r="N13" s="213">
         <v>0.15</v>
       </c>
       <c r="O13" s="189" t="s">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="L14" s="188"/>
       <c r="M14" s="188"/>
-      <c r="N14" s="291">
+      <c r="N14" s="213">
         <v>0.15</v>
       </c>
       <c r="O14" s="194" t="s">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="L15" s="188"/>
       <c r="M15" s="188"/>
-      <c r="N15" s="291">
+      <c r="N15" s="213">
         <v>0.02</v>
       </c>
       <c r="O15" s="189" t="s">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="L16" s="188"/>
       <c r="M16" s="188"/>
-      <c r="N16" s="291">
+      <c r="N16" s="213">
         <v>0.1</v>
       </c>
       <c r="O16" s="189" t="s">
@@ -6832,7 +6832,7 @@
       </c>
       <c r="L17" s="188"/>
       <c r="M17" s="188"/>
-      <c r="N17" s="291">
+      <c r="N17" s="213">
         <v>0.25</v>
       </c>
       <c r="O17" s="189" t="s">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="L21" s="188"/>
       <c r="M21" s="188"/>
-      <c r="N21" s="290">
+      <c r="N21" s="212">
         <v>0.02</v>
       </c>
       <c r="O21" s="189" t="s">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="L22" s="188"/>
       <c r="M22" s="188"/>
-      <c r="N22" s="290">
+      <c r="N22" s="212">
         <v>0.02</v>
       </c>
       <c r="O22" s="189" t="s">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="L23" s="188"/>
       <c r="M23" s="188"/>
-      <c r="N23" s="291">
+      <c r="N23" s="213">
         <v>0.2</v>
       </c>
       <c r="O23" s="189" t="s">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="L24" s="188"/>
       <c r="M24" s="188"/>
-      <c r="N24" s="291">
+      <c r="N24" s="213">
         <v>0.15</v>
       </c>
       <c r="O24" s="189" t="s">
@@ -7006,7 +7006,7 @@
       <c r="K25" s="188"/>
       <c r="L25" s="188"/>
       <c r="M25" s="188"/>
-      <c r="N25" s="290">
+      <c r="N25" s="212">
         <f>SUM(N12:N24)</f>
         <v>1.0799999999999998</v>
       </c>
@@ -7157,84 +7157,84 @@
       <c r="G1" s="145"/>
     </row>
     <row r="2" spans="2:17" ht="23.25">
-      <c r="B2" s="280" t="s">
+      <c r="B2" s="282" t="s">
         <v>471</v>
       </c>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="282"/>
+      <c r="L2" s="282"/>
+      <c r="M2" s="282"/>
+      <c r="N2" s="282"/>
+      <c r="O2" s="282"/>
+      <c r="P2" s="282"/>
+      <c r="Q2" s="282"/>
     </row>
     <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="283" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="281"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="281"/>
-      <c r="F3" s="281"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="283"/>
+      <c r="M3" s="283"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="283"/>
+      <c r="P3" s="283"/>
+      <c r="Q3" s="283"/>
     </row>
     <row r="4" spans="2:17" ht="15.6" customHeight="1">
-      <c r="B4" s="282" t="s">
+      <c r="B4" s="284" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="284"/>
+      <c r="N4" s="284"/>
+      <c r="O4" s="284"/>
+      <c r="P4" s="284"/>
+      <c r="Q4" s="284"/>
     </row>
     <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>567</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="244"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="245"/>
     </row>
     <row r="7" spans="2:17" ht="21" thickBot="1">
       <c r="B7" s="146" t="s">
@@ -7252,29 +7252,29 @@
       <c r="C8" s="148">
         <v>30</v>
       </c>
-      <c r="E8" s="283" t="s">
+      <c r="E8" s="285" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="284" t="s">
+      <c r="F8" s="286" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="284" t="s">
+      <c r="G8" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="285" t="s">
+      <c r="H8" s="287" t="s">
         <v>400</v>
       </c>
-      <c r="I8" s="286" t="s">
+      <c r="I8" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="286"/>
-      <c r="N8" s="286"/>
-      <c r="O8" s="286"/>
-      <c r="P8" s="286"/>
-      <c r="Q8" s="286"/>
+      <c r="J8" s="288"/>
+      <c r="K8" s="288"/>
+      <c r="L8" s="288"/>
+      <c r="M8" s="288"/>
+      <c r="N8" s="288"/>
+      <c r="O8" s="288"/>
+      <c r="P8" s="288"/>
+      <c r="Q8" s="288"/>
     </row>
     <row r="9" spans="2:17" ht="47.25">
       <c r="B9" s="148" t="s">
@@ -7283,10 +7283,10 @@
       <c r="C9" s="148">
         <v>120</v>
       </c>
-      <c r="E9" s="283"/>
-      <c r="F9" s="284"/>
-      <c r="G9" s="284"/>
-      <c r="H9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="286"/>
+      <c r="H9" s="287"/>
       <c r="I9" s="149" t="s">
         <v>401</v>
       </c>
@@ -7972,84 +7972,84 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:17" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="233"/>
-      <c r="P2" s="233"/>
-      <c r="Q2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="235"/>
+      <c r="Q2" s="236"/>
     </row>
     <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1">
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="237" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
-      <c r="Q3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="239"/>
     </row>
     <row r="4" spans="2:17" ht="15.75">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="239"/>
-      <c r="P4" s="239"/>
-      <c r="Q4" s="240"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="241"/>
+      <c r="P4" s="241"/>
+      <c r="Q4" s="242"/>
     </row>
     <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>433</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="242"/>
-      <c r="Q5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="244"/>
+      <c r="P5" s="244"/>
+      <c r="Q5" s="245"/>
     </row>
     <row r="7" spans="2:17" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
@@ -8067,29 +8067,29 @@
       <c r="C8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="244" t="s">
+      <c r="E8" s="246" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="246" t="s">
+      <c r="F8" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="246" t="s">
+      <c r="G8" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="248" t="s">
+      <c r="H8" s="250" t="s">
         <v>400</v>
       </c>
-      <c r="I8" s="248" t="s">
+      <c r="I8" s="250" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="248"/>
-      <c r="K8" s="248"/>
-      <c r="L8" s="248"/>
-      <c r="M8" s="248"/>
-      <c r="N8" s="248"/>
-      <c r="O8" s="248"/>
-      <c r="P8" s="248"/>
-      <c r="Q8" s="250"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="250"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="250"/>
+      <c r="N8" s="250"/>
+      <c r="O8" s="250"/>
+      <c r="P8" s="250"/>
+      <c r="Q8" s="252"/>
     </row>
     <row r="9" spans="2:17" ht="47.25">
       <c r="B9" s="1" t="s">
@@ -8098,10 +8098,10 @@
       <c r="C9" s="1">
         <v>120</v>
       </c>
-      <c r="E9" s="245"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="249"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="251"/>
       <c r="I9" s="40" t="s">
         <v>401</v>
       </c>
@@ -8897,32 +8897,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="236"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="287" t="s">
+      <c r="B3" s="289" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="289"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="291"/>
     </row>
     <row r="5" spans="2:11" ht="20.25">
       <c r="B5" s="3" t="s">
@@ -9013,32 +9013,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>560</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="236"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="287" t="s">
+      <c r="B3" s="289" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="289"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="291"/>
     </row>
     <row r="5" spans="2:11" ht="20.25">
       <c r="B5" s="3" t="s">
@@ -9131,32 +9131,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="236"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="287" t="s">
+      <c r="B3" s="289" t="s">
         <v>557</v>
       </c>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288"/>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288"/>
-      <c r="J3" s="288"/>
-      <c r="K3" s="289"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="291"/>
     </row>
     <row r="5" spans="2:11" ht="20.25">
       <c r="B5" s="3" t="s">
@@ -9239,7 +9239,7 @@
   <dimension ref="B1:P55"/>
   <sheetViews>
     <sheetView topLeftCell="C28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9260,64 +9260,64 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:16" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="236"/>
     </row>
     <row r="3" spans="2:16" ht="36.950000000000003" customHeight="1">
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="239"/>
     </row>
     <row r="4" spans="2:16" ht="15.75">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="240"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="242"/>
     </row>
     <row r="5" spans="2:16" ht="33" customHeight="1" thickBot="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="245"/>
     </row>
     <row r="7" spans="2:16" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
@@ -9335,24 +9335,24 @@
       <c r="C8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="244" t="s">
+      <c r="E8" s="246" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="246" t="s">
+      <c r="F8" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="246" t="s">
+      <c r="G8" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="248" t="s">
+      <c r="H8" s="250" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="248" t="s">
+      <c r="I8" s="250" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="248"/>
-      <c r="K8" s="248"/>
-      <c r="L8" s="250"/>
+      <c r="J8" s="250"/>
+      <c r="K8" s="250"/>
+      <c r="L8" s="252"/>
     </row>
     <row r="9" spans="2:16" ht="47.25">
       <c r="B9" s="1" t="s">
@@ -9361,10 +9361,10 @@
       <c r="C9" s="1">
         <v>96</v>
       </c>
-      <c r="E9" s="245"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="249"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="251"/>
       <c r="I9" s="40" t="s">
         <v>397</v>
       </c>
@@ -10943,7 +10943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K69"/>
   <sheetViews>
-    <sheetView topLeftCell="F46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="G46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
@@ -10959,60 +10959,60 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:11" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="236"/>
     </row>
     <row r="3" spans="2:11" ht="15.95" customHeight="1">
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="237" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="239"/>
     </row>
     <row r="4" spans="2:11" ht="15.95" customHeight="1">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="240"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="242"/>
     </row>
     <row r="5" spans="2:11" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="245"/>
     </row>
     <row r="7" spans="2:11" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
@@ -11038,7 +11038,7 @@
       <c r="C8" s="1">
         <v>30</v>
       </c>
-      <c r="E8" s="259" t="s">
+      <c r="E8" s="261" t="s">
         <v>195</v>
       </c>
       <c r="F8" s="59" t="s">
@@ -11056,7 +11056,7 @@
       <c r="J8" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="254" t="s">
+      <c r="K8" s="256" t="s">
         <v>491</v>
       </c>
     </row>
@@ -11067,7 +11067,7 @@
       <c r="C9" s="1">
         <v>120</v>
       </c>
-      <c r="E9" s="260"/>
+      <c r="E9" s="262"/>
       <c r="F9" s="60" t="s">
         <v>154</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="J9" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K9" s="255"/>
+      <c r="K9" s="257"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
@@ -11092,7 +11092,7 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="260"/>
+      <c r="E10" s="262"/>
       <c r="F10" s="60" t="s">
         <v>155</v>
       </c>
@@ -11108,7 +11108,7 @@
       <c r="J10" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="256"/>
+      <c r="K10" s="258"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
@@ -11118,7 +11118,7 @@
         <f>SUM(C8:C10)</f>
         <v>150</v>
       </c>
-      <c r="E11" s="260"/>
+      <c r="E11" s="262"/>
       <c r="F11" s="60" t="s">
         <v>157</v>
       </c>
@@ -11134,12 +11134,12 @@
       <c r="J11" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="257" t="s">
+      <c r="K11" s="259" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="E12" s="260"/>
+      <c r="E12" s="262"/>
       <c r="F12" s="60" t="s">
         <v>160</v>
       </c>
@@ -11155,10 +11155,10 @@
       <c r="J12" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="255"/>
+      <c r="K12" s="257"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="E13" s="260"/>
+      <c r="E13" s="262"/>
       <c r="F13" s="60" t="s">
         <v>162</v>
       </c>
@@ -11174,13 +11174,13 @@
       <c r="J13" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="255"/>
+      <c r="K13" s="257"/>
     </row>
     <row r="14" spans="2:11" ht="20.25">
       <c r="B14" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="260"/>
+      <c r="E14" s="262"/>
       <c r="F14" s="60" t="s">
         <v>165</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="J14" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="255"/>
+      <c r="K14" s="257"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
@@ -11206,7 +11206,7 @@
         <f>'Principal - ABP'!F19</f>
         <v>6</v>
       </c>
-      <c r="E15" s="260"/>
+      <c r="E15" s="262"/>
       <c r="F15" s="60" t="s">
         <v>168</v>
       </c>
@@ -11222,7 +11222,7 @@
       <c r="J15" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K15" s="255"/>
+      <c r="K15" s="257"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="1" t="s">
@@ -11232,7 +11232,7 @@
         <f>C9*C15</f>
         <v>720</v>
       </c>
-      <c r="E16" s="260"/>
+      <c r="E16" s="262"/>
       <c r="F16" s="60" t="s">
         <v>170</v>
       </c>
@@ -11248,7 +11248,7 @@
       <c r="J16" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K16" s="255"/>
+      <c r="K16" s="257"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
@@ -11258,7 +11258,7 @@
         <f>(IF(C15=1,#REF!,IF(C15=2,#REF!,IF(C15=3,#REF!,IF(C15=4,H27,IF(C15=5,H48,H69))))))</f>
         <v>574</v>
       </c>
-      <c r="E17" s="260"/>
+      <c r="E17" s="262"/>
       <c r="F17" s="60" t="s">
         <v>173</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="J17" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="255"/>
+      <c r="K17" s="257"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="1" t="s">
@@ -11284,7 +11284,7 @@
         <f>C17/C16-1</f>
         <v>-0.20277777777777772</v>
       </c>
-      <c r="E18" s="260"/>
+      <c r="E18" s="262"/>
       <c r="F18" s="60" t="s">
         <v>175</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="J18" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K18" s="255"/>
+      <c r="K18" s="257"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="1" t="s">
@@ -11310,7 +11310,7 @@
         <f>C15*10</f>
         <v>60</v>
       </c>
-      <c r="E19" s="260"/>
+      <c r="E19" s="262"/>
       <c r="F19" s="60" t="s">
         <v>177</v>
       </c>
@@ -11326,7 +11326,7 @@
       <c r="J19" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K19" s="255"/>
+      <c r="K19" s="257"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="1" t="s">
@@ -11336,7 +11336,7 @@
         <f>IF(C15=1,#REF!,IF(C15=2,#REF!,IF(C15=3,#REF!,IF(C15=4,I27,IF(C15=5,I48,I69)))))</f>
         <v>60.000000000000007</v>
       </c>
-      <c r="E20" s="260"/>
+      <c r="E20" s="262"/>
       <c r="F20" s="60" t="s">
         <v>179</v>
       </c>
@@ -11352,10 +11352,10 @@
       <c r="J20" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="255"/>
+      <c r="K20" s="257"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="E21" s="260"/>
+      <c r="E21" s="262"/>
       <c r="F21" s="60" t="s">
         <v>184</v>
       </c>
@@ -11371,10 +11371,10 @@
       <c r="J21" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="255"/>
+      <c r="K21" s="257"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="E22" s="260"/>
+      <c r="E22" s="262"/>
       <c r="F22" s="60" t="s">
         <v>192</v>
       </c>
@@ -11390,10 +11390,10 @@
       <c r="J22" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K22" s="256"/>
+      <c r="K22" s="258"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="E23" s="260"/>
+      <c r="E23" s="262"/>
       <c r="F23" s="60" t="s">
         <v>193</v>
       </c>
@@ -11409,12 +11409,12 @@
       <c r="J23" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="K23" s="257" t="s">
+      <c r="K23" s="259" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="E24" s="260"/>
+      <c r="E24" s="262"/>
       <c r="F24" s="60" t="s">
         <v>197</v>
       </c>
@@ -11430,10 +11430,10 @@
       <c r="J24" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="K24" s="255"/>
+      <c r="K24" s="257"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="E25" s="260"/>
+      <c r="E25" s="262"/>
       <c r="F25" s="60" t="s">
         <v>199</v>
       </c>
@@ -11449,10 +11449,10 @@
       <c r="J25" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="K25" s="255"/>
+      <c r="K25" s="257"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="E26" s="261"/>
+      <c r="E26" s="263"/>
       <c r="F26" s="62" t="s">
         <v>201</v>
       </c>
@@ -11468,7 +11468,7 @@
       <c r="J26" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="258"/>
+      <c r="K26" s="260"/>
     </row>
     <row r="27" spans="2:11" ht="15.75">
       <c r="F27" s="63"/>
@@ -11488,7 +11488,7 @@
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="29" spans="2:11">
-      <c r="E29" s="251" t="s">
+      <c r="E29" s="253" t="s">
         <v>203</v>
       </c>
       <c r="F29" s="59" t="s">
@@ -11506,12 +11506,12 @@
       <c r="J29" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="K29" s="254" t="s">
+      <c r="K29" s="256" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="E30" s="252"/>
+      <c r="E30" s="254"/>
       <c r="F30" s="60" t="s">
         <v>154</v>
       </c>
@@ -11527,10 +11527,10 @@
       <c r="J30" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K30" s="255"/>
+      <c r="K30" s="257"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="E31" s="252"/>
+      <c r="E31" s="254"/>
       <c r="F31" s="60" t="s">
         <v>155</v>
       </c>
@@ -11546,10 +11546,10 @@
       <c r="J31" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K31" s="256"/>
+      <c r="K31" s="258"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="E32" s="252"/>
+      <c r="E32" s="254"/>
       <c r="F32" s="60" t="s">
         <v>157</v>
       </c>
@@ -11565,12 +11565,12 @@
       <c r="J32" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K32" s="257" t="s">
+      <c r="K32" s="259" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="5:11">
-      <c r="E33" s="252"/>
+      <c r="E33" s="254"/>
       <c r="F33" s="60" t="s">
         <v>160</v>
       </c>
@@ -11586,10 +11586,10 @@
       <c r="J33" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K33" s="255"/>
+      <c r="K33" s="257"/>
     </row>
     <row r="34" spans="5:11">
-      <c r="E34" s="252"/>
+      <c r="E34" s="254"/>
       <c r="F34" s="60" t="s">
         <v>162</v>
       </c>
@@ -11605,10 +11605,10 @@
       <c r="J34" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K34" s="255"/>
+      <c r="K34" s="257"/>
     </row>
     <row r="35" spans="5:11">
-      <c r="E35" s="252"/>
+      <c r="E35" s="254"/>
       <c r="F35" s="60" t="s">
         <v>165</v>
       </c>
@@ -11624,10 +11624,10 @@
       <c r="J35" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K35" s="255"/>
+      <c r="K35" s="257"/>
     </row>
     <row r="36" spans="5:11">
-      <c r="E36" s="252"/>
+      <c r="E36" s="254"/>
       <c r="F36" s="60" t="s">
         <v>168</v>
       </c>
@@ -11643,10 +11643,10 @@
       <c r="J36" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="255"/>
+      <c r="K36" s="257"/>
     </row>
     <row r="37" spans="5:11">
-      <c r="E37" s="252"/>
+      <c r="E37" s="254"/>
       <c r="F37" s="60" t="s">
         <v>170</v>
       </c>
@@ -11662,10 +11662,10 @@
       <c r="J37" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="255"/>
+      <c r="K37" s="257"/>
     </row>
     <row r="38" spans="5:11">
-      <c r="E38" s="252"/>
+      <c r="E38" s="254"/>
       <c r="F38" s="60" t="s">
         <v>173</v>
       </c>
@@ -11681,10 +11681,10 @@
       <c r="J38" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K38" s="255"/>
+      <c r="K38" s="257"/>
     </row>
     <row r="39" spans="5:11">
-      <c r="E39" s="252"/>
+      <c r="E39" s="254"/>
       <c r="F39" s="60" t="s">
         <v>175</v>
       </c>
@@ -11700,10 +11700,10 @@
       <c r="J39" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K39" s="255"/>
+      <c r="K39" s="257"/>
     </row>
     <row r="40" spans="5:11">
-      <c r="E40" s="252"/>
+      <c r="E40" s="254"/>
       <c r="F40" s="60" t="s">
         <v>177</v>
       </c>
@@ -11719,10 +11719,10 @@
       <c r="J40" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K40" s="255"/>
+      <c r="K40" s="257"/>
     </row>
     <row r="41" spans="5:11">
-      <c r="E41" s="252"/>
+      <c r="E41" s="254"/>
       <c r="F41" s="60" t="s">
         <v>179</v>
       </c>
@@ -11738,10 +11738,10 @@
       <c r="J41" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K41" s="255"/>
+      <c r="K41" s="257"/>
     </row>
     <row r="42" spans="5:11">
-      <c r="E42" s="252"/>
+      <c r="E42" s="254"/>
       <c r="F42" s="60" t="s">
         <v>184</v>
       </c>
@@ -11757,10 +11757,10 @@
       <c r="J42" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K42" s="255"/>
+      <c r="K42" s="257"/>
     </row>
     <row r="43" spans="5:11">
-      <c r="E43" s="252"/>
+      <c r="E43" s="254"/>
       <c r="F43" s="60" t="s">
         <v>192</v>
       </c>
@@ -11776,10 +11776,10 @@
       <c r="J43" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K43" s="255"/>
+      <c r="K43" s="257"/>
     </row>
     <row r="44" spans="5:11">
-      <c r="E44" s="252"/>
+      <c r="E44" s="254"/>
       <c r="F44" s="60" t="s">
         <v>193</v>
       </c>
@@ -11795,10 +11795,10 @@
       <c r="J44" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="K44" s="256"/>
+      <c r="K44" s="258"/>
     </row>
     <row r="45" spans="5:11">
-      <c r="E45" s="252"/>
+      <c r="E45" s="254"/>
       <c r="F45" s="60" t="s">
         <v>197</v>
       </c>
@@ -11814,12 +11814,12 @@
       <c r="J45" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="K45" s="257" t="s">
+      <c r="K45" s="259" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="46" spans="5:11">
-      <c r="E46" s="252"/>
+      <c r="E46" s="254"/>
       <c r="F46" s="60" t="s">
         <v>199</v>
       </c>
@@ -11835,10 +11835,10 @@
       <c r="J46" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="K46" s="255"/>
+      <c r="K46" s="257"/>
     </row>
     <row r="47" spans="5:11" ht="15.75" thickBot="1">
-      <c r="E47" s="253"/>
+      <c r="E47" s="255"/>
       <c r="F47" s="62" t="s">
         <v>201</v>
       </c>
@@ -11854,7 +11854,7 @@
       <c r="J47" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="K47" s="258"/>
+      <c r="K47" s="260"/>
     </row>
     <row r="48" spans="5:11" ht="15.75">
       <c r="F48" s="63"/>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="49" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="50" spans="5:11">
-      <c r="E50" s="251" t="s">
+      <c r="E50" s="253" t="s">
         <v>207</v>
       </c>
       <c r="F50" s="59" t="s">
@@ -11892,12 +11892,12 @@
       <c r="J50" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="K50" s="254" t="s">
+      <c r="K50" s="256" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="51" spans="5:11">
-      <c r="E51" s="252"/>
+      <c r="E51" s="254"/>
       <c r="F51" s="60" t="s">
         <v>154</v>
       </c>
@@ -11913,10 +11913,10 @@
       <c r="J51" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K51" s="255"/>
+      <c r="K51" s="257"/>
     </row>
     <row r="52" spans="5:11">
-      <c r="E52" s="252"/>
+      <c r="E52" s="254"/>
       <c r="F52" s="60" t="s">
         <v>155</v>
       </c>
@@ -11932,10 +11932,10 @@
       <c r="J52" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="K52" s="256"/>
+      <c r="K52" s="258"/>
     </row>
     <row r="53" spans="5:11">
-      <c r="E53" s="252"/>
+      <c r="E53" s="254"/>
       <c r="F53" s="60" t="s">
         <v>157</v>
       </c>
@@ -11951,12 +11951,12 @@
       <c r="J53" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K53" s="257" t="s">
+      <c r="K53" s="259" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="5:11">
-      <c r="E54" s="252"/>
+      <c r="E54" s="254"/>
       <c r="F54" s="60" t="s">
         <v>160</v>
       </c>
@@ -11972,10 +11972,10 @@
       <c r="J54" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K54" s="255"/>
+      <c r="K54" s="257"/>
     </row>
     <row r="55" spans="5:11">
-      <c r="E55" s="252"/>
+      <c r="E55" s="254"/>
       <c r="F55" s="60" t="s">
         <v>162</v>
       </c>
@@ -11991,10 +11991,10 @@
       <c r="J55" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="K55" s="255"/>
+      <c r="K55" s="257"/>
     </row>
     <row r="56" spans="5:11">
-      <c r="E56" s="252"/>
+      <c r="E56" s="254"/>
       <c r="F56" s="60" t="s">
         <v>165</v>
       </c>
@@ -12010,10 +12010,10 @@
       <c r="J56" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K56" s="255"/>
+      <c r="K56" s="257"/>
     </row>
     <row r="57" spans="5:11">
-      <c r="E57" s="252"/>
+      <c r="E57" s="254"/>
       <c r="F57" s="60" t="s">
         <v>168</v>
       </c>
@@ -12029,10 +12029,10 @@
       <c r="J57" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K57" s="255"/>
+      <c r="K57" s="257"/>
     </row>
     <row r="58" spans="5:11">
-      <c r="E58" s="252"/>
+      <c r="E58" s="254"/>
       <c r="F58" s="60" t="s">
         <v>170</v>
       </c>
@@ -12048,10 +12048,10 @@
       <c r="J58" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="K58" s="255"/>
+      <c r="K58" s="257"/>
     </row>
     <row r="59" spans="5:11">
-      <c r="E59" s="252"/>
+      <c r="E59" s="254"/>
       <c r="F59" s="60" t="s">
         <v>173</v>
       </c>
@@ -12067,10 +12067,10 @@
       <c r="J59" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K59" s="255"/>
+      <c r="K59" s="257"/>
     </row>
     <row r="60" spans="5:11">
-      <c r="E60" s="252"/>
+      <c r="E60" s="254"/>
       <c r="F60" s="60" t="s">
         <v>175</v>
       </c>
@@ -12086,10 +12086,10 @@
       <c r="J60" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K60" s="255"/>
+      <c r="K60" s="257"/>
     </row>
     <row r="61" spans="5:11">
-      <c r="E61" s="252"/>
+      <c r="E61" s="254"/>
       <c r="F61" s="60" t="s">
         <v>177</v>
       </c>
@@ -12105,10 +12105,10 @@
       <c r="J61" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="K61" s="255"/>
+      <c r="K61" s="257"/>
     </row>
     <row r="62" spans="5:11">
-      <c r="E62" s="252"/>
+      <c r="E62" s="254"/>
       <c r="F62" s="60" t="s">
         <v>179</v>
       </c>
@@ -12124,10 +12124,10 @@
       <c r="J62" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K62" s="255"/>
+      <c r="K62" s="257"/>
     </row>
     <row r="63" spans="5:11">
-      <c r="E63" s="252"/>
+      <c r="E63" s="254"/>
       <c r="F63" s="60" t="s">
         <v>184</v>
       </c>
@@ -12143,10 +12143,10 @@
       <c r="J63" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K63" s="255"/>
+      <c r="K63" s="257"/>
     </row>
     <row r="64" spans="5:11">
-      <c r="E64" s="252"/>
+      <c r="E64" s="254"/>
       <c r="F64" s="60" t="s">
         <v>192</v>
       </c>
@@ -12162,10 +12162,10 @@
       <c r="J64" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="K64" s="255"/>
+      <c r="K64" s="257"/>
     </row>
     <row r="65" spans="5:11">
-      <c r="E65" s="252"/>
+      <c r="E65" s="254"/>
       <c r="F65" s="60" t="s">
         <v>193</v>
       </c>
@@ -12181,10 +12181,10 @@
       <c r="J65" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="K65" s="255"/>
+      <c r="K65" s="257"/>
     </row>
     <row r="66" spans="5:11">
-      <c r="E66" s="252"/>
+      <c r="E66" s="254"/>
       <c r="F66" s="60" t="s">
         <v>197</v>
       </c>
@@ -12200,10 +12200,10 @@
       <c r="J66" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="K66" s="256"/>
+      <c r="K66" s="258"/>
     </row>
     <row r="67" spans="5:11">
-      <c r="E67" s="252"/>
+      <c r="E67" s="254"/>
       <c r="F67" s="60" t="s">
         <v>199</v>
       </c>
@@ -12219,12 +12219,12 @@
       <c r="J67" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="K67" s="257" t="s">
+      <c r="K67" s="259" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="68" spans="5:11" ht="15.75" thickBot="1">
-      <c r="E68" s="253"/>
+      <c r="E68" s="255"/>
       <c r="F68" s="62" t="s">
         <v>201</v>
       </c>
@@ -12240,7 +12240,7 @@
       <c r="J68" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="K68" s="258"/>
+      <c r="K68" s="260"/>
     </row>
     <row r="69" spans="5:11" ht="15.75">
       <c r="F69" s="63"/>
@@ -12307,8 +12307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
@@ -12320,32 +12320,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="265" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
     </row>
     <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="266" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="67"/>
@@ -12360,20 +12360,20 @@
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="20.85" customHeight="1">
-      <c r="A4" s="270" t="s">
+      <c r="A4" s="267" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="270"/>
+      <c r="B4" s="267"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="270" t="s">
+      <c r="D4" s="267" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="267"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="267"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="68" t="s">
@@ -12383,14 +12383,14 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="263" t="s">
+      <c r="D5" s="264" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
@@ -12404,14 +12404,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="263" t="s">
+      <c r="D6" s="264" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="264"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="264"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
@@ -12425,14 +12425,14 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="263" t="s">
+      <c r="D7" s="264" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
       <c r="J7" s="73">
         <f>I13</f>
         <v>694</v>
@@ -12446,14 +12446,14 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="263" t="s">
+      <c r="D8" s="264" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="263"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
         <v>5.1515151515151514E-2</v>
@@ -12468,14 +12468,14 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="264" t="s">
+      <c r="D9" s="269" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="264"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
       <c r="J9" s="77">
         <f>J13</f>
         <v>63.090909090909079</v>
@@ -12494,37 +12494,37 @@
       <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="265" t="s">
+      <c r="B11" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="265" t="s">
+      <c r="C11" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="266" t="s">
+      <c r="D11" s="271" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="267" t="s">
+      <c r="E11" s="272" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="266" t="s">
+      <c r="F11" s="271" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="266"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="267" t="s">
+      <c r="G11" s="271"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="272" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="267"/>
+      <c r="J11" s="272"/>
     </row>
     <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="265"/>
-      <c r="B12" s="265"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
+      <c r="A12" s="270"/>
+      <c r="B12" s="270"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -12542,14 +12542,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="262"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="262"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="262"/>
-      <c r="G13" s="262"/>
-      <c r="H13" s="262"/>
+      <c r="A13" s="268"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="268"/>
       <c r="I13" s="80">
         <f>SUM(I14:I49)</f>
         <v>694</v>
@@ -13711,12 +13711,6 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -13728,6 +13722,12 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
@@ -13755,8 +13755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
@@ -13768,32 +13768,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="265" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
     </row>
     <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="266" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="67"/>
@@ -13808,20 +13808,20 @@
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="20.85" customHeight="1">
-      <c r="A4" s="270" t="s">
+      <c r="A4" s="267" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="270"/>
+      <c r="B4" s="267"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="270" t="s">
+      <c r="D4" s="267" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="270"/>
-      <c r="F4" s="270"/>
-      <c r="G4" s="270"/>
-      <c r="H4" s="270"/>
-      <c r="I4" s="270"/>
-      <c r="J4" s="270"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="267"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="267"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="68" t="s">
@@ -13831,14 +13831,14 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="263" t="s">
+      <c r="D5" s="264" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="263"/>
-      <c r="H5" s="263"/>
-      <c r="I5" s="263"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
@@ -13852,14 +13852,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="263" t="s">
+      <c r="D6" s="264" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="264"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="264"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
@@ -13873,17 +13873,17 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="263" t="s">
+      <c r="D7" s="264" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="263"/>
-      <c r="H7" s="263"/>
-      <c r="I7" s="263"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
       <c r="J7" s="73">
         <f>I13</f>
-        <v>535</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1">
@@ -13894,17 +13894,17 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="263" t="s">
+      <c r="D8" s="264" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="263"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
-        <v>0.18939393939393939</v>
+        <v>7.8787878787878782E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75">
@@ -13916,17 +13916,17 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="264" t="s">
+      <c r="D9" s="269" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="264"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
       <c r="J9" s="77">
         <f>J13</f>
-        <v>48.636363636363647</v>
+        <v>55.272727272727273</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13942,37 +13942,37 @@
       <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="265" t="s">
+      <c r="B11" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="265" t="s">
+      <c r="C11" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="266" t="s">
+      <c r="D11" s="271" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="267" t="s">
+      <c r="E11" s="272" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="266" t="s">
+      <c r="F11" s="271" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="266"/>
-      <c r="H11" s="266"/>
-      <c r="I11" s="267" t="s">
+      <c r="G11" s="271"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="272" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="267"/>
+      <c r="J11" s="272"/>
     </row>
     <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="265"/>
-      <c r="B12" s="265"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
+      <c r="A12" s="270"/>
+      <c r="B12" s="270"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -13990,21 +13990,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="262"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="262"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="262"/>
-      <c r="G13" s="262"/>
-      <c r="H13" s="262"/>
+      <c r="A13" s="268"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="268"/>
       <c r="I13" s="80">
         <f>SUM(I14:I48)</f>
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="J13" s="80">
         <f>SUM(J14:J48)</f>
-        <v>48.636363636363647</v>
+        <v>55.272727272727273</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31.5">
@@ -14034,11 +14034,11 @@
         <v>55</v>
       </c>
       <c r="I14" s="87">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J14" s="88">
         <f>I14/$J$6*10*$J$5</f>
-        <v>5</v>
+        <v>5.454545454545455</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31.5">
@@ -14100,11 +14100,11 @@
         <v>28</v>
       </c>
       <c r="I16" s="87">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J16" s="88">
         <f t="shared" si="1"/>
-        <v>2.5454545454545454</v>
+        <v>2.7272727272727275</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75">
@@ -14198,11 +14198,11 @@
         <v>5</v>
       </c>
       <c r="I19" s="87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J19" s="88">
         <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
+        <v>0.90909090909090917</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
@@ -14300,11 +14300,11 @@
         <v>30</v>
       </c>
       <c r="I22" s="87">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J22" s="88">
         <f t="shared" si="1"/>
-        <v>2.7272727272727275</v>
+        <v>3.6363636363636367</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75">
@@ -14334,11 +14334,11 @@
         <v>30</v>
       </c>
       <c r="I23" s="87">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J23" s="88">
         <f t="shared" si="1"/>
-        <v>2.7272727272727275</v>
+        <v>3.6363636363636367</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
@@ -14432,11 +14432,11 @@
         <v>28</v>
       </c>
       <c r="I26" s="87">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J26" s="88">
         <f t="shared" si="1"/>
-        <v>1.2727272727272727</v>
+        <v>1.8181818181818183</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="31.5">
@@ -14498,11 +14498,11 @@
         <v>28</v>
       </c>
       <c r="I28" s="87">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J28" s="88">
         <f t="shared" si="1"/>
-        <v>2.5454545454545454</v>
+        <v>3.1818181818181817</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75">
@@ -14566,11 +14566,11 @@
         <v>45</v>
       </c>
       <c r="I30" s="87">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J30" s="88">
         <f t="shared" si="1"/>
-        <v>4.0909090909090908</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75">
@@ -14632,11 +14632,11 @@
         <v>17</v>
       </c>
       <c r="I32" s="87">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J32" s="88">
         <f t="shared" si="1"/>
-        <v>1.5454545454545454</v>
+        <v>1.8181818181818183</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75">
@@ -14698,11 +14698,11 @@
         <v>28</v>
       </c>
       <c r="I34" s="87">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J34" s="88">
         <f t="shared" si="1"/>
-        <v>2.5454545454545454</v>
+        <v>2.7272727272727275</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75">
@@ -14828,11 +14828,11 @@
         <v>35</v>
       </c>
       <c r="I38" s="87">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J38" s="88">
         <f t="shared" si="1"/>
-        <v>3.1818181818181817</v>
+        <v>3.6363636363636367</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75">
@@ -14930,11 +14930,11 @@
         <v>17</v>
       </c>
       <c r="I41" s="87">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J41" s="88">
         <f t="shared" si="1"/>
-        <v>1.5454545454545454</v>
+        <v>1.8181818181818183</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="31.5">
@@ -14994,11 +14994,11 @@
         <v>17</v>
       </c>
       <c r="I43" s="87">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J43" s="88">
         <f t="shared" si="1"/>
-        <v>1.5454545454545454</v>
+        <v>1.8181818181818183</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
@@ -15150,16 +15150,22 @@
         <v>15</v>
       </c>
       <c r="I48" s="87">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J48" s="88">
         <f t="shared" si="1"/>
-        <v>1.3636363636363638</v>
+        <v>1.8181818181818183</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -15171,12 +15177,6 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
@@ -15216,76 +15216,76 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="236"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="237" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="239"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="240"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="242"/>
     </row>
     <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="245"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:15" ht="20.25">
@@ -16432,76 +16432,76 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>492</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="236"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="237" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="239"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="240"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="242"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="245"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:15" ht="20.25">
@@ -17654,72 +17654,72 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>434</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="236"/>
       <c r="L2" s="113"/>
       <c r="M2" s="113"/>
       <c r="N2" s="113"/>
       <c r="O2" s="113"/>
     </row>
     <row r="3" spans="2:15" ht="33.950000000000003" customHeight="1">
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="237" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="239"/>
       <c r="L3" s="114"/>
       <c r="M3" s="114"/>
       <c r="N3" s="114"/>
       <c r="O3" s="114"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="240"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="242"/>
       <c r="L4" s="114"/>
       <c r="M4" s="114"/>
       <c r="N4" s="114"/>
       <c r="O4" s="114"/>
     </row>
     <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="245"/>
       <c r="L5" s="114"/>
       <c r="M5" s="114"/>
       <c r="N5" s="114"/>
@@ -17771,10 +17771,10 @@
       <c r="C10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="271" t="s">
+      <c r="E10" s="273" t="s">
         <v>441</v>
       </c>
-      <c r="F10" s="275" t="s">
+      <c r="F10" s="277" t="s">
         <v>442</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -17803,8 +17803,8 @@
         <f>SUM(C8:C10)</f>
         <v>150</v>
       </c>
-      <c r="E11" s="272"/>
-      <c r="F11" s="276"/>
+      <c r="E11" s="274"/>
+      <c r="F11" s="278"/>
       <c r="G11" s="1" t="s">
         <v>445</v>
       </c>
@@ -17824,8 +17824,8 @@
       </c>
     </row>
     <row r="12" spans="2:15">
-      <c r="E12" s="272"/>
-      <c r="F12" s="276"/>
+      <c r="E12" s="274"/>
+      <c r="F12" s="278"/>
       <c r="G12" s="1" t="s">
         <v>446</v>
       </c>
@@ -17851,8 +17851,8 @@
       <c r="C13" s="120">
         <v>10</v>
       </c>
-      <c r="E13" s="272"/>
-      <c r="F13" s="277"/>
+      <c r="E13" s="274"/>
+      <c r="F13" s="279"/>
       <c r="G13" s="1" t="s">
         <v>448</v>
       </c>
@@ -17878,8 +17878,8 @@
       <c r="C14" s="120">
         <v>1</v>
       </c>
-      <c r="E14" s="272"/>
-      <c r="F14" s="278" t="s">
+      <c r="E14" s="274"/>
+      <c r="F14" s="280" t="s">
         <v>450</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -17907,8 +17907,8 @@
       <c r="C15" s="1">
         <v>200</v>
       </c>
-      <c r="E15" s="272"/>
-      <c r="F15" s="279"/>
+      <c r="E15" s="274"/>
+      <c r="F15" s="281"/>
       <c r="G15" s="122" t="s">
         <v>453</v>
       </c>
@@ -17934,7 +17934,7 @@
       <c r="C16" s="1">
         <v>20</v>
       </c>
-      <c r="E16" s="273"/>
+      <c r="E16" s="275"/>
       <c r="F16" s="125" t="s">
         <v>455</v>
       </c>
@@ -17998,7 +17998,7 @@
         <f>C9*C20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="271" t="s">
+      <c r="E21" s="273" t="s">
         <v>459</v>
       </c>
       <c r="F21" s="132"/>
@@ -18028,7 +18028,7 @@
         <f>C20*10</f>
         <v>0</v>
       </c>
-      <c r="E22" s="272"/>
+      <c r="E22" s="274"/>
       <c r="F22" s="136"/>
       <c r="G22" s="122"/>
       <c r="H22" s="122"/>
@@ -18044,7 +18044,7 @@
         <f>J18/J34</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="E23" s="273"/>
+      <c r="E23" s="275"/>
       <c r="F23" s="125"/>
       <c r="G23" s="126"/>
       <c r="H23" s="126"/>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="26" spans="2:11">
-      <c r="E26" s="271" t="s">
+      <c r="E26" s="273" t="s">
         <v>464</v>
       </c>
       <c r="F26" s="132"/>
@@ -18097,7 +18097,7 @@
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="E27" s="272"/>
+      <c r="E27" s="274"/>
       <c r="F27" s="138"/>
       <c r="G27" s="1" t="s">
         <v>466</v>
@@ -18118,10 +18118,10 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="274" t="s">
+      <c r="B28" s="276" t="s">
         <v>467</v>
       </c>
-      <c r="E28" s="272"/>
+      <c r="E28" s="274"/>
       <c r="F28" s="136"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -18130,8 +18130,8 @@
       <c r="K28" s="139"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="274"/>
-      <c r="E29" s="272"/>
+      <c r="B29" s="276"/>
+      <c r="E29" s="274"/>
       <c r="F29" s="136"/>
       <c r="G29" s="122"/>
       <c r="H29" s="122"/>
@@ -18140,8 +18140,8 @@
       <c r="K29" s="124"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B30" s="274"/>
-      <c r="E30" s="273"/>
+      <c r="B30" s="276"/>
+      <c r="E30" s="275"/>
       <c r="F30" s="125"/>
       <c r="G30" s="126" t="s">
         <v>468</v>
@@ -18160,7 +18160,7 @@
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="274"/>
+      <c r="B31" s="276"/>
       <c r="G31" s="131" t="s">
         <v>470</v>
       </c>
@@ -18174,13 +18174,13 @@
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="274"/>
+      <c r="B32" s="276"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="274"/>
+      <c r="B33" s="276"/>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="274"/>
+      <c r="B34" s="276"/>
       <c r="G34" s="29" t="s">
         <v>42</v>
       </c>
@@ -18198,7 +18198,7 @@
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="274"/>
+      <c r="B35" s="276"/>
     </row>
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
@@ -18250,74 +18250,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="23.25">
-      <c r="B2" s="232" t="s">
+      <c r="B2" s="234" t="s">
         <v>532</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="233"/>
-      <c r="O2" s="234"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="235"/>
+      <c r="O2" s="236"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="239"/>
     </row>
     <row r="4" spans="2:15" ht="15.75">
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="240"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="242"/>
     </row>
     <row r="5" spans="2:15" ht="38.1" customHeight="1" thickBot="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
-      <c r="O5" s="243"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
+      <c r="N5" s="244"/>
+      <c r="O5" s="245"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:15" ht="21" thickBot="1">

--- a/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
+++ b/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\code\ENTREGA\HITO0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\code\ENTREGA\HITO0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="586">
   <si>
     <t>Apellidos</t>
   </si>
@@ -3038,7 +3038,7 @@
     <numFmt numFmtId="166" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4887,20 +4887,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4913,6 +4904,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5838,17 +5838,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="7"/>
-    <col min="2" max="2" width="18.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.88671875" style="7"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="18.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:18" ht="23.25">
+    <row r="1" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="217" t="s">
         <v>314</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="Q2" s="218"/>
       <c r="R2" s="219"/>
     </row>
-    <row r="3" spans="2:18" ht="47.1" customHeight="1">
+    <row r="3" spans="2:18" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="220" t="s">
         <v>35</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="Q3" s="221"/>
       <c r="R3" s="222"/>
     </row>
-    <row r="4" spans="2:18" ht="15.75">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="226" t="s">
         <v>37</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="Q4" s="227"/>
       <c r="R4" s="228"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="229" t="s">
         <v>44</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="Q5" s="230"/>
       <c r="R5" s="231"/>
     </row>
-    <row r="6" spans="2:18" ht="15.75" thickBot="1">
+    <row r="6" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="223" t="s">
         <v>38</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="Q6" s="224"/>
       <c r="R6" s="225"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5976,7 +5976,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18" ht="15.75" thickBot="1">
+    <row r="8" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -5995,7 +5995,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1">
+    <row r="9" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
         <v>43</v>
       </c>
@@ -6006,7 +6006,7 @@
       <c r="E9" s="232"/>
       <c r="F9" s="233"/>
     </row>
-    <row r="11" spans="2:18" ht="15.75">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E11" s="214" t="s">
         <v>4</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="O11" s="216"/>
       <c r="P11" s="216"/>
     </row>
-    <row r="12" spans="2:18" s="14" customFormat="1" ht="76.5" thickBot="1">
+    <row r="12" spans="2:18" s="14" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <v>1</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <v>2</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
         <v>3</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
         <v>4</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
         <v>5</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1">
+    <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15">
         <v>6</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
         <v>34</v>
       </c>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="R19" s="17"/>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>3</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="2:18">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="P28" s="19"/>
     </row>
   </sheetData>
@@ -6491,10 +6491,10 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15" ht="23.25">
+    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>532</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="N2" s="235"/>
       <c r="O2" s="236"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="237"/>
       <c r="C3" s="238"/>
       <c r="D3" s="238"/>
@@ -6528,7 +6528,7 @@
       <c r="N3" s="238"/>
       <c r="O3" s="239"/>
     </row>
-    <row r="4" spans="2:15" ht="15.75">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="N4" s="241"/>
       <c r="O4" s="242"/>
     </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1">
+    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
@@ -6564,8 +6564,8 @@
       <c r="N5" s="244"/>
       <c r="O5" s="245"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:15" ht="21" thickBot="1">
+    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>533</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="N7" s="198"/>
       <c r="O7" s="199"/>
     </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1">
+    <row r="8" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="N8" s="63"/>
       <c r="O8" s="63"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="N9" s="185"/>
       <c r="O9" s="186"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="N10" s="188"/>
       <c r="O10" s="189"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E12" s="187" t="s">
         <v>585</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E13" s="187"/>
       <c r="F13" s="188" t="s">
         <v>585</v>
@@ -6720,7 +6720,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.25">
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>540</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6855,7 +6855,7 @@
       <c r="N18" s="188"/>
       <c r="O18" s="189"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6873,7 +6873,7 @@
       <c r="N19" s="188"/>
       <c r="O19" s="189"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6889,7 +6889,7 @@
       <c r="N20" s="188"/>
       <c r="O20" s="189"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -6915,7 +6915,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6941,7 +6941,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -6967,7 +6967,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -6993,7 +6993,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="O25" s="189"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -7030,7 +7030,7 @@
       <c r="N26" s="188"/>
       <c r="O26" s="189"/>
     </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1">
+    <row r="27" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -7052,7 +7052,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7068,7 +7068,7 @@
       <c r="N28" s="63"/>
       <c r="O28" s="63"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="193"/>
       <c r="D29" s="193"/>
@@ -7084,7 +7084,7 @@
       <c r="N29" s="200"/>
       <c r="O29" s="200"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -7139,24 +7139,24 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="144"/>
-    <col min="2" max="2" width="31.109375" style="144" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="144" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" style="144" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="144" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="144" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" style="144" customWidth="1"/>
-    <col min="8" max="11" width="8.88671875" style="144"/>
+    <col min="1" max="1" width="8.875" style="144"/>
+    <col min="2" max="2" width="31.125" style="144" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="144" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="144" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="144" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="144" customWidth="1"/>
+    <col min="7" max="7" width="50.375" style="144" customWidth="1"/>
+    <col min="8" max="11" width="8.875" style="144"/>
     <col min="12" max="16" width="0" style="144" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="144"/>
+    <col min="17" max="16384" width="8.875" style="144"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1">
+    <row r="1" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="145"/>
     </row>
-    <row r="2" spans="2:17" ht="23.25">
+    <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="282" t="s">
         <v>471</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="P2" s="282"/>
       <c r="Q2" s="282"/>
     </row>
-    <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1">
+    <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="283" t="s">
         <v>399</v>
       </c>
@@ -7196,7 +7196,7 @@
       <c r="P3" s="283"/>
       <c r="Q3" s="283"/>
     </row>
-    <row r="4" spans="2:17" ht="15.6" customHeight="1">
+    <row r="4" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="284" t="s">
         <v>37</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="P4" s="284"/>
       <c r="Q4" s="284"/>
     </row>
-    <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1">
+    <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="243" t="s">
         <v>567</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="P5" s="244"/>
       <c r="Q5" s="245"/>
     </row>
-    <row r="7" spans="2:17" ht="21" thickBot="1">
+    <row r="7" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="146" t="s">
         <v>46</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="J7" s="147"/>
       <c r="K7" s="147"/>
     </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="148" t="s">
         <v>22</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="P8" s="288"/>
       <c r="Q8" s="288"/>
     </row>
-    <row r="9" spans="2:17" ht="47.25">
+    <row r="9" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B9" s="148" t="s">
         <v>23</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="30">
+    <row r="10" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B10" s="148" t="s">
         <v>24</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="P10" s="156"/>
       <c r="Q10" s="158"/>
     </row>
-    <row r="11" spans="2:17" ht="30">
+    <row r="11" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="148" t="s">
         <v>25</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="P11" s="156"/>
       <c r="Q11" s="158"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E12" s="169" t="s">
         <v>476</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="P12" s="156"/>
       <c r="Q12" s="158"/>
     </row>
-    <row r="13" spans="2:17" ht="30">
+    <row r="13" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E13" s="169" t="s">
         <v>478</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="158"/>
     </row>
-    <row r="14" spans="2:17" ht="30">
+    <row r="14" spans="2:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B14" s="160" t="s">
         <v>93</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="P14" s="156"/>
       <c r="Q14" s="158"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="148" t="s">
         <v>26</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="P15" s="156"/>
       <c r="Q15" s="158"/>
     </row>
-    <row r="16" spans="2:17" ht="45">
+    <row r="16" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B16" s="148" t="s">
         <v>27</v>
       </c>
@@ -7516,7 +7516,7 @@
       <c r="P16" s="156"/>
       <c r="Q16" s="158"/>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="148" t="s">
         <v>28</v>
       </c>
@@ -7548,7 +7548,7 @@
       <c r="P17" s="161"/>
       <c r="Q17" s="158"/>
     </row>
-    <row r="18" spans="2:17" ht="30.75" thickBot="1">
+    <row r="18" spans="2:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="148" t="s">
         <v>32</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="P18" s="176"/>
       <c r="Q18" s="177"/>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="148" t="s">
         <v>30</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="P19" s="156"/>
       <c r="Q19" s="163"/>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="148" t="s">
         <v>31</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="P20" s="156"/>
       <c r="Q20" s="163"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E21" s="156"/>
       <c r="J21" s="163"/>
       <c r="K21" s="161"/>
@@ -7636,7 +7636,7 @@
       <c r="P21" s="156"/>
       <c r="Q21" s="163"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J22" s="163"/>
       <c r="K22" s="161"/>
       <c r="L22" s="156"/>
@@ -7646,7 +7646,7 @@
       <c r="P22" s="156"/>
       <c r="Q22" s="163"/>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J23" s="163"/>
       <c r="K23" s="161"/>
       <c r="L23" s="156"/>
@@ -7656,7 +7656,7 @@
       <c r="P23" s="161"/>
       <c r="Q23" s="163"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J24" s="163"/>
       <c r="K24" s="161"/>
       <c r="L24" s="156"/>
@@ -7666,7 +7666,7 @@
       <c r="P24" s="161"/>
       <c r="Q24" s="163"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E25" s="156"/>
       <c r="F25" s="156"/>
       <c r="G25" s="156"/>
@@ -7681,7 +7681,7 @@
       <c r="P25" s="161"/>
       <c r="Q25" s="163"/>
     </row>
-    <row r="26" spans="2:17" ht="25.5">
+    <row r="26" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="E26" s="156"/>
       <c r="F26" s="156"/>
       <c r="G26" s="164"/>
@@ -7696,7 +7696,7 @@
       <c r="P26" s="156"/>
       <c r="Q26" s="163"/>
     </row>
-    <row r="27" spans="2:17" ht="25.5">
+    <row r="27" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="E27" s="156"/>
       <c r="F27" s="156"/>
       <c r="G27" s="164"/>
@@ -7711,7 +7711,7 @@
       <c r="P27" s="156"/>
       <c r="Q27" s="163"/>
     </row>
-    <row r="28" spans="2:17" ht="25.5">
+    <row r="28" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="E28" s="156"/>
       <c r="F28" s="156"/>
       <c r="G28" s="164"/>
@@ -7726,7 +7726,7 @@
       <c r="P28" s="161"/>
       <c r="Q28" s="163"/>
     </row>
-    <row r="29" spans="2:17" ht="25.5">
+    <row r="29" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
       <c r="E29" s="156"/>
       <c r="F29" s="156"/>
       <c r="G29" s="164"/>
@@ -7741,7 +7741,7 @@
       <c r="P29" s="161"/>
       <c r="Q29" s="163"/>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E30" s="156"/>
       <c r="F30" s="156"/>
       <c r="G30" s="156"/>
@@ -7756,7 +7756,7 @@
       <c r="P30" s="161"/>
       <c r="Q30" s="163"/>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E31" s="156"/>
       <c r="F31" s="156"/>
       <c r="G31" s="156"/>
@@ -7771,7 +7771,7 @@
       <c r="P31" s="161"/>
       <c r="Q31" s="163"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E32" s="156"/>
       <c r="F32" s="156"/>
       <c r="G32" s="156"/>
@@ -7786,7 +7786,7 @@
       <c r="P32" s="156"/>
       <c r="Q32" s="163"/>
     </row>
-    <row r="33" spans="5:17">
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E33" s="156"/>
       <c r="F33" s="156"/>
       <c r="G33" s="156"/>
@@ -7801,7 +7801,7 @@
       <c r="P33" s="156"/>
       <c r="Q33" s="163"/>
     </row>
-    <row r="34" spans="5:17">
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E34" s="156"/>
       <c r="F34" s="156"/>
       <c r="G34" s="156"/>
@@ -7816,7 +7816,7 @@
       <c r="P34" s="161"/>
       <c r="Q34" s="163"/>
     </row>
-    <row r="35" spans="5:17">
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E35" s="156"/>
       <c r="F35" s="156"/>
       <c r="G35" s="156"/>
@@ -7831,7 +7831,7 @@
       <c r="P35" s="161"/>
       <c r="Q35" s="163"/>
     </row>
-    <row r="36" spans="5:17">
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E36" s="156"/>
       <c r="F36" s="156"/>
       <c r="G36" s="156"/>
@@ -7846,7 +7846,7 @@
       <c r="P36" s="161"/>
       <c r="Q36" s="163"/>
     </row>
-    <row r="37" spans="5:17">
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E37" s="156"/>
       <c r="F37" s="156"/>
       <c r="G37" s="156"/>
@@ -7861,7 +7861,7 @@
       <c r="P37" s="161"/>
       <c r="Q37" s="163"/>
     </row>
-    <row r="38" spans="5:17">
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E38" s="150"/>
       <c r="F38" s="150"/>
       <c r="G38" s="150"/>
@@ -7874,7 +7874,7 @@
       <c r="O38" s="167"/>
       <c r="P38" s="167"/>
     </row>
-    <row r="39" spans="5:17">
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E39" s="150"/>
       <c r="F39" s="150"/>
       <c r="G39" s="150"/>
@@ -7887,7 +7887,7 @@
       <c r="O39" s="167"/>
       <c r="P39" s="167"/>
     </row>
-    <row r="40" spans="5:17">
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E40" s="167"/>
       <c r="F40" s="150"/>
       <c r="G40" s="168"/>
@@ -7900,7 +7900,7 @@
       <c r="O40" s="167"/>
       <c r="P40" s="167"/>
     </row>
-    <row r="41" spans="5:17">
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E41" s="167"/>
       <c r="F41" s="167"/>
       <c r="G41" s="167"/>
@@ -7913,7 +7913,7 @@
       <c r="O41" s="167"/>
       <c r="P41" s="167"/>
     </row>
-    <row r="42" spans="5:17">
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E42" s="167"/>
       <c r="F42" s="167"/>
       <c r="G42" s="167"/>
@@ -7959,19 +7959,19 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="6.125" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="12" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:17" ht="23.25">
+    <row r="1" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>432</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="P2" s="235"/>
       <c r="Q2" s="236"/>
     </row>
-    <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1">
+    <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="237" t="s">
         <v>399</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="P3" s="238"/>
       <c r="Q3" s="239"/>
     </row>
-    <row r="4" spans="2:17" ht="15.75">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="P4" s="241"/>
       <c r="Q4" s="242"/>
     </row>
-    <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1">
+    <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="243" t="s">
         <v>433</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="P5" s="244"/>
       <c r="Q5" s="245"/>
     </row>
-    <row r="7" spans="2:17" ht="21" thickBot="1">
+    <row r="7" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1">
+    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -8091,7 +8091,7 @@
       <c r="P8" s="250"/>
       <c r="Q8" s="252"/>
     </row>
-    <row r="9" spans="2:17" ht="47.25">
+    <row r="9" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -8157,7 +8157,7 @@
       <c r="P10" s="99"/>
       <c r="Q10" s="101"/>
     </row>
-    <row r="11" spans="2:17" ht="30">
+    <row r="11" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -8189,7 +8189,7 @@
       <c r="P11" s="104"/>
       <c r="Q11" s="204"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E12" s="102" t="s">
         <v>408</v>
       </c>
@@ -8214,7 +8214,7 @@
       <c r="P12" s="104"/>
       <c r="Q12" s="204"/>
     </row>
-    <row r="13" spans="2:17" ht="30">
+    <row r="13" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E13" s="102" t="s">
         <v>410</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="P13" s="104"/>
       <c r="Q13" s="204"/>
     </row>
-    <row r="14" spans="2:17" ht="30">
+    <row r="14" spans="2:17" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="P14" s="104"/>
       <c r="Q14" s="204"/>
     </row>
-    <row r="15" spans="2:17" ht="30">
+    <row r="15" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="P15" s="104"/>
       <c r="Q15" s="204"/>
     </row>
-    <row r="16" spans="2:17" ht="30">
+    <row r="16" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="P16" s="104"/>
       <c r="Q16" s="204"/>
     </row>
-    <row r="17" spans="2:17" ht="60">
+    <row r="17" spans="2:17" ht="63" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -8363,7 +8363,7 @@
       <c r="P17" s="104"/>
       <c r="Q17" s="204"/>
     </row>
-    <row r="18" spans="2:17" ht="60">
+    <row r="18" spans="2:17" ht="63" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="P18" s="104"/>
       <c r="Q18" s="204"/>
     </row>
-    <row r="19" spans="2:17" ht="30">
+    <row r="19" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -8427,7 +8427,7 @@
       <c r="P19" s="104"/>
       <c r="Q19" s="204"/>
     </row>
-    <row r="20" spans="2:17" ht="15.75" thickBot="1">
+    <row r="20" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -8459,7 +8459,7 @@
       <c r="P20" s="180"/>
       <c r="Q20" s="183"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E21" s="99"/>
       <c r="F21" s="99"/>
       <c r="G21" s="209" t="s">
@@ -8479,7 +8479,7 @@
       <c r="P21" s="99"/>
       <c r="Q21" s="98"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E22" s="99"/>
       <c r="F22" s="99"/>
       <c r="G22" s="99"/>
@@ -8494,7 +8494,7 @@
       <c r="P22" s="99"/>
       <c r="Q22" s="98"/>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E23" s="99"/>
       <c r="F23" s="99"/>
       <c r="G23" s="99"/>
@@ -8509,7 +8509,7 @@
       <c r="P23" s="108"/>
       <c r="Q23" s="98"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E24" s="99"/>
       <c r="F24" s="99"/>
       <c r="G24" s="99"/>
@@ -8524,7 +8524,7 @@
       <c r="P24" s="108"/>
       <c r="Q24" s="98"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E25" s="99"/>
       <c r="F25" s="99"/>
       <c r="G25" s="99"/>
@@ -8539,7 +8539,7 @@
       <c r="P25" s="108"/>
       <c r="Q25" s="98"/>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E26" s="99"/>
       <c r="F26" s="99"/>
       <c r="G26" s="99"/>
@@ -8554,7 +8554,7 @@
       <c r="P26" s="108"/>
       <c r="Q26" s="98"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E27" s="99"/>
       <c r="F27" s="99"/>
       <c r="G27" s="99"/>
@@ -8569,7 +8569,7 @@
       <c r="P27" s="108"/>
       <c r="Q27" s="98"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E28" s="99"/>
       <c r="F28" s="99"/>
       <c r="G28" s="99"/>
@@ -8584,7 +8584,7 @@
       <c r="P28" s="108"/>
       <c r="Q28" s="98"/>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E29" s="99"/>
       <c r="F29" s="99"/>
       <c r="G29" s="99"/>
@@ -8599,7 +8599,7 @@
       <c r="P29" s="99"/>
       <c r="Q29" s="98"/>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E30" s="99"/>
       <c r="F30" s="99"/>
       <c r="G30" s="99"/>
@@ -8614,7 +8614,7 @@
       <c r="P30" s="99"/>
       <c r="Q30" s="98"/>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E31" s="99"/>
       <c r="F31" s="99"/>
       <c r="G31" s="99"/>
@@ -8629,7 +8629,7 @@
       <c r="P31" s="108"/>
       <c r="Q31" s="98"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E32" s="99"/>
       <c r="F32" s="99"/>
       <c r="G32" s="99"/>
@@ -8644,7 +8644,7 @@
       <c r="P32" s="108"/>
       <c r="Q32" s="98"/>
     </row>
-    <row r="33" spans="5:17">
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E33" s="99"/>
       <c r="F33" s="99"/>
       <c r="G33" s="99"/>
@@ -8659,7 +8659,7 @@
       <c r="P33" s="108"/>
       <c r="Q33" s="98"/>
     </row>
-    <row r="34" spans="5:17">
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E34" s="99"/>
       <c r="F34" s="99"/>
       <c r="G34" s="99"/>
@@ -8674,7 +8674,7 @@
       <c r="P34" s="108"/>
       <c r="Q34" s="98"/>
     </row>
-    <row r="35" spans="5:17">
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E35" s="99"/>
       <c r="F35" s="99"/>
       <c r="G35" s="99"/>
@@ -8689,7 +8689,7 @@
       <c r="P35" s="99"/>
       <c r="Q35" s="98"/>
     </row>
-    <row r="36" spans="5:17">
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E36" s="99"/>
       <c r="F36" s="99"/>
       <c r="G36" s="99"/>
@@ -8704,7 +8704,7 @@
       <c r="P36" s="99"/>
       <c r="Q36" s="98"/>
     </row>
-    <row r="37" spans="5:17">
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E37" s="99"/>
       <c r="F37" s="99"/>
       <c r="G37" s="99"/>
@@ -8719,7 +8719,7 @@
       <c r="P37" s="108"/>
       <c r="Q37" s="98"/>
     </row>
-    <row r="38" spans="5:17">
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E38" s="99"/>
       <c r="F38" s="99"/>
       <c r="G38" s="99"/>
@@ -8734,7 +8734,7 @@
       <c r="P38" s="108"/>
       <c r="Q38" s="98"/>
     </row>
-    <row r="39" spans="5:17">
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E39" s="99"/>
       <c r="F39" s="99"/>
       <c r="G39" s="99"/>
@@ -8749,7 +8749,7 @@
       <c r="P39" s="108"/>
       <c r="Q39" s="98"/>
     </row>
-    <row r="40" spans="5:17">
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E40" s="99"/>
       <c r="F40" s="99"/>
       <c r="G40" s="99"/>
@@ -8764,7 +8764,7 @@
       <c r="P40" s="108"/>
       <c r="Q40" s="98"/>
     </row>
-    <row r="41" spans="5:17">
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E41" s="112"/>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -8779,7 +8779,7 @@
       <c r="O41" s="31"/>
       <c r="P41" s="31"/>
     </row>
-    <row r="42" spans="5:17">
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E42" s="112"/>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -8796,7 +8796,7 @@
       <c r="O42" s="31"/>
       <c r="P42" s="31"/>
     </row>
-    <row r="43" spans="5:17">
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E43" s="31"/>
       <c r="F43" s="39" t="s">
         <v>87</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:17">
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
@@ -8844,7 +8844,7 @@
       <c r="O44" s="31"/>
       <c r="P44" s="31"/>
     </row>
-    <row r="45" spans="5:17">
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
@@ -8890,13 +8890,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="23.25">
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>566</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="J2" s="235"/>
       <c r="K2" s="236"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="289" t="s">
         <v>557</v>
       </c>
@@ -8924,12 +8924,12 @@
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
     </row>
-    <row r="5" spans="2:11" ht="20.25">
+    <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>558</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>559</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -8962,12 +8962,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="20.25">
+    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -9006,13 +9006,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="23.25">
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>560</v>
       </c>
@@ -9026,7 +9026,7 @@
       <c r="J2" s="235"/>
       <c r="K2" s="236"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="289" t="s">
         <v>557</v>
       </c>
@@ -9040,12 +9040,12 @@
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
     </row>
-    <row r="5" spans="2:11" ht="20.25">
+    <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>558</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>559</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -9078,12 +9078,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="20.25">
+    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -9124,13 +9124,13 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="23.25">
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>563</v>
       </c>
@@ -9144,7 +9144,7 @@
       <c r="J2" s="235"/>
       <c r="K2" s="236"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1">
+    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="289" t="s">
         <v>557</v>
       </c>
@@ -9158,12 +9158,12 @@
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
     </row>
-    <row r="5" spans="2:11" ht="20.25">
+    <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>558</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>559</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -9196,12 +9196,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="20.25">
+    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -9242,24 +9242,24 @@
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="14" max="14" width="15.125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:16" ht="23.25">
+    <row r="1" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>45</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="K2" s="235"/>
       <c r="L2" s="236"/>
     </row>
-    <row r="3" spans="2:16" ht="36.950000000000003" customHeight="1">
+    <row r="3" spans="2:16" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="237" t="s">
         <v>95</v>
       </c>
@@ -9289,7 +9289,7 @@
       <c r="K3" s="238"/>
       <c r="L3" s="239"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -9304,7 +9304,7 @@
       <c r="K4" s="241"/>
       <c r="L4" s="242"/>
     </row>
-    <row r="5" spans="2:16" ht="33" customHeight="1" thickBot="1">
+    <row r="5" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="243" t="s">
         <v>94</v>
       </c>
@@ -9319,7 +9319,7 @@
       <c r="K5" s="244"/>
       <c r="L5" s="245"/>
     </row>
-    <row r="7" spans="2:16" ht="21" thickBot="1">
+    <row r="7" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
@@ -9328,7 +9328,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="15" customHeight="1">
+    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -9354,7 +9354,7 @@
       <c r="K8" s="250"/>
       <c r="L8" s="252"/>
     </row>
-    <row r="9" spans="2:16" ht="47.25">
+    <row r="9" spans="2:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="E12" s="45" t="s">
@@ -9522,7 +9522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E13" s="45" t="s">
         <v>54</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E14" s="45" t="s">
         <v>55</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E15" s="45" t="s">
         <v>58</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E16" s="45"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -9651,7 +9651,7 @@
       <c r="L16" s="55"/>
       <c r="O16" s="52"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E17" s="45" t="s">
         <v>59</v>
       </c>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="O17" s="52"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E18" s="45" t="s">
         <v>61</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="18" customHeight="1">
+    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>93</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="O22" s="50"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E26" s="45" t="s">
         <v>70</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E27" s="45" t="s">
         <v>71</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E28" s="45"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -10126,7 +10126,7 @@
       <c r="K28" s="54"/>
       <c r="L28" s="55"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="E29" s="45" t="s">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="O29" s="52"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="E30" s="45" t="s">
@@ -10204,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E31" s="45" t="s">
         <v>74</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E32" s="45" t="s">
         <v>75</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="5:16">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E33" s="45" t="s">
         <v>76</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="5:16">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E34" s="45" t="s">
         <v>77</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="5:16">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E35" s="45" t="s">
         <v>78</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="5:16">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E36" s="45"/>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -10415,7 +10415,7 @@
       <c r="K36" s="54"/>
       <c r="L36" s="55"/>
     </row>
-    <row r="37" spans="5:16">
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E37" s="45" t="s">
         <v>79</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="5:16">
+    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E38" s="45" t="s">
         <v>80</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="5:16">
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E39" s="45" t="s">
         <v>81</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="5:16">
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E40" s="45" t="s">
         <v>82</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="5:16">
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E41" s="45" t="s">
         <v>83</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:16">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="45" t="s">
         <v>84</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="5:16">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E43" s="45" t="s">
         <v>85</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="5:16">
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E44" s="45"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -10650,7 +10650,7 @@
       <c r="K44" s="54"/>
       <c r="L44" s="55"/>
     </row>
-    <row r="45" spans="5:16">
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E45" s="45" t="s">
         <v>135</v>
       </c>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O45" s="52"/>
     </row>
-    <row r="46" spans="5:16">
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E46" s="45" t="s">
         <v>136</v>
       </c>
@@ -10712,7 +10712,7 @@
       </c>
       <c r="O46" s="52"/>
     </row>
-    <row r="47" spans="5:16">
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E47" s="45" t="s">
         <v>137</v>
       </c>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="O47" s="50"/>
     </row>
-    <row r="48" spans="5:16">
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E48" s="45" t="s">
         <v>138</v>
       </c>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="O48" s="50"/>
     </row>
-    <row r="49" spans="5:15">
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E49" s="45" t="s">
         <v>139</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="N49" s="29"/>
       <c r="O49" s="52"/>
     </row>
-    <row r="50" spans="5:15">
+    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E50" s="45" t="s">
         <v>140</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="5:15">
+    <row r="51" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E51" s="45" t="s">
         <v>141</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="5:15" ht="15.75" thickBot="1">
+    <row r="52" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="46"/>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
@@ -10876,7 +10876,7 @@
       <c r="K52" s="56"/>
       <c r="L52" s="57"/>
     </row>
-    <row r="53" spans="5:15">
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E53" s="31"/>
       <c r="F53" s="39"/>
       <c r="G53" s="38" t="s">
@@ -10900,7 +10900,7 @@
         <v>59.999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="5:15">
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
@@ -10908,7 +10908,7 @@
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
     </row>
-    <row r="55" spans="5:15">
+    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
@@ -10947,18 +10947,18 @@
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="152.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="152.375" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="23.25">
+    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>144</v>
       </c>
@@ -10972,7 +10972,7 @@
       <c r="J2" s="235"/>
       <c r="K2" s="236"/>
     </row>
-    <row r="3" spans="2:11" ht="15.95" customHeight="1">
+    <row r="3" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="237" t="s">
         <v>145</v>
       </c>
@@ -10986,7 +10986,7 @@
       <c r="J3" s="238"/>
       <c r="K3" s="239"/>
     </row>
-    <row r="4" spans="2:11" ht="15.95" customHeight="1">
+    <row r="4" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -11000,7 +11000,7 @@
       <c r="J4" s="241"/>
       <c r="K4" s="242"/>
     </row>
-    <row r="5" spans="2:11" ht="15.95" customHeight="1" thickBot="1">
+    <row r="5" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="243" t="s">
         <v>146</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="J5" s="244"/>
       <c r="K5" s="245"/>
     </row>
-    <row r="7" spans="2:11" ht="21" thickBot="1">
+    <row r="7" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>147</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="K9" s="257"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="K10" s="258"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E12" s="262"/>
       <c r="F12" s="60" t="s">
         <v>160</v>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="K12" s="257"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E13" s="262"/>
       <c r="F13" s="60" t="s">
         <v>162</v>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="K13" s="257"/>
     </row>
-    <row r="14" spans="2:11" ht="20.25">
+    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>164</v>
       </c>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="K14" s="257"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="K15" s="257"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="K16" s="257"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -11276,7 +11276,7 @@
       </c>
       <c r="K17" s="257"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -11302,7 +11302,7 @@
       </c>
       <c r="K18" s="257"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="K19" s="257"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="K20" s="257"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E21" s="262"/>
       <c r="F21" s="60" t="s">
         <v>184</v>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="K21" s="257"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E22" s="262"/>
       <c r="F22" s="60" t="s">
         <v>192</v>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="K22" s="258"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E23" s="262"/>
       <c r="F23" s="60" t="s">
         <v>193</v>
@@ -11413,7 +11413,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E24" s="262"/>
       <c r="F24" s="60" t="s">
         <v>197</v>
@@ -11432,7 +11432,7 @@
       </c>
       <c r="K24" s="257"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E25" s="262"/>
       <c r="F25" s="60" t="s">
         <v>199</v>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="K25" s="257"/>
     </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1">
+    <row r="26" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="263"/>
       <c r="F26" s="62" t="s">
         <v>201</v>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="K26" s="260"/>
     </row>
-    <row r="27" spans="2:11" ht="15.75">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F27" s="63"/>
       <c r="G27" s="64" t="s">
         <v>180</v>
@@ -11486,8 +11486,8 @@
       <c r="J27" s="63"/>
       <c r="K27" s="63"/>
     </row>
-    <row r="28" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="29" spans="2:11">
+    <row r="28" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E29" s="253" t="s">
         <v>203</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E30" s="254"/>
       <c r="F30" s="60" t="s">
         <v>154</v>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="K30" s="257"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E31" s="254"/>
       <c r="F31" s="60" t="s">
         <v>155</v>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="K31" s="258"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E32" s="254"/>
       <c r="F32" s="60" t="s">
         <v>157</v>
@@ -11569,7 +11569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="5:11">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" s="254"/>
       <c r="F33" s="60" t="s">
         <v>160</v>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="K33" s="257"/>
     </row>
-    <row r="34" spans="5:11">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" s="254"/>
       <c r="F34" s="60" t="s">
         <v>162</v>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="K34" s="257"/>
     </row>
-    <row r="35" spans="5:11">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" s="254"/>
       <c r="F35" s="60" t="s">
         <v>165</v>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="K35" s="257"/>
     </row>
-    <row r="36" spans="5:11">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" s="254"/>
       <c r="F36" s="60" t="s">
         <v>168</v>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="K36" s="257"/>
     </row>
-    <row r="37" spans="5:11">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" s="254"/>
       <c r="F37" s="60" t="s">
         <v>170</v>
@@ -11664,7 +11664,7 @@
       </c>
       <c r="K37" s="257"/>
     </row>
-    <row r="38" spans="5:11">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" s="254"/>
       <c r="F38" s="60" t="s">
         <v>173</v>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="K38" s="257"/>
     </row>
-    <row r="39" spans="5:11">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" s="254"/>
       <c r="F39" s="60" t="s">
         <v>175</v>
@@ -11702,7 +11702,7 @@
       </c>
       <c r="K39" s="257"/>
     </row>
-    <row r="40" spans="5:11">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" s="254"/>
       <c r="F40" s="60" t="s">
         <v>177</v>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="K40" s="257"/>
     </row>
-    <row r="41" spans="5:11">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" s="254"/>
       <c r="F41" s="60" t="s">
         <v>179</v>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="K41" s="257"/>
     </row>
-    <row r="42" spans="5:11">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" s="254"/>
       <c r="F42" s="60" t="s">
         <v>184</v>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="K42" s="257"/>
     </row>
-    <row r="43" spans="5:11">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" s="254"/>
       <c r="F43" s="60" t="s">
         <v>192</v>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="K43" s="257"/>
     </row>
-    <row r="44" spans="5:11">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" s="254"/>
       <c r="F44" s="60" t="s">
         <v>193</v>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="K44" s="258"/>
     </row>
-    <row r="45" spans="5:11">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" s="254"/>
       <c r="F45" s="60" t="s">
         <v>197</v>
@@ -11818,7 +11818,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="46" spans="5:11">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" s="254"/>
       <c r="F46" s="60" t="s">
         <v>199</v>
@@ -11837,7 +11837,7 @@
       </c>
       <c r="K46" s="257"/>
     </row>
-    <row r="47" spans="5:11" ht="15.75" thickBot="1">
+    <row r="47" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="255"/>
       <c r="F47" s="62" t="s">
         <v>201</v>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="K47" s="260"/>
     </row>
-    <row r="48" spans="5:11" ht="15.75">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F48" s="63"/>
       <c r="G48" s="64" t="s">
         <v>180</v>
@@ -11872,8 +11872,8 @@
       <c r="J48" s="63"/>
       <c r="K48" s="63"/>
     </row>
-    <row r="49" spans="5:11" ht="15.75" thickBot="1"/>
-    <row r="50" spans="5:11">
+    <row r="49" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" s="253" t="s">
         <v>207</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="51" spans="5:11">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" s="254"/>
       <c r="F51" s="60" t="s">
         <v>154</v>
@@ -11915,7 +11915,7 @@
       </c>
       <c r="K51" s="257"/>
     </row>
-    <row r="52" spans="5:11">
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E52" s="254"/>
       <c r="F52" s="60" t="s">
         <v>155</v>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="K52" s="258"/>
     </row>
-    <row r="53" spans="5:11">
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E53" s="254"/>
       <c r="F53" s="60" t="s">
         <v>157</v>
@@ -11955,7 +11955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="5:11">
+    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E54" s="254"/>
       <c r="F54" s="60" t="s">
         <v>160</v>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="K54" s="257"/>
     </row>
-    <row r="55" spans="5:11">
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E55" s="254"/>
       <c r="F55" s="60" t="s">
         <v>162</v>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="K55" s="257"/>
     </row>
-    <row r="56" spans="5:11">
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E56" s="254"/>
       <c r="F56" s="60" t="s">
         <v>165</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="K56" s="257"/>
     </row>
-    <row r="57" spans="5:11">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E57" s="254"/>
       <c r="F57" s="60" t="s">
         <v>168</v>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="K57" s="257"/>
     </row>
-    <row r="58" spans="5:11">
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E58" s="254"/>
       <c r="F58" s="60" t="s">
         <v>170</v>
@@ -12050,7 +12050,7 @@
       </c>
       <c r="K58" s="257"/>
     </row>
-    <row r="59" spans="5:11">
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E59" s="254"/>
       <c r="F59" s="60" t="s">
         <v>173</v>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="K59" s="257"/>
     </row>
-    <row r="60" spans="5:11">
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E60" s="254"/>
       <c r="F60" s="60" t="s">
         <v>175</v>
@@ -12088,7 +12088,7 @@
       </c>
       <c r="K60" s="257"/>
     </row>
-    <row r="61" spans="5:11">
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E61" s="254"/>
       <c r="F61" s="60" t="s">
         <v>177</v>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="K61" s="257"/>
     </row>
-    <row r="62" spans="5:11">
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E62" s="254"/>
       <c r="F62" s="60" t="s">
         <v>179</v>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="K62" s="257"/>
     </row>
-    <row r="63" spans="5:11">
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E63" s="254"/>
       <c r="F63" s="60" t="s">
         <v>184</v>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="K63" s="257"/>
     </row>
-    <row r="64" spans="5:11">
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E64" s="254"/>
       <c r="F64" s="60" t="s">
         <v>192</v>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="K64" s="257"/>
     </row>
-    <row r="65" spans="5:11">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E65" s="254"/>
       <c r="F65" s="60" t="s">
         <v>193</v>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="K65" s="257"/>
     </row>
-    <row r="66" spans="5:11">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E66" s="254"/>
       <c r="F66" s="60" t="s">
         <v>197</v>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="K66" s="258"/>
     </row>
-    <row r="67" spans="5:11">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E67" s="254"/>
       <c r="F67" s="60" t="s">
         <v>199</v>
@@ -12223,7 +12223,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="15.75" thickBot="1">
+    <row r="68" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E68" s="255"/>
       <c r="F68" s="62" t="s">
         <v>201</v>
@@ -12242,7 +12242,7 @@
       </c>
       <c r="K68" s="260"/>
     </row>
-    <row r="69" spans="5:11" ht="15.75">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F69" s="63"/>
       <c r="G69" s="64" t="s">
         <v>180</v>
@@ -12311,43 +12311,43 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.6640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="66"/>
+    <col min="2" max="2" width="15.125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="265" t="s">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="270" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-    </row>
-    <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A2" s="266" t="s">
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+    </row>
+    <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="271" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -12359,23 +12359,23 @@
       <c r="I3" s="67"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="1:10" ht="20.85" customHeight="1">
-      <c r="A4" s="267" t="s">
+    <row r="4" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="272" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="267"/>
+      <c r="B4" s="272"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="267" t="s">
+      <c r="D4" s="272" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="267"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>214</v>
       </c>
@@ -12383,20 +12383,20 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="265" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>217</v>
       </c>
@@ -12404,20 +12404,20 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="264" t="s">
+      <c r="D6" s="265" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>219</v>
       </c>
@@ -12425,20 +12425,20 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="264" t="s">
+      <c r="D7" s="265" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
       <c r="J7" s="73">
         <f>I13</f>
         <v>694</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1">
+    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="s">
         <v>221</v>
       </c>
@@ -12446,20 +12446,20 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="264" t="s">
+      <c r="D8" s="265" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
         <v>5.1515151515151514E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75">
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
         <v>65</v>
       </c>
@@ -12468,20 +12468,20 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="269" t="s">
+      <c r="D9" s="266" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
       <c r="J9" s="77">
         <f>J13</f>
         <v>63.090909090909079</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="67"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -12493,38 +12493,38 @@
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="270" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="267" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="270" t="s">
+      <c r="C11" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="271" t="s">
+      <c r="D11" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="272" t="s">
+      <c r="E11" s="269" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="271" t="s">
+      <c r="F11" s="268" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="271"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="272" t="s">
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="269" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="272"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="270"/>
-      <c r="B12" s="270"/>
-      <c r="C12" s="270"/>
-      <c r="D12" s="271"/>
-      <c r="E12" s="271"/>
+      <c r="J11" s="269"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="267"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="268"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -12541,15 +12541,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="268"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="268"/>
-      <c r="E13" s="268"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="268"/>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="264"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="264"/>
+      <c r="G13" s="264"/>
+      <c r="H13" s="264"/>
       <c r="I13" s="80">
         <f>SUM(I14:I49)</f>
         <v>694</v>
@@ -12559,7 +12559,7 @@
         <v>63.090909090909079</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
         <v>232</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>235</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>237</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
         <v>239</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>1.3636363636363638</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
         <v>241</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
         <v>243</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>0.90909090909090917</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>246</v>
       </c>
@@ -12788,7 +12788,7 @@
       <c r="I20" s="87"/>
       <c r="J20" s="88"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
         <v>248</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>250</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>3.1818181818181817</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>252</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>255</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>258</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>260</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>262</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>4.545454545454545</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>265</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>267</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>3.1818181818181817</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>270</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
         <v>273</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
         <v>275</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>2.3636363636363633</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
         <v>277</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
         <v>279</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>281</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
         <v>283</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>5.454545454545455</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
         <v>285</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>7.2727272727272734</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="81" t="s">
         <v>287</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>5.454545454545455</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
         <v>289</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>3.1818181818181817</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="s">
         <v>292</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
         <v>294</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>8.1818181818181817</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="81" t="s">
         <v>296</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="81" t="s">
         <v>299</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
         <v>301</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
         <v>304</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
         <v>306</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>308</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
         <v>310</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="81" t="s">
         <v>312</v>
       </c>
@@ -13711,6 +13711,12 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -13722,12 +13728,6 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
@@ -13755,47 +13755,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.6640625" style="66" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="66"/>
+    <col min="2" max="2" width="15.125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.625" style="66" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="265" t="s">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="270" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-    </row>
-    <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A2" s="266" t="s">
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+    </row>
+    <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="271" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -13807,23 +13807,23 @@
       <c r="I3" s="67"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="1:10" ht="20.85" customHeight="1">
-      <c r="A4" s="267" t="s">
+    <row r="4" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="272" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="267"/>
+      <c r="B4" s="272"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="267" t="s">
+      <c r="D4" s="272" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="267"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>214</v>
       </c>
@@ -13831,20 +13831,20 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="265" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>217</v>
       </c>
@@ -13852,20 +13852,20 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="264" t="s">
+      <c r="D6" s="265" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>219</v>
       </c>
@@ -13873,20 +13873,20 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="264" t="s">
+      <c r="D7" s="265" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
       <c r="J7" s="73">
         <f>I13</f>
-        <v>608</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="s">
         <v>221</v>
       </c>
@@ -13894,20 +13894,20 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="264" t="s">
+      <c r="D8" s="265" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
-        <v>7.8787878787878782E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="75" t="s">
         <v>65</v>
       </c>
@@ -13916,20 +13916,20 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="269" t="s">
+      <c r="D9" s="266" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
       <c r="J9" s="77">
         <f>J13</f>
-        <v>55.272727272727273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>60.000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="67"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -13941,38 +13941,38 @@
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="270" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="267" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="270" t="s">
+      <c r="C11" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="271" t="s">
+      <c r="D11" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="272" t="s">
+      <c r="E11" s="269" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="271" t="s">
+      <c r="F11" s="268" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="271"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="272" t="s">
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="269" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="272"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="270"/>
-      <c r="B12" s="270"/>
-      <c r="C12" s="270"/>
-      <c r="D12" s="271"/>
-      <c r="E12" s="271"/>
+      <c r="J11" s="269"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="267"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="268"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -13989,25 +13989,25 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="268"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="268"/>
-      <c r="E13" s="268"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="268"/>
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="264"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="264"/>
+      <c r="G13" s="264"/>
+      <c r="H13" s="264"/>
       <c r="I13" s="80">
         <f>SUM(I14:I48)</f>
-        <v>608</v>
+        <v>660</v>
       </c>
       <c r="J13" s="80">
         <f>SUM(J14:J48)</f>
-        <v>55.272727272727273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="31.5">
+        <v>60.000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
         <v>316</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>5.454545454545455</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5">
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>320</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>322</v>
       </c>
@@ -14100,14 +14100,14 @@
         <v>28</v>
       </c>
       <c r="I16" s="87">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J16" s="88">
         <f t="shared" si="1"/>
-        <v>2.7272727272727275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
+        <v>4.545454545454545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
         <v>325</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
         <v>327</v>
       </c>
@@ -14166,14 +14166,14 @@
         <v>17</v>
       </c>
       <c r="I18" s="87">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J18" s="88">
         <f t="shared" si="1"/>
-        <v>1.5454545454545454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
+        <v>2.2727272727272725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
         <v>329</v>
       </c>
@@ -14198,14 +14198,14 @@
         <v>5</v>
       </c>
       <c r="I19" s="87">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J19" s="88">
         <f t="shared" si="1"/>
-        <v>0.90909090909090917</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75">
+        <v>2.2727272727272725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>331</v>
       </c>
@@ -14232,14 +14232,14 @@
         <v>17</v>
       </c>
       <c r="I20" s="87">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J20" s="88">
         <f t="shared" si="1"/>
-        <v>1.5454545454545454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75">
+        <v>1.8181818181818183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
         <v>333</v>
       </c>
@@ -14252,8 +14252,8 @@
       <c r="D21" s="81">
         <v>1</v>
       </c>
-      <c r="E21" s="84">
-        <v>1</v>
+      <c r="E21" s="84" t="s">
+        <v>584</v>
       </c>
       <c r="F21" s="85">
         <v>5</v>
@@ -14265,15 +14265,13 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I21" s="87">
-        <v>40</v>
-      </c>
+      <c r="I21" s="87"/>
       <c r="J21" s="88">
         <f t="shared" si="1"/>
-        <v>3.6363636363636367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>336</v>
       </c>
@@ -14307,7 +14305,7 @@
         <v>3.6363636363636367</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>338</v>
       </c>
@@ -14341,7 +14339,7 @@
         <v>3.6363636363636367</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>340</v>
       </c>
@@ -14373,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>342</v>
       </c>
@@ -14405,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>344</v>
       </c>
@@ -14439,7 +14437,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31.5">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>346</v>
       </c>
@@ -14471,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>349</v>
       </c>
@@ -14498,14 +14496,14 @@
         <v>28</v>
       </c>
       <c r="I28" s="87">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J28" s="88">
         <f t="shared" si="1"/>
-        <v>3.1818181818181817</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75">
+        <v>3.6363636363636367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>351</v>
       </c>
@@ -14539,7 +14537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>353</v>
       </c>
@@ -14566,14 +14564,14 @@
         <v>45</v>
       </c>
       <c r="I30" s="87">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="J30" s="88">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75">
+        <v>5.9090909090909092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
         <v>355</v>
       </c>
@@ -14605,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
         <v>358</v>
       </c>
@@ -14632,14 +14630,14 @@
         <v>17</v>
       </c>
       <c r="I32" s="87">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J32" s="88">
         <f t="shared" si="1"/>
-        <v>1.8181818181818183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75">
+        <v>2.7272727272727275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
         <v>360</v>
       </c>
@@ -14671,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
         <v>362</v>
       </c>
@@ -14705,7 +14703,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>364</v>
       </c>
@@ -14737,7 +14735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
         <v>366</v>
       </c>
@@ -14762,14 +14760,14 @@
         <v>5</v>
       </c>
       <c r="I36" s="87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J36" s="88">
         <f t="shared" si="1"/>
-        <v>0.45454545454545459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75">
+        <v>0.90909090909090917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
         <v>370</v>
       </c>
@@ -14801,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="81" t="s">
         <v>372</v>
       </c>
@@ -14835,7 +14833,7 @@
         <v>3.6363636363636367</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
         <v>375</v>
       </c>
@@ -14862,14 +14860,14 @@
         <v>23</v>
       </c>
       <c r="I39" s="87">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J39" s="88">
         <f t="shared" si="1"/>
-        <v>2.0909090909090908</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75">
+        <v>2.2727272727272725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="s">
         <v>377</v>
       </c>
@@ -14896,14 +14894,14 @@
         <v>11</v>
       </c>
       <c r="I40" s="87">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J40" s="88">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="31.5">
+        <v>1.8181818181818183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
         <v>380</v>
       </c>
@@ -14937,7 +14935,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31.5">
+    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="81" t="s">
         <v>382</v>
       </c>
@@ -14967,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="81" t="s">
         <v>384</v>
       </c>
@@ -15001,7 +14999,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
         <v>386</v>
       </c>
@@ -15033,7 +15031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
         <v>388</v>
       </c>
@@ -15065,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
         <v>391</v>
       </c>
@@ -15095,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>393</v>
       </c>
@@ -15125,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
         <v>395</v>
       </c>
@@ -15150,22 +15148,16 @@
         <v>15</v>
       </c>
       <c r="I48" s="87">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J48" s="88">
         <f t="shared" si="1"/>
-        <v>1.8181818181818183</v>
+        <v>2.2727272727272725</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -15177,6 +15169,12 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
@@ -15208,14 +15206,14 @@
       <selection sqref="A1:O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15" ht="23.25">
+    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>492</v>
       </c>
@@ -15233,7 +15231,7 @@
       <c r="N2" s="235"/>
       <c r="O2" s="236"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="237" t="s">
         <v>493</v>
       </c>
@@ -15251,7 +15249,7 @@
       <c r="N3" s="238"/>
       <c r="O3" s="239"/>
     </row>
-    <row r="4" spans="2:15" ht="15.75">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -15269,7 +15267,7 @@
       <c r="N4" s="241"/>
       <c r="O4" s="242"/>
     </row>
-    <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
@@ -15287,8 +15285,8 @@
       <c r="N5" s="244"/>
       <c r="O5" s="245"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:15" ht="20.25">
+    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>495</v>
       </c>
@@ -15306,7 +15304,7 @@
       <c r="N7" s="185"/>
       <c r="O7" s="186"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -15326,7 +15324,7 @@
       <c r="N8" s="188"/>
       <c r="O8" s="189"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -15354,7 +15352,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -15382,7 +15380,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -15409,7 +15407,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1">
+    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="190"/>
       <c r="F12" s="191"/>
       <c r="G12" s="191"/>
@@ -15428,7 +15426,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1">
+    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
@@ -15441,7 +15439,7 @@
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
     </row>
-    <row r="14" spans="2:15" ht="20.25">
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>507</v>
       </c>
@@ -15459,7 +15457,7 @@
       <c r="N14" s="185"/>
       <c r="O14" s="186"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -15480,7 +15478,7 @@
       <c r="N15" s="188"/>
       <c r="O15" s="189"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -15509,7 +15507,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -15540,7 +15538,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="193"/>
       <c r="D18" s="193"/>
@@ -15562,7 +15560,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -15584,7 +15582,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+    <row r="20" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -15606,7 +15604,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="15.75" thickBot="1">
+    <row r="21" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
@@ -15619,7 +15617,7 @@
       <c r="N21" s="63"/>
       <c r="O21" s="63"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E22" s="184" t="s">
         <v>513</v>
       </c>
@@ -15634,7 +15632,7 @@
       <c r="N22" s="185"/>
       <c r="O22" s="186"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E23" s="187"/>
       <c r="F23" s="188"/>
       <c r="G23" s="188"/>
@@ -15647,7 +15645,7 @@
       <c r="N23" s="188"/>
       <c r="O23" s="189"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E24" s="187" t="s">
         <v>7</v>
       </c>
@@ -15668,7 +15666,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E25" s="187" t="s">
         <v>498</v>
       </c>
@@ -15691,7 +15689,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E26" s="187"/>
       <c r="F26" s="188"/>
       <c r="G26" s="188" t="s">
@@ -15712,7 +15710,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E27" s="187"/>
       <c r="F27" s="188"/>
       <c r="G27" s="188"/>
@@ -15731,7 +15729,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E28" s="187"/>
       <c r="F28" s="188"/>
       <c r="G28" s="188"/>
@@ -15750,7 +15748,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1">
+    <row r="29" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="190"/>
       <c r="F29" s="191"/>
       <c r="G29" s="191"/>
@@ -15769,7 +15767,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1">
+    <row r="30" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="63"/>
       <c r="F30" s="63"/>
       <c r="G30" s="63"/>
@@ -15782,7 +15780,7 @@
       <c r="N30" s="63"/>
       <c r="O30" s="63"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E31" s="184" t="s">
         <v>518</v>
       </c>
@@ -15797,7 +15795,7 @@
       <c r="N31" s="185"/>
       <c r="O31" s="186"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E32" s="187"/>
       <c r="F32" s="188"/>
       <c r="G32" s="188"/>
@@ -15810,7 +15808,7 @@
       <c r="N32" s="188"/>
       <c r="O32" s="189"/>
     </row>
-    <row r="33" spans="5:15">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="187" t="s">
         <v>7</v>
       </c>
@@ -15831,7 +15829,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="34" spans="5:15">
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="187" t="s">
         <v>498</v>
       </c>
@@ -15854,7 +15852,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="35" spans="5:15">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="187"/>
       <c r="F35" s="188"/>
       <c r="G35" s="188" t="s">
@@ -15875,7 +15873,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="36" spans="5:15">
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="187"/>
       <c r="F36" s="188"/>
       <c r="G36" s="188"/>
@@ -15894,7 +15892,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="5:15">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="187"/>
       <c r="F37" s="188"/>
       <c r="G37" s="188"/>
@@ -15913,7 +15911,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="5:15">
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="187"/>
       <c r="F38" s="188"/>
       <c r="G38" s="188"/>
@@ -15932,7 +15930,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="15.75" thickBot="1">
+    <row r="39" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" s="190"/>
       <c r="F39" s="191"/>
       <c r="G39" s="191"/>
@@ -15951,7 +15949,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="5:15" ht="15.75" thickBot="1">
+    <row r="40" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40" s="63"/>
       <c r="F40" s="63"/>
       <c r="G40" s="63"/>
@@ -15964,7 +15962,7 @@
       <c r="N40" s="63"/>
       <c r="O40" s="63"/>
     </row>
-    <row r="41" spans="5:15">
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E41" s="184" t="s">
         <v>524</v>
       </c>
@@ -15979,7 +15977,7 @@
       <c r="N41" s="185"/>
       <c r="O41" s="186"/>
     </row>
-    <row r="42" spans="5:15">
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="187"/>
       <c r="F42" s="188"/>
       <c r="G42" s="188"/>
@@ -15992,7 +15990,7 @@
       <c r="N42" s="188"/>
       <c r="O42" s="189"/>
     </row>
-    <row r="43" spans="5:15">
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="187" t="s">
         <v>7</v>
       </c>
@@ -16013,7 +16011,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="44" spans="5:15">
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E44" s="187" t="s">
         <v>498</v>
       </c>
@@ -16036,7 +16034,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="5:15">
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E45" s="187"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188" t="s">
@@ -16057,7 +16055,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="5:15">
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E46" s="187"/>
       <c r="F46" s="188"/>
       <c r="G46" s="188"/>
@@ -16076,7 +16074,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="47" spans="5:15">
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E47" s="187"/>
       <c r="F47" s="188"/>
       <c r="G47" s="188"/>
@@ -16095,7 +16093,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="48" spans="5:15">
+    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E48" s="187"/>
       <c r="F48" s="188"/>
       <c r="G48" s="188"/>
@@ -16114,7 +16112,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="5:15">
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E49" s="187"/>
       <c r="F49" s="188"/>
       <c r="G49" s="188"/>
@@ -16133,7 +16131,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="5:15" ht="15.75" thickBot="1">
+    <row r="50" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="190"/>
       <c r="F50" s="191"/>
       <c r="G50" s="191"/>
@@ -16152,7 +16150,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="51" spans="5:15" ht="15.75" thickBot="1">
+    <row r="51" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="63"/>
       <c r="F51" s="63"/>
       <c r="G51" s="63"/>
@@ -16165,7 +16163,7 @@
       <c r="N51" s="63"/>
       <c r="O51" s="63"/>
     </row>
-    <row r="52" spans="5:15">
+    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E52" s="184" t="s">
         <v>528</v>
       </c>
@@ -16180,7 +16178,7 @@
       <c r="N52" s="185"/>
       <c r="O52" s="186"/>
     </row>
-    <row r="53" spans="5:15">
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E53" s="187"/>
       <c r="F53" s="188"/>
       <c r="G53" s="188"/>
@@ -16193,7 +16191,7 @@
       <c r="N53" s="188"/>
       <c r="O53" s="189"/>
     </row>
-    <row r="54" spans="5:15">
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E54" s="187" t="s">
         <v>7</v>
       </c>
@@ -16214,7 +16212,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="5:15">
+    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E55" s="187" t="s">
         <v>498</v>
       </c>
@@ -16237,7 +16235,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="56" spans="5:15">
+    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E56" s="187"/>
       <c r="F56" s="188"/>
       <c r="G56" s="188" t="s">
@@ -16258,7 +16256,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="5:15">
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E57" s="187"/>
       <c r="F57" s="188"/>
       <c r="G57" s="188"/>
@@ -16277,7 +16275,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="5:15">
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E58" s="187"/>
       <c r="F58" s="188"/>
       <c r="G58" s="188"/>
@@ -16296,7 +16294,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="5:15">
+    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E59" s="187"/>
       <c r="F59" s="188"/>
       <c r="G59" s="188"/>
@@ -16315,7 +16313,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="5:15">
+    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E60" s="187"/>
       <c r="F60" s="188"/>
       <c r="G60" s="188"/>
@@ -16334,7 +16332,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="5:15">
+    <row r="61" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E61" s="187"/>
       <c r="F61" s="188"/>
       <c r="G61" s="188"/>
@@ -16353,7 +16351,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="62" spans="5:15" ht="15.75" thickBot="1">
+    <row r="62" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E62" s="190"/>
       <c r="F62" s="191"/>
       <c r="G62" s="191"/>
@@ -16428,10 +16426,10 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15" ht="23.25">
+    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>492</v>
       </c>
@@ -16449,7 +16447,7 @@
       <c r="N2" s="235"/>
       <c r="O2" s="236"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="237" t="s">
         <v>493</v>
       </c>
@@ -16467,7 +16465,7 @@
       <c r="N3" s="238"/>
       <c r="O3" s="239"/>
     </row>
-    <row r="4" spans="2:15" ht="15.75">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -16485,7 +16483,7 @@
       <c r="N4" s="241"/>
       <c r="O4" s="242"/>
     </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1">
+    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
@@ -16503,8 +16501,8 @@
       <c r="N5" s="244"/>
       <c r="O5" s="245"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:15" ht="20.25">
+    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>495</v>
       </c>
@@ -16522,7 +16520,7 @@
       <c r="N7" s="185"/>
       <c r="O7" s="186"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -16542,7 +16540,7 @@
       <c r="N8" s="188"/>
       <c r="O8" s="189"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -16570,7 +16568,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -16598,7 +16596,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -16625,7 +16623,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15.75" thickBot="1">
+    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="190"/>
       <c r="F12" s="191"/>
       <c r="G12" s="191"/>
@@ -16644,7 +16642,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1">
+    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
@@ -16657,7 +16655,7 @@
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
     </row>
-    <row r="14" spans="2:15" ht="20.25">
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>507</v>
       </c>
@@ -16675,7 +16673,7 @@
       <c r="N14" s="185"/>
       <c r="O14" s="186"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -16696,7 +16694,7 @@
       <c r="N15" s="188"/>
       <c r="O15" s="189"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -16725,7 +16723,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -16756,7 +16754,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="193"/>
       <c r="D18" s="193"/>
@@ -16778,7 +16776,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -16800,7 +16798,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+    <row r="20" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -16822,7 +16820,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="15.75" thickBot="1">
+    <row r="21" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
@@ -16835,7 +16833,7 @@
       <c r="N21" s="63"/>
       <c r="O21" s="63"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E22" s="184" t="s">
         <v>513</v>
       </c>
@@ -16850,7 +16848,7 @@
       <c r="N22" s="185"/>
       <c r="O22" s="186"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E23" s="187"/>
       <c r="F23" s="188"/>
       <c r="G23" s="188"/>
@@ -16863,7 +16861,7 @@
       <c r="N23" s="188"/>
       <c r="O23" s="189"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E24" s="187" t="s">
         <v>7</v>
       </c>
@@ -16884,7 +16882,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E25" s="187" t="s">
         <v>498</v>
       </c>
@@ -16909,7 +16907,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E26" s="187" t="s">
         <v>501</v>
       </c>
@@ -16932,7 +16930,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E27" s="187"/>
       <c r="F27" s="188"/>
       <c r="G27" s="188"/>
@@ -16951,7 +16949,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E28" s="187"/>
       <c r="F28" s="188"/>
       <c r="G28" s="188"/>
@@ -16970,7 +16968,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1">
+    <row r="29" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="190"/>
       <c r="F29" s="191"/>
       <c r="G29" s="191"/>
@@ -16989,7 +16987,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15.75" thickBot="1">
+    <row r="30" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="63"/>
       <c r="F30" s="63"/>
       <c r="G30" s="63"/>
@@ -17002,7 +17000,7 @@
       <c r="N30" s="63"/>
       <c r="O30" s="63"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E31" s="184" t="s">
         <v>518</v>
       </c>
@@ -17017,7 +17015,7 @@
       <c r="N31" s="185"/>
       <c r="O31" s="186"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E32" s="187"/>
       <c r="F32" s="188"/>
       <c r="G32" s="188"/>
@@ -17030,7 +17028,7 @@
       <c r="N32" s="188"/>
       <c r="O32" s="189"/>
     </row>
-    <row r="33" spans="5:15">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="187" t="s">
         <v>7</v>
       </c>
@@ -17051,7 +17049,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="34" spans="5:15">
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="187" t="s">
         <v>498</v>
       </c>
@@ -17074,7 +17072,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="35" spans="5:15">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="187"/>
       <c r="F35" s="188"/>
       <c r="G35" s="188" t="s">
@@ -17095,7 +17093,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="36" spans="5:15">
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="187"/>
       <c r="F36" s="188"/>
       <c r="G36" s="188"/>
@@ -17114,7 +17112,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="5:15">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="187"/>
       <c r="F37" s="188"/>
       <c r="G37" s="188"/>
@@ -17133,7 +17131,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="5:15">
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="187"/>
       <c r="F38" s="188"/>
       <c r="G38" s="188"/>
@@ -17152,7 +17150,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="15.75" thickBot="1">
+    <row r="39" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" s="190"/>
       <c r="F39" s="191"/>
       <c r="G39" s="191"/>
@@ -17171,7 +17169,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="5:15" ht="15.75" thickBot="1">
+    <row r="40" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40" s="63"/>
       <c r="F40" s="63"/>
       <c r="G40" s="63"/>
@@ -17184,7 +17182,7 @@
       <c r="N40" s="63"/>
       <c r="O40" s="63"/>
     </row>
-    <row r="41" spans="5:15">
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E41" s="184" t="s">
         <v>524</v>
       </c>
@@ -17199,7 +17197,7 @@
       <c r="N41" s="185"/>
       <c r="O41" s="186"/>
     </row>
-    <row r="42" spans="5:15">
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="187"/>
       <c r="F42" s="188"/>
       <c r="G42" s="188"/>
@@ -17212,7 +17210,7 @@
       <c r="N42" s="188"/>
       <c r="O42" s="189"/>
     </row>
-    <row r="43" spans="5:15">
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="187" t="s">
         <v>7</v>
       </c>
@@ -17233,7 +17231,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="44" spans="5:15">
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E44" s="187" t="s">
         <v>498</v>
       </c>
@@ -17256,7 +17254,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="5:15">
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E45" s="187"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188" t="s">
@@ -17277,7 +17275,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="5:15">
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E46" s="187"/>
       <c r="F46" s="188"/>
       <c r="G46" s="188"/>
@@ -17296,7 +17294,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="47" spans="5:15">
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E47" s="187"/>
       <c r="F47" s="188"/>
       <c r="G47" s="188"/>
@@ -17315,7 +17313,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="48" spans="5:15">
+    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E48" s="187"/>
       <c r="F48" s="188"/>
       <c r="G48" s="188"/>
@@ -17334,7 +17332,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="5:15">
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E49" s="187"/>
       <c r="F49" s="188"/>
       <c r="G49" s="188"/>
@@ -17353,7 +17351,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="5:15" ht="15.75" thickBot="1">
+    <row r="50" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E50" s="190"/>
       <c r="F50" s="191"/>
       <c r="G50" s="191"/>
@@ -17372,7 +17370,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="51" spans="5:15" ht="15.75" thickBot="1">
+    <row r="51" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="63"/>
       <c r="F51" s="63"/>
       <c r="G51" s="63"/>
@@ -17385,7 +17383,7 @@
       <c r="N51" s="63"/>
       <c r="O51" s="63"/>
     </row>
-    <row r="52" spans="5:15">
+    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E52" s="184" t="s">
         <v>528</v>
       </c>
@@ -17400,7 +17398,7 @@
       <c r="N52" s="185"/>
       <c r="O52" s="186"/>
     </row>
-    <row r="53" spans="5:15">
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E53" s="187"/>
       <c r="F53" s="188"/>
       <c r="G53" s="188"/>
@@ -17413,7 +17411,7 @@
       <c r="N53" s="188"/>
       <c r="O53" s="189"/>
     </row>
-    <row r="54" spans="5:15">
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E54" s="187" t="s">
         <v>7</v>
       </c>
@@ -17434,7 +17432,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="5:15">
+    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E55" s="187" t="s">
         <v>498</v>
       </c>
@@ -17457,7 +17455,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="56" spans="5:15">
+    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E56" s="187"/>
       <c r="F56" s="188"/>
       <c r="G56" s="188" t="s">
@@ -17478,7 +17476,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="5:15">
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E57" s="187"/>
       <c r="F57" s="188"/>
       <c r="G57" s="188"/>
@@ -17497,7 +17495,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="5:15">
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E58" s="187"/>
       <c r="F58" s="188"/>
       <c r="G58" s="188"/>
@@ -17516,7 +17514,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="5:15">
+    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E59" s="187"/>
       <c r="F59" s="188"/>
       <c r="G59" s="188"/>
@@ -17535,7 +17533,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="5:15">
+    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E60" s="187"/>
       <c r="F60" s="188"/>
       <c r="G60" s="188"/>
@@ -17554,7 +17552,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="5:15">
+    <row r="61" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E61" s="187"/>
       <c r="F61" s="188"/>
       <c r="G61" s="188"/>
@@ -17573,7 +17571,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="62" spans="5:15" ht="15.75" thickBot="1">
+    <row r="62" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E62" s="190"/>
       <c r="F62" s="191"/>
       <c r="G62" s="191"/>
@@ -17641,19 +17639,19 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="55.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15" ht="23.25">
+    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>434</v>
       </c>
@@ -17671,7 +17669,7 @@
       <c r="N2" s="113"/>
       <c r="O2" s="113"/>
     </row>
-    <row r="3" spans="2:15" ht="33.950000000000003" customHeight="1">
+    <row r="3" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="237" t="s">
         <v>435</v>
       </c>
@@ -17689,7 +17687,7 @@
       <c r="N3" s="114"/>
       <c r="O3" s="114"/>
     </row>
-    <row r="4" spans="2:15" ht="15.75">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -17707,7 +17705,7 @@
       <c r="N4" s="114"/>
       <c r="O4" s="114"/>
     </row>
-    <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1">
+    <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="243" t="s">
         <v>436</v>
       </c>
@@ -17725,12 +17723,12 @@
       <c r="N5" s="114"/>
       <c r="O5" s="114"/>
     </row>
-    <row r="7" spans="2:15" ht="20.25">
+    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1">
+    <row r="8" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -17738,7 +17736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15.75" thickBot="1">
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -17764,7 +17762,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15" customHeight="1">
+    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -17795,7 +17793,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -17823,7 +17821,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E12" s="274"/>
       <c r="F12" s="278"/>
       <c r="G12" s="1" t="s">
@@ -17844,7 +17842,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>447</v>
       </c>
@@ -17871,7 +17869,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>449</v>
       </c>
@@ -17900,7 +17898,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15" customHeight="1">
+    <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="121" t="s">
         <v>452</v>
       </c>
@@ -17927,7 +17925,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="15.75" thickBot="1">
+    <row r="16" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="121" t="s">
         <v>454</v>
       </c>
@@ -17956,12 +17954,12 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="129"/>
       <c r="C17" s="5"/>
       <c r="E17" s="130"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G18" s="131" t="s">
         <v>457</v>
       </c>
@@ -17974,12 +17972,12 @@
         <v>13.333333333333332</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="20.25">
+    <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1">
+    <row r="20" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -17990,7 +17988,7 @@
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
@@ -18020,7 +18018,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -18036,7 +18034,7 @@
       <c r="J22" s="123"/>
       <c r="K22" s="124"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1">
+    <row r="23" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="121" t="s">
         <v>461</v>
       </c>
@@ -18052,7 +18050,7 @@
       <c r="J23" s="127"/>
       <c r="K23" s="128"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="121" t="s">
         <v>462</v>
       </c>
@@ -18072,8 +18070,8 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="26" spans="2:11">
+    <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E26" s="273" t="s">
         <v>464</v>
       </c>
@@ -18096,7 +18094,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E27" s="274"/>
       <c r="F27" s="138"/>
       <c r="G27" s="1" t="s">
@@ -18117,7 +18115,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="276" t="s">
         <v>467</v>
       </c>
@@ -18129,7 +18127,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="139"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="276"/>
       <c r="E29" s="274"/>
       <c r="F29" s="136"/>
@@ -18139,7 +18137,7 @@
       <c r="J29" s="123"/>
       <c r="K29" s="124"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1">
+    <row r="30" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="276"/>
       <c r="E30" s="275"/>
       <c r="F30" s="125"/>
@@ -18159,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="276"/>
       <c r="G31" s="131" t="s">
         <v>470</v>
@@ -18173,13 +18171,13 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="276"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="276"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="276"/>
       <c r="G34" s="29" t="s">
         <v>42</v>
@@ -18197,7 +18195,7 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="276"/>
     </row>
   </sheetData>
@@ -18242,14 +18240,14 @@
       <selection sqref="A1:Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15" ht="23.25">
+    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="234" t="s">
         <v>532</v>
       </c>
@@ -18267,7 +18265,7 @@
       <c r="N2" s="235"/>
       <c r="O2" s="236"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="237"/>
       <c r="C3" s="238"/>
       <c r="D3" s="238"/>
@@ -18283,7 +18281,7 @@
       <c r="N3" s="238"/>
       <c r="O3" s="239"/>
     </row>
-    <row r="4" spans="2:15" ht="15.75">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -18301,7 +18299,7 @@
       <c r="N4" s="241"/>
       <c r="O4" s="242"/>
     </row>
-    <row r="5" spans="2:15" ht="38.1" customHeight="1" thickBot="1">
+    <row r="5" spans="2:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
@@ -18319,8 +18317,8 @@
       <c r="N5" s="244"/>
       <c r="O5" s="245"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:15" ht="21" thickBot="1">
+    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>533</v>
       </c>
@@ -18338,7 +18336,7 @@
       <c r="N7" s="198"/>
       <c r="O7" s="199"/>
     </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1">
+    <row r="8" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -18358,7 +18356,7 @@
       <c r="N8" s="63"/>
       <c r="O8" s="63"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -18380,7 +18378,7 @@
       <c r="N9" s="185"/>
       <c r="O9" s="186"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -18400,7 +18398,7 @@
       <c r="N10" s="188"/>
       <c r="O10" s="189"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -18429,7 +18427,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E12" s="187"/>
       <c r="F12" s="188"/>
       <c r="G12" s="188"/>
@@ -18448,7 +18446,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E13" s="187"/>
       <c r="F13" s="188"/>
       <c r="G13" s="188"/>
@@ -18467,7 +18465,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="20.25">
+    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>540</v>
       </c>
@@ -18489,7 +18487,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -18516,7 +18514,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -18543,7 +18541,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -18570,7 +18568,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -18586,7 +18584,7 @@
       <c r="N18" s="188"/>
       <c r="O18" s="189"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -18604,7 +18602,7 @@
       <c r="N19" s="188"/>
       <c r="O19" s="189"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -18620,7 +18618,7 @@
       <c r="N20" s="188"/>
       <c r="O20" s="189"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -18642,7 +18640,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -18664,7 +18662,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -18686,7 +18684,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -18708,7 +18706,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -18724,7 +18722,7 @@
       <c r="N25" s="188"/>
       <c r="O25" s="189"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -18742,7 +18740,7 @@
       <c r="N26" s="188"/>
       <c r="O26" s="189"/>
     </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1">
+    <row r="27" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -18764,7 +18762,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -18780,7 +18778,7 @@
       <c r="N28" s="63"/>
       <c r="O28" s="63"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="193"/>
       <c r="D29" s="193"/>
@@ -18796,7 +18794,7 @@
       <c r="N29" s="200"/>
       <c r="O29" s="200"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -18812,7 +18810,7 @@
       <c r="N30" s="200"/>
       <c r="O30" s="200"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -18828,7 +18826,7 @@
       <c r="N31" s="200"/>
       <c r="O31" s="200"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -18844,7 +18842,7 @@
       <c r="N32" s="200"/>
       <c r="O32" s="200"/>
     </row>
-    <row r="33" spans="5:15">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="129"/>
       <c r="F33" s="129"/>
       <c r="G33" s="129"/>
@@ -18857,7 +18855,7 @@
       <c r="N33" s="200"/>
       <c r="O33" s="200"/>
     </row>
-    <row r="34" spans="5:15">
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E34" s="200"/>
       <c r="F34" s="200"/>
       <c r="G34" s="200"/>
@@ -18870,7 +18868,7 @@
       <c r="N34" s="200"/>
       <c r="O34" s="200"/>
     </row>
-    <row r="35" spans="5:15">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E35" s="200"/>
       <c r="F35" s="200"/>
       <c r="G35" s="200"/>
@@ -18883,7 +18881,7 @@
       <c r="N35" s="200"/>
       <c r="O35" s="201"/>
     </row>
-    <row r="36" spans="5:15">
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="200"/>
       <c r="F36" s="200"/>
       <c r="G36" s="200"/>
@@ -18896,7 +18894,7 @@
       <c r="N36" s="200"/>
       <c r="O36" s="201"/>
     </row>
-    <row r="37" spans="5:15">
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="200"/>
       <c r="F37" s="200"/>
       <c r="G37" s="200"/>
@@ -18909,7 +18907,7 @@
       <c r="N37" s="200"/>
       <c r="O37" s="201"/>
     </row>
-    <row r="38" spans="5:15">
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E38" s="200"/>
       <c r="F38" s="200"/>
       <c r="G38" s="200"/>
@@ -18922,7 +18920,7 @@
       <c r="N38" s="200"/>
       <c r="O38" s="201"/>
     </row>
-    <row r="39" spans="5:15">
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E39" s="200"/>
       <c r="F39" s="200"/>
       <c r="G39" s="200"/>
@@ -18935,7 +18933,7 @@
       <c r="N39" s="200"/>
       <c r="O39" s="200"/>
     </row>
-    <row r="40" spans="5:15">
+    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E40" s="200"/>
       <c r="F40" s="200"/>
       <c r="G40" s="200"/>
@@ -18948,7 +18946,7 @@
       <c r="N40" s="200"/>
       <c r="O40" s="200"/>
     </row>
-    <row r="41" spans="5:15">
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E41" s="200"/>
       <c r="F41" s="200"/>
       <c r="G41" s="200"/>
@@ -18961,7 +18959,7 @@
       <c r="N41" s="200"/>
       <c r="O41" s="200"/>
     </row>
-    <row r="42" spans="5:15">
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E42" s="200"/>
       <c r="F42" s="200"/>
       <c r="G42" s="200"/>
@@ -18974,7 +18972,7 @@
       <c r="N42" s="200"/>
       <c r="O42" s="200"/>
     </row>
-    <row r="43" spans="5:15">
+    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E43" s="129"/>
       <c r="F43" s="129"/>
       <c r="G43" s="129"/>
@@ -18987,7 +18985,7 @@
       <c r="N43" s="129"/>
       <c r="O43" s="129"/>
     </row>
-    <row r="44" spans="5:15">
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E44" s="129"/>
       <c r="F44" s="129"/>
       <c r="G44" s="129"/>
@@ -19000,7 +18998,7 @@
       <c r="N44" s="129"/>
       <c r="O44" s="129"/>
     </row>
-    <row r="45" spans="5:15">
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E45" s="129"/>
       <c r="F45" s="129"/>
       <c r="G45" s="129"/>
@@ -19013,7 +19011,7 @@
       <c r="N45" s="129"/>
       <c r="O45" s="129"/>
     </row>
-    <row r="46" spans="5:15">
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E46" s="129"/>
       <c r="F46" s="129"/>
       <c r="G46" s="129"/>
@@ -19026,7 +19024,7 @@
       <c r="N46" s="129"/>
       <c r="O46" s="202"/>
     </row>
-    <row r="47" spans="5:15">
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E47" s="129"/>
       <c r="F47" s="129"/>
       <c r="G47" s="129"/>
@@ -19039,7 +19037,7 @@
       <c r="N47" s="129"/>
       <c r="O47" s="129"/>
     </row>
-    <row r="48" spans="5:15">
+    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E48" s="129"/>
       <c r="F48" s="129"/>
       <c r="G48" s="129"/>
@@ -19052,7 +19050,7 @@
       <c r="N48" s="129"/>
       <c r="O48" s="129"/>
     </row>
-    <row r="49" spans="5:15">
+    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E49" s="129"/>
       <c r="F49" s="129"/>
       <c r="G49" s="129"/>
@@ -19065,7 +19063,7 @@
       <c r="N49" s="129"/>
       <c r="O49" s="129"/>
     </row>
-    <row r="50" spans="5:15">
+    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E50" s="129"/>
       <c r="F50" s="129"/>
       <c r="G50" s="129"/>
@@ -19078,7 +19076,7 @@
       <c r="N50" s="129"/>
       <c r="O50" s="129"/>
     </row>
-    <row r="51" spans="5:15">
+    <row r="51" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E51" s="129"/>
       <c r="F51" s="129"/>
       <c r="G51" s="129"/>
@@ -19091,7 +19089,7 @@
       <c r="N51" s="129"/>
       <c r="O51" s="129"/>
     </row>
-    <row r="52" spans="5:15">
+    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E52" s="129"/>
       <c r="F52" s="129"/>
       <c r="G52" s="129"/>
@@ -19104,7 +19102,7 @@
       <c r="N52" s="129"/>
       <c r="O52" s="129"/>
     </row>
-    <row r="53" spans="5:15">
+    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E53" s="129"/>
       <c r="F53" s="129"/>
       <c r="G53" s="129"/>
@@ -19117,7 +19115,7 @@
       <c r="N53" s="129"/>
       <c r="O53" s="129"/>
     </row>
-    <row r="54" spans="5:15">
+    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E54" s="129"/>
       <c r="F54" s="129"/>
       <c r="G54" s="129"/>
@@ -19130,7 +19128,7 @@
       <c r="N54" s="129"/>
       <c r="O54" s="129"/>
     </row>
-    <row r="55" spans="5:15">
+    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E55" s="200"/>
       <c r="F55" s="200"/>
       <c r="G55" s="200"/>
@@ -19143,7 +19141,7 @@
       <c r="N55" s="200"/>
       <c r="O55" s="200"/>
     </row>
-    <row r="56" spans="5:15" ht="20.25">
+    <row r="56" spans="5:15" ht="21" x14ac:dyDescent="0.35">
       <c r="E56" s="203"/>
       <c r="F56" s="203"/>
       <c r="G56" s="203"/>
@@ -19156,7 +19154,7 @@
       <c r="N56" s="203"/>
       <c r="O56" s="203"/>
     </row>
-    <row r="57" spans="5:15">
+    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E57" s="129"/>
       <c r="F57" s="129"/>
       <c r="G57" s="129"/>
@@ -19169,7 +19167,7 @@
       <c r="N57" s="129"/>
       <c r="O57" s="129"/>
     </row>
-    <row r="58" spans="5:15">
+    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E58" s="129"/>
       <c r="F58" s="129"/>
       <c r="G58" s="129"/>

--- a/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
+++ b/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\code\ENTREGA\HITO0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\code\ENTREGA\HITO0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3038,7 +3038,7 @@
     <numFmt numFmtId="166" formatCode="0.00;[Red]\-0.00;&quot;&quot;"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4887,11 +4887,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4904,15 +4913,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5838,17 +5838,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
-    <col min="2" max="2" width="18.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="7"/>
+    <col min="1" max="1" width="10.88671875" style="7"/>
+    <col min="2" max="2" width="18.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="10.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:18" ht="23.25">
       <c r="B2" s="217" t="s">
         <v>314</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="Q2" s="218"/>
       <c r="R2" s="219"/>
     </row>
-    <row r="3" spans="2:18" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="47.1" customHeight="1">
       <c r="B3" s="220" t="s">
         <v>35</v>
       </c>
@@ -5890,7 +5890,7 @@
       <c r="Q3" s="221"/>
       <c r="R3" s="222"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="15.75">
       <c r="B4" s="226" t="s">
         <v>37</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="Q4" s="227"/>
       <c r="R4" s="228"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18">
       <c r="B5" s="229" t="s">
         <v>44</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="Q5" s="230"/>
       <c r="R5" s="231"/>
     </row>
-    <row r="6" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="15.75" thickBot="1">
       <c r="B6" s="223" t="s">
         <v>38</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="Q6" s="224"/>
       <c r="R6" s="225"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5976,7 +5976,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="15.75" thickBot="1">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -5995,7 +5995,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15.75" thickBot="1">
       <c r="B9" s="30" t="s">
         <v>43</v>
       </c>
@@ -6006,7 +6006,7 @@
       <c r="E9" s="232"/>
       <c r="F9" s="233"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="15.75">
       <c r="E11" s="214" t="s">
         <v>4</v>
       </c>
@@ -6026,7 +6026,7 @@
       <c r="O11" s="216"/>
       <c r="P11" s="216"/>
     </row>
-    <row r="12" spans="2:18" s="14" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" s="14" customFormat="1" ht="76.5" thickBot="1">
       <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18">
       <c r="B13" s="15">
         <v>1</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="B14" s="15">
         <v>2</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18">
       <c r="B15" s="15">
         <v>3</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18">
       <c r="B16" s="15">
         <v>4</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18">
       <c r="B17" s="15">
         <v>5</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="15.75" thickBot="1">
       <c r="B18" s="15">
         <v>6</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18">
       <c r="B19" s="17" t="s">
         <v>34</v>
       </c>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="R19" s="17"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18">
       <c r="B20" s="17" t="s">
         <v>3</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18">
       <c r="P28" s="19"/>
     </row>
   </sheetData>
@@ -6491,10 +6491,10 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>532</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="N2" s="235"/>
       <c r="O2" s="236"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="237"/>
       <c r="C3" s="238"/>
       <c r="D3" s="238"/>
@@ -6528,7 +6528,7 @@
       <c r="N3" s="238"/>
       <c r="O3" s="239"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="15.75">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -6546,7 +6546,7 @@
       <c r="N4" s="241"/>
       <c r="O4" s="242"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="15.75" thickBot="1">
       <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
@@ -6564,8 +6564,8 @@
       <c r="N5" s="244"/>
       <c r="O5" s="245"/>
     </row>
-    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:15" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
         <v>533</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="N7" s="198"/>
       <c r="O7" s="199"/>
     </row>
-    <row r="8" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -6603,7 +6603,7 @@
       <c r="N8" s="63"/>
       <c r="O8" s="63"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="N9" s="185"/>
       <c r="O9" s="186"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="N10" s="188"/>
       <c r="O10" s="189"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="E12" s="187" t="s">
         <v>585</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="E13" s="187"/>
       <c r="F13" s="188" t="s">
         <v>585</v>
@@ -6720,7 +6720,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="20.25">
       <c r="B14" s="6" t="s">
         <v>540</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6855,7 +6855,7 @@
       <c r="N18" s="188"/>
       <c r="O18" s="189"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6873,7 +6873,7 @@
       <c r="N19" s="188"/>
       <c r="O19" s="189"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6889,7 +6889,7 @@
       <c r="N20" s="188"/>
       <c r="O20" s="189"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -6915,7 +6915,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6941,7 +6941,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -6967,7 +6967,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -6993,7 +6993,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="O25" s="189"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -7030,7 +7030,7 @@
       <c r="N26" s="188"/>
       <c r="O26" s="189"/>
     </row>
-    <row r="27" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="15.75" thickBot="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -7052,7 +7052,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7068,7 +7068,7 @@
       <c r="N28" s="63"/>
       <c r="O28" s="63"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="B29" s="5"/>
       <c r="C29" s="193"/>
       <c r="D29" s="193"/>
@@ -7084,7 +7084,7 @@
       <c r="N29" s="200"/>
       <c r="O29" s="200"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -7139,24 +7139,24 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="144"/>
-    <col min="2" max="2" width="31.125" style="144" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="144" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="144" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="144" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="144" customWidth="1"/>
-    <col min="7" max="7" width="50.375" style="144" customWidth="1"/>
-    <col min="8" max="11" width="8.875" style="144"/>
+    <col min="1" max="1" width="8.88671875" style="144"/>
+    <col min="2" max="2" width="31.109375" style="144" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="144" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="144" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="144" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="144" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" style="144" customWidth="1"/>
+    <col min="8" max="11" width="8.88671875" style="144"/>
     <col min="12" max="16" width="0" style="144" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="144"/>
+    <col min="17" max="16384" width="8.88671875" style="144"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1">
       <c r="G1" s="145"/>
     </row>
-    <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" ht="23.25">
       <c r="B2" s="282" t="s">
         <v>471</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="P2" s="282"/>
       <c r="Q2" s="282"/>
     </row>
-    <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1">
       <c r="B3" s="283" t="s">
         <v>399</v>
       </c>
@@ -7196,7 +7196,7 @@
       <c r="P3" s="283"/>
       <c r="Q3" s="283"/>
     </row>
-    <row r="4" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="15.6" customHeight="1">
       <c r="B4" s="284" t="s">
         <v>37</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="P4" s="284"/>
       <c r="Q4" s="284"/>
     </row>
-    <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1">
       <c r="B5" s="243" t="s">
         <v>567</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="P5" s="244"/>
       <c r="Q5" s="245"/>
     </row>
-    <row r="7" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="21" thickBot="1">
       <c r="B7" s="146" t="s">
         <v>46</v>
       </c>
@@ -7245,7 +7245,7 @@
       <c r="J7" s="147"/>
       <c r="K7" s="147"/>
     </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="15" customHeight="1" thickBot="1">
       <c r="B8" s="148" t="s">
         <v>22</v>
       </c>
@@ -7276,7 +7276,7 @@
       <c r="P8" s="288"/>
       <c r="Q8" s="288"/>
     </row>
-    <row r="9" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="47.25">
       <c r="B9" s="148" t="s">
         <v>23</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="30">
       <c r="B10" s="148" t="s">
         <v>24</v>
       </c>
@@ -7342,7 +7342,7 @@
       <c r="P10" s="156"/>
       <c r="Q10" s="158"/>
     </row>
-    <row r="11" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="30">
       <c r="B11" s="148" t="s">
         <v>25</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="P11" s="156"/>
       <c r="Q11" s="158"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="E12" s="169" t="s">
         <v>476</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="P12" s="156"/>
       <c r="Q12" s="158"/>
     </row>
-    <row r="13" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="30">
       <c r="E13" s="169" t="s">
         <v>478</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="P13" s="156"/>
       <c r="Q13" s="158"/>
     </row>
-    <row r="14" spans="2:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" ht="30">
       <c r="B14" s="160" t="s">
         <v>93</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="P14" s="156"/>
       <c r="Q14" s="158"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17">
       <c r="B15" s="148" t="s">
         <v>26</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="P15" s="156"/>
       <c r="Q15" s="158"/>
     </row>
-    <row r="16" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="45">
       <c r="B16" s="148" t="s">
         <v>27</v>
       </c>
@@ -7516,7 +7516,7 @@
       <c r="P16" s="156"/>
       <c r="Q16" s="158"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17">
       <c r="B17" s="148" t="s">
         <v>28</v>
       </c>
@@ -7548,7 +7548,7 @@
       <c r="P17" s="161"/>
       <c r="Q17" s="158"/>
     </row>
-    <row r="18" spans="2:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" ht="30.75" thickBot="1">
       <c r="B18" s="148" t="s">
         <v>32</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="P18" s="176"/>
       <c r="Q18" s="177"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17">
       <c r="B19" s="148" t="s">
         <v>30</v>
       </c>
@@ -7607,7 +7607,7 @@
       <c r="P19" s="156"/>
       <c r="Q19" s="163"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17">
       <c r="B20" s="148" t="s">
         <v>31</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="P20" s="156"/>
       <c r="Q20" s="163"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17">
       <c r="E21" s="156"/>
       <c r="J21" s="163"/>
       <c r="K21" s="161"/>
@@ -7636,7 +7636,7 @@
       <c r="P21" s="156"/>
       <c r="Q21" s="163"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17">
       <c r="J22" s="163"/>
       <c r="K22" s="161"/>
       <c r="L22" s="156"/>
@@ -7646,7 +7646,7 @@
       <c r="P22" s="156"/>
       <c r="Q22" s="163"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17">
       <c r="J23" s="163"/>
       <c r="K23" s="161"/>
       <c r="L23" s="156"/>
@@ -7656,7 +7656,7 @@
       <c r="P23" s="161"/>
       <c r="Q23" s="163"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17">
       <c r="J24" s="163"/>
       <c r="K24" s="161"/>
       <c r="L24" s="156"/>
@@ -7666,7 +7666,7 @@
       <c r="P24" s="161"/>
       <c r="Q24" s="163"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17">
       <c r="E25" s="156"/>
       <c r="F25" s="156"/>
       <c r="G25" s="156"/>
@@ -7681,7 +7681,7 @@
       <c r="P25" s="161"/>
       <c r="Q25" s="163"/>
     </row>
-    <row r="26" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" ht="25.5">
       <c r="E26" s="156"/>
       <c r="F26" s="156"/>
       <c r="G26" s="164"/>
@@ -7696,7 +7696,7 @@
       <c r="P26" s="156"/>
       <c r="Q26" s="163"/>
     </row>
-    <row r="27" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="25.5">
       <c r="E27" s="156"/>
       <c r="F27" s="156"/>
       <c r="G27" s="164"/>
@@ -7711,7 +7711,7 @@
       <c r="P27" s="156"/>
       <c r="Q27" s="163"/>
     </row>
-    <row r="28" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="25.5">
       <c r="E28" s="156"/>
       <c r="F28" s="156"/>
       <c r="G28" s="164"/>
@@ -7726,7 +7726,7 @@
       <c r="P28" s="161"/>
       <c r="Q28" s="163"/>
     </row>
-    <row r="29" spans="2:17" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="25.5">
       <c r="E29" s="156"/>
       <c r="F29" s="156"/>
       <c r="G29" s="164"/>
@@ -7741,7 +7741,7 @@
       <c r="P29" s="161"/>
       <c r="Q29" s="163"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17">
       <c r="E30" s="156"/>
       <c r="F30" s="156"/>
       <c r="G30" s="156"/>
@@ -7756,7 +7756,7 @@
       <c r="P30" s="161"/>
       <c r="Q30" s="163"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17">
       <c r="E31" s="156"/>
       <c r="F31" s="156"/>
       <c r="G31" s="156"/>
@@ -7771,7 +7771,7 @@
       <c r="P31" s="161"/>
       <c r="Q31" s="163"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17">
       <c r="E32" s="156"/>
       <c r="F32" s="156"/>
       <c r="G32" s="156"/>
@@ -7786,7 +7786,7 @@
       <c r="P32" s="156"/>
       <c r="Q32" s="163"/>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:17">
       <c r="E33" s="156"/>
       <c r="F33" s="156"/>
       <c r="G33" s="156"/>
@@ -7801,7 +7801,7 @@
       <c r="P33" s="156"/>
       <c r="Q33" s="163"/>
     </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:17">
       <c r="E34" s="156"/>
       <c r="F34" s="156"/>
       <c r="G34" s="156"/>
@@ -7816,7 +7816,7 @@
       <c r="P34" s="161"/>
       <c r="Q34" s="163"/>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:17">
       <c r="E35" s="156"/>
       <c r="F35" s="156"/>
       <c r="G35" s="156"/>
@@ -7831,7 +7831,7 @@
       <c r="P35" s="161"/>
       <c r="Q35" s="163"/>
     </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:17">
       <c r="E36" s="156"/>
       <c r="F36" s="156"/>
       <c r="G36" s="156"/>
@@ -7846,7 +7846,7 @@
       <c r="P36" s="161"/>
       <c r="Q36" s="163"/>
     </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:17">
       <c r="E37" s="156"/>
       <c r="F37" s="156"/>
       <c r="G37" s="156"/>
@@ -7861,7 +7861,7 @@
       <c r="P37" s="161"/>
       <c r="Q37" s="163"/>
     </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:17">
       <c r="E38" s="150"/>
       <c r="F38" s="150"/>
       <c r="G38" s="150"/>
@@ -7874,7 +7874,7 @@
       <c r="O38" s="167"/>
       <c r="P38" s="167"/>
     </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:17">
       <c r="E39" s="150"/>
       <c r="F39" s="150"/>
       <c r="G39" s="150"/>
@@ -7887,7 +7887,7 @@
       <c r="O39" s="167"/>
       <c r="P39" s="167"/>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:17">
       <c r="E40" s="167"/>
       <c r="F40" s="150"/>
       <c r="G40" s="168"/>
@@ -7900,7 +7900,7 @@
       <c r="O40" s="167"/>
       <c r="P40" s="167"/>
     </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:17">
       <c r="E41" s="167"/>
       <c r="F41" s="167"/>
       <c r="G41" s="167"/>
@@ -7913,7 +7913,7 @@
       <c r="O41" s="167"/>
       <c r="P41" s="167"/>
     </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:17">
       <c r="E42" s="167"/>
       <c r="F42" s="167"/>
       <c r="G42" s="167"/>
@@ -7959,19 +7959,19 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="6.125" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="12" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:17" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>432</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="P2" s="235"/>
       <c r="Q2" s="236"/>
     </row>
-    <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="36.950000000000003" customHeight="1">
       <c r="B3" s="237" t="s">
         <v>399</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="P3" s="238"/>
       <c r="Q3" s="239"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="15.75">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="P4" s="241"/>
       <c r="Q4" s="242"/>
     </row>
-    <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="33.6" customHeight="1" thickBot="1">
       <c r="B5" s="243" t="s">
         <v>433</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="P5" s="244"/>
       <c r="Q5" s="245"/>
     </row>
-    <row r="7" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="15" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -8091,7 +8091,7 @@
       <c r="P8" s="250"/>
       <c r="Q8" s="252"/>
     </row>
-    <row r="9" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="47.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -8157,7 +8157,7 @@
       <c r="P10" s="99"/>
       <c r="Q10" s="101"/>
     </row>
-    <row r="11" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="30">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -8189,7 +8189,7 @@
       <c r="P11" s="104"/>
       <c r="Q11" s="204"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="E12" s="102" t="s">
         <v>408</v>
       </c>
@@ -8214,7 +8214,7 @@
       <c r="P12" s="104"/>
       <c r="Q12" s="204"/>
     </row>
-    <row r="13" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="30">
       <c r="E13" s="102" t="s">
         <v>410</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="P13" s="104"/>
       <c r="Q13" s="204"/>
     </row>
-    <row r="14" spans="2:17" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:17" ht="30">
       <c r="B14" s="6" t="s">
         <v>93</v>
       </c>
@@ -8267,7 +8267,7 @@
       <c r="P14" s="104"/>
       <c r="Q14" s="204"/>
     </row>
-    <row r="15" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="30">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="P15" s="104"/>
       <c r="Q15" s="204"/>
     </row>
-    <row r="16" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="30">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="P16" s="104"/>
       <c r="Q16" s="204"/>
     </row>
-    <row r="17" spans="2:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" ht="60">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -8363,7 +8363,7 @@
       <c r="P17" s="104"/>
       <c r="Q17" s="204"/>
     </row>
-    <row r="18" spans="2:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="60">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="P18" s="104"/>
       <c r="Q18" s="204"/>
     </row>
-    <row r="19" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" ht="30">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -8427,7 +8427,7 @@
       <c r="P19" s="104"/>
       <c r="Q19" s="204"/>
     </row>
-    <row r="20" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="15.75" thickBot="1">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -8459,7 +8459,7 @@
       <c r="P20" s="180"/>
       <c r="Q20" s="183"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17">
       <c r="E21" s="99"/>
       <c r="F21" s="99"/>
       <c r="G21" s="209" t="s">
@@ -8479,7 +8479,7 @@
       <c r="P21" s="99"/>
       <c r="Q21" s="98"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17">
       <c r="E22" s="99"/>
       <c r="F22" s="99"/>
       <c r="G22" s="99"/>
@@ -8494,7 +8494,7 @@
       <c r="P22" s="99"/>
       <c r="Q22" s="98"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17">
       <c r="E23" s="99"/>
       <c r="F23" s="99"/>
       <c r="G23" s="99"/>
@@ -8509,7 +8509,7 @@
       <c r="P23" s="108"/>
       <c r="Q23" s="98"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17">
       <c r="E24" s="99"/>
       <c r="F24" s="99"/>
       <c r="G24" s="99"/>
@@ -8524,7 +8524,7 @@
       <c r="P24" s="108"/>
       <c r="Q24" s="98"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17">
       <c r="E25" s="99"/>
       <c r="F25" s="99"/>
       <c r="G25" s="99"/>
@@ -8539,7 +8539,7 @@
       <c r="P25" s="108"/>
       <c r="Q25" s="98"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17">
       <c r="E26" s="99"/>
       <c r="F26" s="99"/>
       <c r="G26" s="99"/>
@@ -8554,7 +8554,7 @@
       <c r="P26" s="108"/>
       <c r="Q26" s="98"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17">
       <c r="E27" s="99"/>
       <c r="F27" s="99"/>
       <c r="G27" s="99"/>
@@ -8569,7 +8569,7 @@
       <c r="P27" s="108"/>
       <c r="Q27" s="98"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17">
       <c r="E28" s="99"/>
       <c r="F28" s="99"/>
       <c r="G28" s="99"/>
@@ -8584,7 +8584,7 @@
       <c r="P28" s="108"/>
       <c r="Q28" s="98"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17">
       <c r="E29" s="99"/>
       <c r="F29" s="99"/>
       <c r="G29" s="99"/>
@@ -8599,7 +8599,7 @@
       <c r="P29" s="99"/>
       <c r="Q29" s="98"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17">
       <c r="E30" s="99"/>
       <c r="F30" s="99"/>
       <c r="G30" s="99"/>
@@ -8614,7 +8614,7 @@
       <c r="P30" s="99"/>
       <c r="Q30" s="98"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17">
       <c r="E31" s="99"/>
       <c r="F31" s="99"/>
       <c r="G31" s="99"/>
@@ -8629,7 +8629,7 @@
       <c r="P31" s="108"/>
       <c r="Q31" s="98"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17">
       <c r="E32" s="99"/>
       <c r="F32" s="99"/>
       <c r="G32" s="99"/>
@@ -8644,7 +8644,7 @@
       <c r="P32" s="108"/>
       <c r="Q32" s="98"/>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:17">
       <c r="E33" s="99"/>
       <c r="F33" s="99"/>
       <c r="G33" s="99"/>
@@ -8659,7 +8659,7 @@
       <c r="P33" s="108"/>
       <c r="Q33" s="98"/>
     </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:17">
       <c r="E34" s="99"/>
       <c r="F34" s="99"/>
       <c r="G34" s="99"/>
@@ -8674,7 +8674,7 @@
       <c r="P34" s="108"/>
       <c r="Q34" s="98"/>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:17">
       <c r="E35" s="99"/>
       <c r="F35" s="99"/>
       <c r="G35" s="99"/>
@@ -8689,7 +8689,7 @@
       <c r="P35" s="99"/>
       <c r="Q35" s="98"/>
     </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:17">
       <c r="E36" s="99"/>
       <c r="F36" s="99"/>
       <c r="G36" s="99"/>
@@ -8704,7 +8704,7 @@
       <c r="P36" s="99"/>
       <c r="Q36" s="98"/>
     </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:17">
       <c r="E37" s="99"/>
       <c r="F37" s="99"/>
       <c r="G37" s="99"/>
@@ -8719,7 +8719,7 @@
       <c r="P37" s="108"/>
       <c r="Q37" s="98"/>
     </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:17">
       <c r="E38" s="99"/>
       <c r="F38" s="99"/>
       <c r="G38" s="99"/>
@@ -8734,7 +8734,7 @@
       <c r="P38" s="108"/>
       <c r="Q38" s="98"/>
     </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:17">
       <c r="E39" s="99"/>
       <c r="F39" s="99"/>
       <c r="G39" s="99"/>
@@ -8749,7 +8749,7 @@
       <c r="P39" s="108"/>
       <c r="Q39" s="98"/>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:17">
       <c r="E40" s="99"/>
       <c r="F40" s="99"/>
       <c r="G40" s="99"/>
@@ -8764,7 +8764,7 @@
       <c r="P40" s="108"/>
       <c r="Q40" s="98"/>
     </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:17">
       <c r="E41" s="112"/>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -8779,7 +8779,7 @@
       <c r="O41" s="31"/>
       <c r="P41" s="31"/>
     </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:17">
       <c r="E42" s="112"/>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -8796,7 +8796,7 @@
       <c r="O42" s="31"/>
       <c r="P42" s="31"/>
     </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:17">
       <c r="E43" s="31"/>
       <c r="F43" s="39" t="s">
         <v>87</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:17">
       <c r="E44" s="31"/>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
@@ -8844,7 +8844,7 @@
       <c r="O44" s="31"/>
       <c r="P44" s="31"/>
     </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:17">
       <c r="E45" s="31"/>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
@@ -8890,13 +8890,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>566</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="J2" s="235"/>
       <c r="K2" s="236"/>
     </row>
-    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="289" t="s">
         <v>557</v>
       </c>
@@ -8924,12 +8924,12 @@
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
     </row>
-    <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="20.25">
       <c r="B5" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
         <v>558</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="1" t="s">
         <v>559</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -8962,12 +8962,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="20.25">
       <c r="B12" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -9006,13 +9006,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>560</v>
       </c>
@@ -9026,7 +9026,7 @@
       <c r="J2" s="235"/>
       <c r="K2" s="236"/>
     </row>
-    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="289" t="s">
         <v>557</v>
       </c>
@@ -9040,12 +9040,12 @@
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
     </row>
-    <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="20.25">
       <c r="B5" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
         <v>558</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="1" t="s">
         <v>559</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -9078,12 +9078,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="20.25">
       <c r="B12" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -9124,13 +9124,13 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>563</v>
       </c>
@@ -9144,7 +9144,7 @@
       <c r="J2" s="235"/>
       <c r="K2" s="236"/>
     </row>
-    <row r="3" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1">
       <c r="B3" s="289" t="s">
         <v>557</v>
       </c>
@@ -9158,12 +9158,12 @@
       <c r="J3" s="290"/>
       <c r="K3" s="291"/>
     </row>
-    <row r="5" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="20.25">
       <c r="B5" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
         <v>558</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="1" t="s">
         <v>559</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -9196,12 +9196,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="20.25">
       <c r="B12" s="6" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -9242,24 +9242,24 @@
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="3.875" customWidth="1"/>
-    <col min="14" max="14" width="15.125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="3.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:16" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>45</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="K2" s="235"/>
       <c r="L2" s="236"/>
     </row>
-    <row r="3" spans="2:16" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="36.950000000000003" customHeight="1">
       <c r="B3" s="237" t="s">
         <v>95</v>
       </c>
@@ -9289,7 +9289,7 @@
       <c r="K3" s="238"/>
       <c r="L3" s="239"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="15.75">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -9304,7 +9304,7 @@
       <c r="K4" s="241"/>
       <c r="L4" s="242"/>
     </row>
-    <row r="5" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="33" customHeight="1" thickBot="1">
       <c r="B5" s="243" t="s">
         <v>94</v>
       </c>
@@ -9319,7 +9319,7 @@
       <c r="K5" s="244"/>
       <c r="L5" s="245"/>
     </row>
-    <row r="7" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
@@ -9328,7 +9328,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="15" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -9354,7 +9354,7 @@
       <c r="K8" s="250"/>
       <c r="L8" s="252"/>
     </row>
-    <row r="9" spans="2:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="47.25">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="E12" s="45" t="s">
@@ -9522,7 +9522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16">
       <c r="E13" s="45" t="s">
         <v>54</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16">
       <c r="E14" s="45" t="s">
         <v>55</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16">
       <c r="E15" s="45" t="s">
         <v>58</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16">
       <c r="E16" s="45"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -9651,7 +9651,7 @@
       <c r="L16" s="55"/>
       <c r="O16" s="52"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16">
       <c r="E17" s="45" t="s">
         <v>59</v>
       </c>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="O17" s="52"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16">
       <c r="E18" s="45" t="s">
         <v>61</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="18" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>93</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16">
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="O22" s="50"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16">
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16">
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16">
       <c r="E26" s="45" t="s">
         <v>70</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16">
       <c r="E27" s="45" t="s">
         <v>71</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16">
       <c r="E28" s="45"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -10126,7 +10126,7 @@
       <c r="K28" s="54"/>
       <c r="L28" s="55"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="E29" s="45" t="s">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="O29" s="52"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="E30" s="45" t="s">
@@ -10204,7 +10204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="E31" s="45" t="s">
         <v>74</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="E32" s="45" t="s">
         <v>75</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:16">
       <c r="E33" s="45" t="s">
         <v>76</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:16">
       <c r="E34" s="45" t="s">
         <v>77</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:16">
       <c r="E35" s="45" t="s">
         <v>78</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:16">
       <c r="E36" s="45"/>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -10415,7 +10415,7 @@
       <c r="K36" s="54"/>
       <c r="L36" s="55"/>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:16">
       <c r="E37" s="45" t="s">
         <v>79</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:16">
       <c r="E38" s="45" t="s">
         <v>80</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:16">
       <c r="E39" s="45" t="s">
         <v>81</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:16">
       <c r="E40" s="45" t="s">
         <v>82</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:16">
       <c r="E41" s="45" t="s">
         <v>83</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:16">
       <c r="E42" s="45" t="s">
         <v>84</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:16">
       <c r="E43" s="45" t="s">
         <v>85</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:16">
       <c r="E44" s="45"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -10650,7 +10650,7 @@
       <c r="K44" s="54"/>
       <c r="L44" s="55"/>
     </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:16">
       <c r="E45" s="45" t="s">
         <v>135</v>
       </c>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O45" s="52"/>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:16">
       <c r="E46" s="45" t="s">
         <v>136</v>
       </c>
@@ -10712,7 +10712,7 @@
       </c>
       <c r="O46" s="52"/>
     </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:16">
       <c r="E47" s="45" t="s">
         <v>137</v>
       </c>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="O47" s="50"/>
     </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:16">
       <c r="E48" s="45" t="s">
         <v>138</v>
       </c>
@@ -10774,7 +10774,7 @@
       </c>
       <c r="O48" s="50"/>
     </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:15">
       <c r="E49" s="45" t="s">
         <v>139</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="N49" s="29"/>
       <c r="O49" s="52"/>
     </row>
-    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:15">
       <c r="E50" s="45" t="s">
         <v>140</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:15">
       <c r="E51" s="45" t="s">
         <v>141</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:15" ht="15.75" thickBot="1">
       <c r="E52" s="46"/>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
@@ -10876,7 +10876,7 @@
       <c r="K52" s="56"/>
       <c r="L52" s="57"/>
     </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:15">
       <c r="E53" s="31"/>
       <c r="F53" s="39"/>
       <c r="G53" s="38" t="s">
@@ -10900,7 +10900,7 @@
         <v>59.999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:15">
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
@@ -10908,7 +10908,7 @@
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
     </row>
-    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:15">
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
@@ -10947,18 +10947,18 @@
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="152.375" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="152.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:11" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>144</v>
       </c>
@@ -10972,7 +10972,7 @@
       <c r="J2" s="235"/>
       <c r="K2" s="236"/>
     </row>
-    <row r="3" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15.95" customHeight="1">
       <c r="B3" s="237" t="s">
         <v>145</v>
       </c>
@@ -10986,7 +10986,7 @@
       <c r="J3" s="238"/>
       <c r="K3" s="239"/>
     </row>
-    <row r="4" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15.95" customHeight="1">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -11000,7 +11000,7 @@
       <c r="J4" s="241"/>
       <c r="K4" s="242"/>
     </row>
-    <row r="5" spans="2:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="15.95" customHeight="1" thickBot="1">
       <c r="B5" s="243" t="s">
         <v>146</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="J5" s="244"/>
       <c r="K5" s="245"/>
     </row>
-    <row r="7" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
         <v>147</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="K9" s="257"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="K10" s="258"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="E12" s="262"/>
       <c r="F12" s="60" t="s">
         <v>160</v>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="K12" s="257"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11">
       <c r="E13" s="262"/>
       <c r="F13" s="60" t="s">
         <v>162</v>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="K13" s="257"/>
     </row>
-    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="20.25">
       <c r="B14" s="6" t="s">
         <v>164</v>
       </c>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="K14" s="257"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="K15" s="257"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -11250,7 +11250,7 @@
       </c>
       <c r="K16" s="257"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -11276,7 +11276,7 @@
       </c>
       <c r="K17" s="257"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -11302,7 +11302,7 @@
       </c>
       <c r="K18" s="257"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -11328,7 +11328,7 @@
       </c>
       <c r="K19" s="257"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="K20" s="257"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="E21" s="262"/>
       <c r="F21" s="60" t="s">
         <v>184</v>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="K21" s="257"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="E22" s="262"/>
       <c r="F22" s="60" t="s">
         <v>192</v>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="K22" s="258"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11">
       <c r="E23" s="262"/>
       <c r="F23" s="60" t="s">
         <v>193</v>
@@ -11413,7 +11413,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="E24" s="262"/>
       <c r="F24" s="60" t="s">
         <v>197</v>
@@ -11432,7 +11432,7 @@
       </c>
       <c r="K24" s="257"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="E25" s="262"/>
       <c r="F25" s="60" t="s">
         <v>199</v>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="K25" s="257"/>
     </row>
-    <row r="26" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="15.75" thickBot="1">
       <c r="E26" s="263"/>
       <c r="F26" s="62" t="s">
         <v>201</v>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="K26" s="260"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="15.75">
       <c r="F27" s="63"/>
       <c r="G27" s="64" t="s">
         <v>180</v>
@@ -11486,8 +11486,8 @@
       <c r="J27" s="63"/>
       <c r="K27" s="63"/>
     </row>
-    <row r="28" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="29" spans="2:11">
       <c r="E29" s="253" t="s">
         <v>203</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="E30" s="254"/>
       <c r="F30" s="60" t="s">
         <v>154</v>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="K30" s="257"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="E31" s="254"/>
       <c r="F31" s="60" t="s">
         <v>155</v>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="K31" s="258"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="E32" s="254"/>
       <c r="F32" s="60" t="s">
         <v>157</v>
@@ -11569,7 +11569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11">
       <c r="E33" s="254"/>
       <c r="F33" s="60" t="s">
         <v>160</v>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="K33" s="257"/>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11">
       <c r="E34" s="254"/>
       <c r="F34" s="60" t="s">
         <v>162</v>
@@ -11607,7 +11607,7 @@
       </c>
       <c r="K34" s="257"/>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11">
       <c r="E35" s="254"/>
       <c r="F35" s="60" t="s">
         <v>165</v>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="K35" s="257"/>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11">
       <c r="E36" s="254"/>
       <c r="F36" s="60" t="s">
         <v>168</v>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="K36" s="257"/>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11">
       <c r="E37" s="254"/>
       <c r="F37" s="60" t="s">
         <v>170</v>
@@ -11664,7 +11664,7 @@
       </c>
       <c r="K37" s="257"/>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11">
       <c r="E38" s="254"/>
       <c r="F38" s="60" t="s">
         <v>173</v>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="K38" s="257"/>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11">
       <c r="E39" s="254"/>
       <c r="F39" s="60" t="s">
         <v>175</v>
@@ -11702,7 +11702,7 @@
       </c>
       <c r="K39" s="257"/>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11">
       <c r="E40" s="254"/>
       <c r="F40" s="60" t="s">
         <v>177</v>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="K40" s="257"/>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11">
       <c r="E41" s="254"/>
       <c r="F41" s="60" t="s">
         <v>179</v>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="K41" s="257"/>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11">
       <c r="E42" s="254"/>
       <c r="F42" s="60" t="s">
         <v>184</v>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="K42" s="257"/>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11">
       <c r="E43" s="254"/>
       <c r="F43" s="60" t="s">
         <v>192</v>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="K43" s="257"/>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11">
       <c r="E44" s="254"/>
       <c r="F44" s="60" t="s">
         <v>193</v>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="K44" s="258"/>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11">
       <c r="E45" s="254"/>
       <c r="F45" s="60" t="s">
         <v>197</v>
@@ -11818,7 +11818,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11">
       <c r="E46" s="254"/>
       <c r="F46" s="60" t="s">
         <v>199</v>
@@ -11837,7 +11837,7 @@
       </c>
       <c r="K46" s="257"/>
     </row>
-    <row r="47" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:11" ht="15.75" thickBot="1">
       <c r="E47" s="255"/>
       <c r="F47" s="62" t="s">
         <v>201</v>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="K47" s="260"/>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" ht="15.75">
       <c r="F48" s="63"/>
       <c r="G48" s="64" t="s">
         <v>180</v>
@@ -11872,8 +11872,8 @@
       <c r="J48" s="63"/>
       <c r="K48" s="63"/>
     </row>
-    <row r="49" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" ht="15.75" thickBot="1"/>
+    <row r="50" spans="5:11">
       <c r="E50" s="253" t="s">
         <v>207</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11">
       <c r="E51" s="254"/>
       <c r="F51" s="60" t="s">
         <v>154</v>
@@ -11915,7 +11915,7 @@
       </c>
       <c r="K51" s="257"/>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:11">
       <c r="E52" s="254"/>
       <c r="F52" s="60" t="s">
         <v>155</v>
@@ -11934,7 +11934,7 @@
       </c>
       <c r="K52" s="258"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:11">
       <c r="E53" s="254"/>
       <c r="F53" s="60" t="s">
         <v>157</v>
@@ -11955,7 +11955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:11">
       <c r="E54" s="254"/>
       <c r="F54" s="60" t="s">
         <v>160</v>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="K54" s="257"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:11">
       <c r="E55" s="254"/>
       <c r="F55" s="60" t="s">
         <v>162</v>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="K55" s="257"/>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:11">
       <c r="E56" s="254"/>
       <c r="F56" s="60" t="s">
         <v>165</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="K56" s="257"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:11">
       <c r="E57" s="254"/>
       <c r="F57" s="60" t="s">
         <v>168</v>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="K57" s="257"/>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:11">
       <c r="E58" s="254"/>
       <c r="F58" s="60" t="s">
         <v>170</v>
@@ -12050,7 +12050,7 @@
       </c>
       <c r="K58" s="257"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:11">
       <c r="E59" s="254"/>
       <c r="F59" s="60" t="s">
         <v>173</v>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="K59" s="257"/>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:11">
       <c r="E60" s="254"/>
       <c r="F60" s="60" t="s">
         <v>175</v>
@@ -12088,7 +12088,7 @@
       </c>
       <c r="K60" s="257"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:11">
       <c r="E61" s="254"/>
       <c r="F61" s="60" t="s">
         <v>177</v>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="K61" s="257"/>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:11">
       <c r="E62" s="254"/>
       <c r="F62" s="60" t="s">
         <v>179</v>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="K62" s="257"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:11">
       <c r="E63" s="254"/>
       <c r="F63" s="60" t="s">
         <v>184</v>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="K63" s="257"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:11">
       <c r="E64" s="254"/>
       <c r="F64" s="60" t="s">
         <v>192</v>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="K64" s="257"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:11">
       <c r="E65" s="254"/>
       <c r="F65" s="60" t="s">
         <v>193</v>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="K65" s="257"/>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:11">
       <c r="E66" s="254"/>
       <c r="F66" s="60" t="s">
         <v>197</v>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="K66" s="258"/>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:11">
       <c r="E67" s="254"/>
       <c r="F67" s="60" t="s">
         <v>199</v>
@@ -12223,7 +12223,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" ht="15.75" thickBot="1">
       <c r="E68" s="255"/>
       <c r="F68" s="62" t="s">
         <v>201</v>
@@ -12242,7 +12242,7 @@
       </c>
       <c r="K68" s="260"/>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:11" ht="15.75">
       <c r="F69" s="63"/>
       <c r="G69" s="64" t="s">
         <v>180</v>
@@ -12311,43 +12311,43 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.625" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="66"/>
+    <col min="2" max="2" width="15.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="270" t="s">
+    <row r="1" spans="1:10" ht="23.25">
+      <c r="A1" s="265" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-    </row>
-    <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="271" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+    </row>
+    <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
+      <c r="A2" s="266" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -12359,23 +12359,23 @@
       <c r="I3" s="67"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="272" t="s">
+    <row r="4" spans="1:10" ht="20.85" customHeight="1">
+      <c r="A4" s="267" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="272"/>
+      <c r="B4" s="267"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="272" t="s">
+      <c r="D4" s="267" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="267"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="267"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="68" t="s">
         <v>214</v>
       </c>
@@ -12383,20 +12383,20 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="265" t="s">
+      <c r="D5" s="264" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="71" t="s">
         <v>217</v>
       </c>
@@ -12404,20 +12404,20 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="265" t="s">
+      <c r="D6" s="264" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="264"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="264"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="71" t="s">
         <v>219</v>
       </c>
@@ -12425,20 +12425,20 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="265" t="s">
+      <c r="D7" s="264" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
       <c r="J7" s="73">
         <f>I13</f>
         <v>694</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="20.25" customHeight="1">
       <c r="A8" s="71" t="s">
         <v>221</v>
       </c>
@@ -12446,20 +12446,20 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="265" t="s">
+      <c r="D8" s="264" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
         <v>5.1515151515151514E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18.75">
       <c r="A9" s="75" t="s">
         <v>65</v>
       </c>
@@ -12468,20 +12468,20 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="266" t="s">
+      <c r="D9" s="269" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="266"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
       <c r="J9" s="77">
         <f>J13</f>
         <v>63.090909090909079</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="67"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -12493,38 +12493,38 @@
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="267" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="267" t="s">
+      <c r="B11" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="267" t="s">
+      <c r="C11" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="268" t="s">
+      <c r="D11" s="271" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="269" t="s">
+      <c r="E11" s="272" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="268" t="s">
+      <c r="F11" s="271" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="268"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="269" t="s">
+      <c r="G11" s="271"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="272" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="269"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="267"/>
-      <c r="B12" s="267"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="268"/>
-      <c r="E12" s="268"/>
+      <c r="J11" s="272"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25">
+      <c r="A12" s="270"/>
+      <c r="B12" s="270"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -12541,15 +12541,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="264"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="264"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="264"/>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="A13" s="268"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="268"/>
       <c r="I13" s="80">
         <f>SUM(I14:I49)</f>
         <v>694</v>
@@ -12559,7 +12559,7 @@
         <v>63.090909090909079</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="81" t="s">
         <v>232</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="81" t="s">
         <v>235</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="81" t="s">
         <v>237</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="81" t="s">
         <v>239</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>1.3636363636363638</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="81" t="s">
         <v>241</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="81" t="s">
         <v>243</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>0.90909090909090917</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="81" t="s">
         <v>246</v>
       </c>
@@ -12788,7 +12788,7 @@
       <c r="I20" s="87"/>
       <c r="J20" s="88"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="81" t="s">
         <v>248</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="81" t="s">
         <v>250</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>3.1818181818181817</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="81" t="s">
         <v>252</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="81" t="s">
         <v>255</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="81" t="s">
         <v>258</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="81" t="s">
         <v>260</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="81" t="s">
         <v>262</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>4.545454545454545</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="81" t="s">
         <v>265</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="81" t="s">
         <v>267</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>3.1818181818181817</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="81" t="s">
         <v>270</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="81" t="s">
         <v>273</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="81" t="s">
         <v>275</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>2.3636363636363633</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="81" t="s">
         <v>277</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="81" t="s">
         <v>279</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="81" t="s">
         <v>281</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="81" t="s">
         <v>283</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>5.454545454545455</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="81" t="s">
         <v>285</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>7.2727272727272734</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="81" t="s">
         <v>287</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>5.454545454545455</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="81" t="s">
         <v>289</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>3.1818181818181817</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="81" t="s">
         <v>292</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="81" t="s">
         <v>294</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>8.1818181818181817</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="81" t="s">
         <v>296</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="81" t="s">
         <v>299</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="81" t="s">
         <v>301</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="81" t="s">
         <v>304</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="81" t="s">
         <v>306</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="81" t="s">
         <v>308</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="81" t="s">
         <v>310</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="81" t="s">
         <v>312</v>
       </c>
@@ -13711,12 +13711,6 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -13728,6 +13722,12 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
@@ -13755,47 +13755,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="13" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.625" style="66" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="66"/>
+    <col min="2" max="2" width="15.109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" style="66" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="270" t="s">
+    <row r="1" spans="1:10" ht="23.25">
+      <c r="A1" s="265" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-    </row>
-    <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="271" t="s">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+    </row>
+    <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
+      <c r="A2" s="266" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="67"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -13807,23 +13807,23 @@
       <c r="I3" s="67"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="1:10" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="272" t="s">
+    <row r="4" spans="1:10" ht="20.85" customHeight="1">
+      <c r="A4" s="267" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="272"/>
+      <c r="B4" s="267"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="272" t="s">
+      <c r="D4" s="267" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="267"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="267"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="68" t="s">
         <v>214</v>
       </c>
@@ -13831,20 +13831,20 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="265" t="s">
+      <c r="D5" s="264" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="71" t="s">
         <v>217</v>
       </c>
@@ -13852,20 +13852,20 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="265" t="s">
+      <c r="D6" s="264" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
+      <c r="E6" s="264"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="264"/>
+      <c r="H6" s="264"/>
+      <c r="I6" s="264"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="71" t="s">
         <v>219</v>
       </c>
@@ -13873,20 +13873,20 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="265" t="s">
+      <c r="D7" s="264" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="265"/>
-      <c r="G7" s="265"/>
-      <c r="H7" s="265"/>
-      <c r="I7" s="265"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="264"/>
+      <c r="H7" s="264"/>
+      <c r="I7" s="264"/>
       <c r="J7" s="73">
         <f>I13</f>
         <v>660</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="20.25" customHeight="1">
       <c r="A8" s="71" t="s">
         <v>221</v>
       </c>
@@ -13894,20 +13894,20 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="265" t="s">
+      <c r="D8" s="264" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="265"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18.75">
       <c r="A9" s="75" t="s">
         <v>65</v>
       </c>
@@ -13916,20 +13916,20 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="266" t="s">
+      <c r="D9" s="269" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="266"/>
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
       <c r="J9" s="77">
         <f>J13</f>
         <v>60.000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="67"/>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -13941,38 +13941,38 @@
       <c r="I10" s="67"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="267" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
+      <c r="A11" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="267" t="s">
+      <c r="B11" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="267" t="s">
+      <c r="C11" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="268" t="s">
+      <c r="D11" s="271" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="269" t="s">
+      <c r="E11" s="272" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="268" t="s">
+      <c r="F11" s="271" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="268"/>
-      <c r="H11" s="268"/>
-      <c r="I11" s="269" t="s">
+      <c r="G11" s="271"/>
+      <c r="H11" s="271"/>
+      <c r="I11" s="272" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="269"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="267"/>
-      <c r="B12" s="267"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="268"/>
-      <c r="E12" s="268"/>
+      <c r="J11" s="272"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25">
+      <c r="A12" s="270"/>
+      <c r="B12" s="270"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="271"/>
+      <c r="E12" s="271"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -13989,15 +13989,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="264"/>
-      <c r="B13" s="264"/>
-      <c r="C13" s="264"/>
-      <c r="D13" s="264"/>
-      <c r="E13" s="264"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="264"/>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="A13" s="268"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="268"/>
       <c r="I13" s="80">
         <f>SUM(I14:I48)</f>
         <v>660</v>
@@ -14007,7 +14007,7 @@
         <v>60.000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="31.5">
       <c r="A14" s="81" t="s">
         <v>316</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>5.454545454545455</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="31.5">
       <c r="A15" s="81" t="s">
         <v>320</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="81" t="s">
         <v>322</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>4.545454545454545</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="81" t="s">
         <v>325</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="81" t="s">
         <v>327</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>2.2727272727272725</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="81" t="s">
         <v>329</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>2.2727272727272725</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="81" t="s">
         <v>331</v>
       </c>
@@ -14218,9 +14218,7 @@
       <c r="D20" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="E20" s="84">
-        <v>1</v>
-      </c>
+      <c r="E20" s="84"/>
       <c r="F20" s="85">
         <v>2</v>
       </c>
@@ -14231,15 +14229,13 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I20" s="87">
-        <v>20</v>
-      </c>
+      <c r="I20" s="87"/>
       <c r="J20" s="88">
         <f t="shared" si="1"/>
-        <v>1.8181818181818183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="81" t="s">
         <v>333</v>
       </c>
@@ -14271,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="81" t="s">
         <v>336</v>
       </c>
@@ -14305,7 +14301,7 @@
         <v>3.6363636363636367</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="81" t="s">
         <v>338</v>
       </c>
@@ -14339,7 +14335,7 @@
         <v>3.6363636363636367</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="81" t="s">
         <v>340</v>
       </c>
@@ -14371,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="81" t="s">
         <v>342</v>
       </c>
@@ -14403,7 +14399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="81" t="s">
         <v>344</v>
       </c>
@@ -14437,7 +14433,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="31.5">
       <c r="A27" s="81" t="s">
         <v>346</v>
       </c>
@@ -14463,13 +14459,15 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I27" s="87"/>
+      <c r="I27" s="87">
+        <v>20</v>
+      </c>
       <c r="J27" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.8181818181818183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="81" t="s">
         <v>349</v>
       </c>
@@ -14503,7 +14501,7 @@
         <v>3.6363636363636367</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="81" t="s">
         <v>351</v>
       </c>
@@ -14537,7 +14535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="81" t="s">
         <v>353</v>
       </c>
@@ -14571,7 +14569,7 @@
         <v>5.9090909090909092</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="81" t="s">
         <v>355</v>
       </c>
@@ -14603,7 +14601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="81" t="s">
         <v>358</v>
       </c>
@@ -14637,7 +14635,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="81" t="s">
         <v>360</v>
       </c>
@@ -14669,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="81" t="s">
         <v>362</v>
       </c>
@@ -14703,7 +14701,7 @@
         <v>2.7272727272727275</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="81" t="s">
         <v>364</v>
       </c>
@@ -14735,7 +14733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="81" t="s">
         <v>366</v>
       </c>
@@ -14767,7 +14765,7 @@
         <v>0.90909090909090917</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="81" t="s">
         <v>370</v>
       </c>
@@ -14799,7 +14797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="81" t="s">
         <v>372</v>
       </c>
@@ -14833,7 +14831,7 @@
         <v>3.6363636363636367</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75">
       <c r="A39" s="81" t="s">
         <v>375</v>
       </c>
@@ -14867,7 +14865,7 @@
         <v>2.2727272727272725</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75">
       <c r="A40" s="81" t="s">
         <v>377</v>
       </c>
@@ -14901,7 +14899,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="31.5">
       <c r="A41" s="81" t="s">
         <v>380</v>
       </c>
@@ -14935,7 +14933,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="31.5">
       <c r="A42" s="81" t="s">
         <v>382</v>
       </c>
@@ -14965,7 +14963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="81" t="s">
         <v>384</v>
       </c>
@@ -14999,7 +14997,7 @@
         <v>1.8181818181818183</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="81" t="s">
         <v>386</v>
       </c>
@@ -15031,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="81" t="s">
         <v>388</v>
       </c>
@@ -15063,7 +15061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="81" t="s">
         <v>391</v>
       </c>
@@ -15093,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="81" t="s">
         <v>393</v>
       </c>
@@ -15123,7 +15121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="81" t="s">
         <v>395</v>
       </c>
@@ -15158,6 +15156,12 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -15169,12 +15173,6 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
@@ -15206,14 +15204,14 @@
       <selection sqref="A1:O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>492</v>
       </c>
@@ -15231,7 +15229,7 @@
       <c r="N2" s="235"/>
       <c r="O2" s="236"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="237" t="s">
         <v>493</v>
       </c>
@@ -15249,7 +15247,7 @@
       <c r="N3" s="238"/>
       <c r="O3" s="239"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="15.75">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -15267,7 +15265,7 @@
       <c r="N4" s="241"/>
       <c r="O4" s="242"/>
     </row>
-    <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
@@ -15285,8 +15283,8 @@
       <c r="N5" s="244"/>
       <c r="O5" s="245"/>
     </row>
-    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:15" ht="20.25">
       <c r="B7" s="3" t="s">
         <v>495</v>
       </c>
@@ -15304,7 +15302,7 @@
       <c r="N7" s="185"/>
       <c r="O7" s="186"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -15324,7 +15322,7 @@
       <c r="N8" s="188"/>
       <c r="O8" s="189"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -15352,7 +15350,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -15380,7 +15378,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -15407,7 +15405,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1">
       <c r="E12" s="190"/>
       <c r="F12" s="191"/>
       <c r="G12" s="191"/>
@@ -15426,7 +15424,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="15.75" thickBot="1">
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
@@ -15439,7 +15437,7 @@
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
     </row>
-    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="20.25">
       <c r="B14" s="6" t="s">
         <v>507</v>
       </c>
@@ -15457,7 +15455,7 @@
       <c r="N14" s="185"/>
       <c r="O14" s="186"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -15478,7 +15476,7 @@
       <c r="N15" s="188"/>
       <c r="O15" s="189"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -15507,7 +15505,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -15538,7 +15536,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="5"/>
       <c r="C18" s="193"/>
       <c r="D18" s="193"/>
@@ -15560,7 +15558,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -15582,7 +15580,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -15604,7 +15602,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="15.75" thickBot="1">
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
@@ -15617,7 +15615,7 @@
       <c r="N21" s="63"/>
       <c r="O21" s="63"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="E22" s="184" t="s">
         <v>513</v>
       </c>
@@ -15632,7 +15630,7 @@
       <c r="N22" s="185"/>
       <c r="O22" s="186"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="E23" s="187"/>
       <c r="F23" s="188"/>
       <c r="G23" s="188"/>
@@ -15645,7 +15643,7 @@
       <c r="N23" s="188"/>
       <c r="O23" s="189"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="E24" s="187" t="s">
         <v>7</v>
       </c>
@@ -15666,7 +15664,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="E25" s="187" t="s">
         <v>498</v>
       </c>
@@ -15689,7 +15687,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="E26" s="187"/>
       <c r="F26" s="188"/>
       <c r="G26" s="188" t="s">
@@ -15710,7 +15708,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="E27" s="187"/>
       <c r="F27" s="188"/>
       <c r="G27" s="188"/>
@@ -15729,7 +15727,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="E28" s="187"/>
       <c r="F28" s="188"/>
       <c r="G28" s="188"/>
@@ -15748,7 +15746,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="15.75" thickBot="1">
       <c r="E29" s="190"/>
       <c r="F29" s="191"/>
       <c r="G29" s="191"/>
@@ -15767,7 +15765,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="15.75" thickBot="1">
       <c r="E30" s="63"/>
       <c r="F30" s="63"/>
       <c r="G30" s="63"/>
@@ -15780,7 +15778,7 @@
       <c r="N30" s="63"/>
       <c r="O30" s="63"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="E31" s="184" t="s">
         <v>518</v>
       </c>
@@ -15795,7 +15793,7 @@
       <c r="N31" s="185"/>
       <c r="O31" s="186"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="E32" s="187"/>
       <c r="F32" s="188"/>
       <c r="G32" s="188"/>
@@ -15808,7 +15806,7 @@
       <c r="N32" s="188"/>
       <c r="O32" s="189"/>
     </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:15">
       <c r="E33" s="187" t="s">
         <v>7</v>
       </c>
@@ -15829,7 +15827,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:15">
       <c r="E34" s="187" t="s">
         <v>498</v>
       </c>
@@ -15852,7 +15850,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:15">
       <c r="E35" s="187"/>
       <c r="F35" s="188"/>
       <c r="G35" s="188" t="s">
@@ -15873,7 +15871,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:15">
       <c r="E36" s="187"/>
       <c r="F36" s="188"/>
       <c r="G36" s="188"/>
@@ -15892,7 +15890,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:15">
       <c r="E37" s="187"/>
       <c r="F37" s="188"/>
       <c r="G37" s="188"/>
@@ -15911,7 +15909,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:15">
       <c r="E38" s="187"/>
       <c r="F38" s="188"/>
       <c r="G38" s="188"/>
@@ -15930,7 +15928,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:15" ht="15.75" thickBot="1">
       <c r="E39" s="190"/>
       <c r="F39" s="191"/>
       <c r="G39" s="191"/>
@@ -15949,7 +15947,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:15" ht="15.75" thickBot="1">
       <c r="E40" s="63"/>
       <c r="F40" s="63"/>
       <c r="G40" s="63"/>
@@ -15962,7 +15960,7 @@
       <c r="N40" s="63"/>
       <c r="O40" s="63"/>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:15">
       <c r="E41" s="184" t="s">
         <v>524</v>
       </c>
@@ -15977,7 +15975,7 @@
       <c r="N41" s="185"/>
       <c r="O41" s="186"/>
     </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:15">
       <c r="E42" s="187"/>
       <c r="F42" s="188"/>
       <c r="G42" s="188"/>
@@ -15990,7 +15988,7 @@
       <c r="N42" s="188"/>
       <c r="O42" s="189"/>
     </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:15">
       <c r="E43" s="187" t="s">
         <v>7</v>
       </c>
@@ -16011,7 +16009,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:15">
       <c r="E44" s="187" t="s">
         <v>498</v>
       </c>
@@ -16034,7 +16032,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:15">
       <c r="E45" s="187"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188" t="s">
@@ -16055,7 +16053,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:15">
       <c r="E46" s="187"/>
       <c r="F46" s="188"/>
       <c r="G46" s="188"/>
@@ -16074,7 +16072,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:15">
       <c r="E47" s="187"/>
       <c r="F47" s="188"/>
       <c r="G47" s="188"/>
@@ -16093,7 +16091,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:15">
       <c r="E48" s="187"/>
       <c r="F48" s="188"/>
       <c r="G48" s="188"/>
@@ -16112,7 +16110,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:15">
       <c r="E49" s="187"/>
       <c r="F49" s="188"/>
       <c r="G49" s="188"/>
@@ -16131,7 +16129,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:15" ht="15.75" thickBot="1">
       <c r="E50" s="190"/>
       <c r="F50" s="191"/>
       <c r="G50" s="191"/>
@@ -16150,7 +16148,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="51" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:15" ht="15.75" thickBot="1">
       <c r="E51" s="63"/>
       <c r="F51" s="63"/>
       <c r="G51" s="63"/>
@@ -16163,7 +16161,7 @@
       <c r="N51" s="63"/>
       <c r="O51" s="63"/>
     </row>
-    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:15">
       <c r="E52" s="184" t="s">
         <v>528</v>
       </c>
@@ -16178,7 +16176,7 @@
       <c r="N52" s="185"/>
       <c r="O52" s="186"/>
     </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:15">
       <c r="E53" s="187"/>
       <c r="F53" s="188"/>
       <c r="G53" s="188"/>
@@ -16191,7 +16189,7 @@
       <c r="N53" s="188"/>
       <c r="O53" s="189"/>
     </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:15">
       <c r="E54" s="187" t="s">
         <v>7</v>
       </c>
@@ -16212,7 +16210,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:15">
       <c r="E55" s="187" t="s">
         <v>498</v>
       </c>
@@ -16235,7 +16233,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:15">
       <c r="E56" s="187"/>
       <c r="F56" s="188"/>
       <c r="G56" s="188" t="s">
@@ -16256,7 +16254,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:15">
       <c r="E57" s="187"/>
       <c r="F57" s="188"/>
       <c r="G57" s="188"/>
@@ -16275,7 +16273,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:15">
       <c r="E58" s="187"/>
       <c r="F58" s="188"/>
       <c r="G58" s="188"/>
@@ -16294,7 +16292,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:15">
       <c r="E59" s="187"/>
       <c r="F59" s="188"/>
       <c r="G59" s="188"/>
@@ -16313,7 +16311,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:15">
       <c r="E60" s="187"/>
       <c r="F60" s="188"/>
       <c r="G60" s="188"/>
@@ -16332,7 +16330,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:15">
       <c r="E61" s="187"/>
       <c r="F61" s="188"/>
       <c r="G61" s="188"/>
@@ -16351,7 +16349,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="62" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:15" ht="15.75" thickBot="1">
       <c r="E62" s="190"/>
       <c r="F62" s="191"/>
       <c r="G62" s="191"/>
@@ -16426,10 +16424,10 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>492</v>
       </c>
@@ -16447,7 +16445,7 @@
       <c r="N2" s="235"/>
       <c r="O2" s="236"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="237" t="s">
         <v>493</v>
       </c>
@@ -16465,7 +16463,7 @@
       <c r="N3" s="238"/>
       <c r="O3" s="239"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="15.75">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -16483,7 +16481,7 @@
       <c r="N4" s="241"/>
       <c r="O4" s="242"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="15.75" thickBot="1">
       <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
@@ -16501,8 +16499,8 @@
       <c r="N5" s="244"/>
       <c r="O5" s="245"/>
     </row>
-    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:15" ht="20.25">
       <c r="B7" s="3" t="s">
         <v>495</v>
       </c>
@@ -16520,7 +16518,7 @@
       <c r="N7" s="185"/>
       <c r="O7" s="186"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -16540,7 +16538,7 @@
       <c r="N8" s="188"/>
       <c r="O8" s="189"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -16568,7 +16566,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -16596,7 +16594,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -16623,7 +16621,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1">
       <c r="E12" s="190"/>
       <c r="F12" s="191"/>
       <c r="G12" s="191"/>
@@ -16642,7 +16640,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="15.75" thickBot="1">
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
@@ -16655,7 +16653,7 @@
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
     </row>
-    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="20.25">
       <c r="B14" s="6" t="s">
         <v>507</v>
       </c>
@@ -16673,7 +16671,7 @@
       <c r="N14" s="185"/>
       <c r="O14" s="186"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -16694,7 +16692,7 @@
       <c r="N15" s="188"/>
       <c r="O15" s="189"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -16723,7 +16721,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -16754,7 +16752,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="5"/>
       <c r="C18" s="193"/>
       <c r="D18" s="193"/>
@@ -16776,7 +16774,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -16798,7 +16796,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -16820,7 +16818,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="15.75" thickBot="1">
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
       <c r="G21" s="63"/>
@@ -16833,7 +16831,7 @@
       <c r="N21" s="63"/>
       <c r="O21" s="63"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="E22" s="184" t="s">
         <v>513</v>
       </c>
@@ -16848,7 +16846,7 @@
       <c r="N22" s="185"/>
       <c r="O22" s="186"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="E23" s="187"/>
       <c r="F23" s="188"/>
       <c r="G23" s="188"/>
@@ -16861,7 +16859,7 @@
       <c r="N23" s="188"/>
       <c r="O23" s="189"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="E24" s="187" t="s">
         <v>7</v>
       </c>
@@ -16882,7 +16880,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="E25" s="187" t="s">
         <v>498</v>
       </c>
@@ -16907,7 +16905,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="E26" s="187" t="s">
         <v>501</v>
       </c>
@@ -16930,7 +16928,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="E27" s="187"/>
       <c r="F27" s="188"/>
       <c r="G27" s="188"/>
@@ -16949,7 +16947,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="E28" s="187"/>
       <c r="F28" s="188"/>
       <c r="G28" s="188"/>
@@ -16968,7 +16966,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" ht="15.75" thickBot="1">
       <c r="E29" s="190"/>
       <c r="F29" s="191"/>
       <c r="G29" s="191"/>
@@ -16987,7 +16985,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="15.75" thickBot="1">
       <c r="E30" s="63"/>
       <c r="F30" s="63"/>
       <c r="G30" s="63"/>
@@ -17000,7 +16998,7 @@
       <c r="N30" s="63"/>
       <c r="O30" s="63"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="E31" s="184" t="s">
         <v>518</v>
       </c>
@@ -17015,7 +17013,7 @@
       <c r="N31" s="185"/>
       <c r="O31" s="186"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="E32" s="187"/>
       <c r="F32" s="188"/>
       <c r="G32" s="188"/>
@@ -17028,7 +17026,7 @@
       <c r="N32" s="188"/>
       <c r="O32" s="189"/>
     </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:15">
       <c r="E33" s="187" t="s">
         <v>7</v>
       </c>
@@ -17049,7 +17047,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:15">
       <c r="E34" s="187" t="s">
         <v>498</v>
       </c>
@@ -17072,7 +17070,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:15">
       <c r="E35" s="187"/>
       <c r="F35" s="188"/>
       <c r="G35" s="188" t="s">
@@ -17093,7 +17091,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:15">
       <c r="E36" s="187"/>
       <c r="F36" s="188"/>
       <c r="G36" s="188"/>
@@ -17112,7 +17110,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:15">
       <c r="E37" s="187"/>
       <c r="F37" s="188"/>
       <c r="G37" s="188"/>
@@ -17131,7 +17129,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:15">
       <c r="E38" s="187"/>
       <c r="F38" s="188"/>
       <c r="G38" s="188"/>
@@ -17150,7 +17148,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:15" ht="15.75" thickBot="1">
       <c r="E39" s="190"/>
       <c r="F39" s="191"/>
       <c r="G39" s="191"/>
@@ -17169,7 +17167,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="40" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:15" ht="15.75" thickBot="1">
       <c r="E40" s="63"/>
       <c r="F40" s="63"/>
       <c r="G40" s="63"/>
@@ -17182,7 +17180,7 @@
       <c r="N40" s="63"/>
       <c r="O40" s="63"/>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:15">
       <c r="E41" s="184" t="s">
         <v>524</v>
       </c>
@@ -17197,7 +17195,7 @@
       <c r="N41" s="185"/>
       <c r="O41" s="186"/>
     </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:15">
       <c r="E42" s="187"/>
       <c r="F42" s="188"/>
       <c r="G42" s="188"/>
@@ -17210,7 +17208,7 @@
       <c r="N42" s="188"/>
       <c r="O42" s="189"/>
     </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:15">
       <c r="E43" s="187" t="s">
         <v>7</v>
       </c>
@@ -17231,7 +17229,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:15">
       <c r="E44" s="187" t="s">
         <v>498</v>
       </c>
@@ -17254,7 +17252,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:15">
       <c r="E45" s="187"/>
       <c r="F45" s="188"/>
       <c r="G45" s="188" t="s">
@@ -17275,7 +17273,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:15">
       <c r="E46" s="187"/>
       <c r="F46" s="188"/>
       <c r="G46" s="188"/>
@@ -17294,7 +17292,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:15">
       <c r="E47" s="187"/>
       <c r="F47" s="188"/>
       <c r="G47" s="188"/>
@@ -17313,7 +17311,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:15">
       <c r="E48" s="187"/>
       <c r="F48" s="188"/>
       <c r="G48" s="188"/>
@@ -17332,7 +17330,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:15">
       <c r="E49" s="187"/>
       <c r="F49" s="188"/>
       <c r="G49" s="188"/>
@@ -17351,7 +17349,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="50" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:15" ht="15.75" thickBot="1">
       <c r="E50" s="190"/>
       <c r="F50" s="191"/>
       <c r="G50" s="191"/>
@@ -17370,7 +17368,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="51" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:15" ht="15.75" thickBot="1">
       <c r="E51" s="63"/>
       <c r="F51" s="63"/>
       <c r="G51" s="63"/>
@@ -17383,7 +17381,7 @@
       <c r="N51" s="63"/>
       <c r="O51" s="63"/>
     </row>
-    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:15">
       <c r="E52" s="184" t="s">
         <v>528</v>
       </c>
@@ -17398,7 +17396,7 @@
       <c r="N52" s="185"/>
       <c r="O52" s="186"/>
     </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:15">
       <c r="E53" s="187"/>
       <c r="F53" s="188"/>
       <c r="G53" s="188"/>
@@ -17411,7 +17409,7 @@
       <c r="N53" s="188"/>
       <c r="O53" s="189"/>
     </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:15">
       <c r="E54" s="187" t="s">
         <v>7</v>
       </c>
@@ -17432,7 +17430,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:15">
       <c r="E55" s="187" t="s">
         <v>498</v>
       </c>
@@ -17455,7 +17453,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:15">
       <c r="E56" s="187"/>
       <c r="F56" s="188"/>
       <c r="G56" s="188" t="s">
@@ -17476,7 +17474,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:15">
       <c r="E57" s="187"/>
       <c r="F57" s="188"/>
       <c r="G57" s="188"/>
@@ -17495,7 +17493,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:15">
       <c r="E58" s="187"/>
       <c r="F58" s="188"/>
       <c r="G58" s="188"/>
@@ -17514,7 +17512,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:15">
       <c r="E59" s="187"/>
       <c r="F59" s="188"/>
       <c r="G59" s="188"/>
@@ -17533,7 +17531,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:15">
       <c r="E60" s="187"/>
       <c r="F60" s="188"/>
       <c r="G60" s="188"/>
@@ -17552,7 +17550,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:15">
       <c r="E61" s="187"/>
       <c r="F61" s="188"/>
       <c r="G61" s="188"/>
@@ -17571,7 +17569,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="62" spans="5:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:15" ht="15.75" thickBot="1">
       <c r="E62" s="190"/>
       <c r="F62" s="191"/>
       <c r="G62" s="191"/>
@@ -17639,19 +17637,19 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="55.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>434</v>
       </c>
@@ -17669,7 +17667,7 @@
       <c r="N2" s="113"/>
       <c r="O2" s="113"/>
     </row>
-    <row r="3" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="33.950000000000003" customHeight="1">
       <c r="B3" s="237" t="s">
         <v>435</v>
       </c>
@@ -17687,7 +17685,7 @@
       <c r="N3" s="114"/>
       <c r="O3" s="114"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="15.75">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -17705,7 +17703,7 @@
       <c r="N4" s="114"/>
       <c r="O4" s="114"/>
     </row>
-    <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="33.950000000000003" customHeight="1" thickBot="1">
       <c r="B5" s="243" t="s">
         <v>436</v>
       </c>
@@ -17723,12 +17721,12 @@
       <c r="N5" s="114"/>
       <c r="O5" s="114"/>
     </row>
-    <row r="7" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="20.25">
       <c r="B7" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -17736,7 +17734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="15.75" thickBot="1">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -17762,7 +17760,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="15" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -17793,7 +17791,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -17821,7 +17819,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="E12" s="274"/>
       <c r="F12" s="278"/>
       <c r="G12" s="1" t="s">
@@ -17842,7 +17840,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="1" t="s">
         <v>447</v>
       </c>
@@ -17869,7 +17867,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="1" t="s">
         <v>449</v>
       </c>
@@ -17898,7 +17896,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="15" customHeight="1">
       <c r="B15" s="121" t="s">
         <v>452</v>
       </c>
@@ -17925,7 +17923,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="15.75" thickBot="1">
       <c r="B16" s="121" t="s">
         <v>454</v>
       </c>
@@ -17954,12 +17952,12 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11">
       <c r="B17" s="129"/>
       <c r="C17" s="5"/>
       <c r="E17" s="130"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="G18" s="131" t="s">
         <v>457</v>
       </c>
@@ -17972,12 +17970,12 @@
         <v>13.333333333333332</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="20.25">
       <c r="B19" s="6" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="15.75" thickBot="1">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -17988,7 +17986,7 @@
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
@@ -18018,7 +18016,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -18034,7 +18032,7 @@
       <c r="J22" s="123"/>
       <c r="K22" s="124"/>
     </row>
-    <row r="23" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="15.75" thickBot="1">
       <c r="B23" s="121" t="s">
         <v>461</v>
       </c>
@@ -18050,7 +18048,7 @@
       <c r="J23" s="127"/>
       <c r="K23" s="128"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="121" t="s">
         <v>462</v>
       </c>
@@ -18070,8 +18068,8 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="15.75" thickBot="1"/>
+    <row r="26" spans="2:11">
       <c r="E26" s="273" t="s">
         <v>464</v>
       </c>
@@ -18094,7 +18092,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="E27" s="274"/>
       <c r="F27" s="138"/>
       <c r="G27" s="1" t="s">
@@ -18115,7 +18113,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="276" t="s">
         <v>467</v>
       </c>
@@ -18127,7 +18125,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="139"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11">
       <c r="B29" s="276"/>
       <c r="E29" s="274"/>
       <c r="F29" s="136"/>
@@ -18137,7 +18135,7 @@
       <c r="J29" s="123"/>
       <c r="K29" s="124"/>
     </row>
-    <row r="30" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="15.75" thickBot="1">
       <c r="B30" s="276"/>
       <c r="E30" s="275"/>
       <c r="F30" s="125"/>
@@ -18157,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31" s="276"/>
       <c r="G31" s="131" t="s">
         <v>470</v>
@@ -18171,13 +18169,13 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="B32" s="276"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11">
       <c r="B33" s="276"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11">
       <c r="B34" s="276"/>
       <c r="G34" s="29" t="s">
         <v>42</v>
@@ -18195,7 +18193,7 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11">
       <c r="B35" s="276"/>
     </row>
   </sheetData>
@@ -18240,14 +18238,14 @@
       <selection sqref="A1:Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15" ht="23.25">
       <c r="B2" s="234" t="s">
         <v>532</v>
       </c>
@@ -18265,7 +18263,7 @@
       <c r="N2" s="235"/>
       <c r="O2" s="236"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="237"/>
       <c r="C3" s="238"/>
       <c r="D3" s="238"/>
@@ -18281,7 +18279,7 @@
       <c r="N3" s="238"/>
       <c r="O3" s="239"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="15.75">
       <c r="B4" s="240" t="s">
         <v>37</v>
       </c>
@@ -18299,7 +18297,7 @@
       <c r="N4" s="241"/>
       <c r="O4" s="242"/>
     </row>
-    <row r="5" spans="2:15" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="38.1" customHeight="1" thickBot="1">
       <c r="B5" s="243" t="s">
         <v>494</v>
       </c>
@@ -18317,8 +18315,8 @@
       <c r="N5" s="244"/>
       <c r="O5" s="245"/>
     </row>
-    <row r="6" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:15" ht="21" thickBot="1">
       <c r="B7" s="3" t="s">
         <v>533</v>
       </c>
@@ -18336,7 +18334,7 @@
       <c r="N7" s="198"/>
       <c r="O7" s="199"/>
     </row>
-    <row r="8" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="15.75" thickBot="1">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -18356,7 +18354,7 @@
       <c r="N8" s="63"/>
       <c r="O8" s="63"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
@@ -18378,7 +18376,7 @@
       <c r="N9" s="185"/>
       <c r="O9" s="186"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
@@ -18398,7 +18396,7 @@
       <c r="N10" s="188"/>
       <c r="O10" s="189"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
@@ -18427,7 +18425,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="E12" s="187"/>
       <c r="F12" s="188"/>
       <c r="G12" s="188"/>
@@ -18446,7 +18444,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="E13" s="187"/>
       <c r="F13" s="188"/>
       <c r="G13" s="188"/>
@@ -18465,7 +18463,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" ht="20.25">
       <c r="B14" s="6" t="s">
         <v>540</v>
       </c>
@@ -18487,7 +18485,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -18514,7 +18512,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -18541,7 +18539,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
@@ -18568,7 +18566,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -18584,7 +18582,7 @@
       <c r="N18" s="188"/>
       <c r="O18" s="189"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -18602,7 +18600,7 @@
       <c r="N19" s="188"/>
       <c r="O19" s="189"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -18618,7 +18616,7 @@
       <c r="N20" s="188"/>
       <c r="O20" s="189"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -18640,7 +18638,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -18662,7 +18660,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -18684,7 +18682,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -18706,7 +18704,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -18722,7 +18720,7 @@
       <c r="N25" s="188"/>
       <c r="O25" s="189"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -18740,7 +18738,7 @@
       <c r="N26" s="188"/>
       <c r="O26" s="189"/>
     </row>
-    <row r="27" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" ht="15.75" thickBot="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -18762,7 +18760,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -18778,7 +18776,7 @@
       <c r="N28" s="63"/>
       <c r="O28" s="63"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15">
       <c r="B29" s="5"/>
       <c r="C29" s="193"/>
       <c r="D29" s="193"/>
@@ -18794,7 +18792,7 @@
       <c r="N29" s="200"/>
       <c r="O29" s="200"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -18810,7 +18808,7 @@
       <c r="N30" s="200"/>
       <c r="O30" s="200"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -18826,7 +18824,7 @@
       <c r="N31" s="200"/>
       <c r="O31" s="200"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -18842,7 +18840,7 @@
       <c r="N32" s="200"/>
       <c r="O32" s="200"/>
     </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:15">
       <c r="E33" s="129"/>
       <c r="F33" s="129"/>
       <c r="G33" s="129"/>
@@ -18855,7 +18853,7 @@
       <c r="N33" s="200"/>
       <c r="O33" s="200"/>
     </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:15">
       <c r="E34" s="200"/>
       <c r="F34" s="200"/>
       <c r="G34" s="200"/>
@@ -18868,7 +18866,7 @@
       <c r="N34" s="200"/>
       <c r="O34" s="200"/>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:15">
       <c r="E35" s="200"/>
       <c r="F35" s="200"/>
       <c r="G35" s="200"/>
@@ -18881,7 +18879,7 @@
       <c r="N35" s="200"/>
       <c r="O35" s="201"/>
     </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:15">
       <c r="E36" s="200"/>
       <c r="F36" s="200"/>
       <c r="G36" s="200"/>
@@ -18894,7 +18892,7 @@
       <c r="N36" s="200"/>
       <c r="O36" s="201"/>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:15">
       <c r="E37" s="200"/>
       <c r="F37" s="200"/>
       <c r="G37" s="200"/>
@@ -18907,7 +18905,7 @@
       <c r="N37" s="200"/>
       <c r="O37" s="201"/>
     </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:15">
       <c r="E38" s="200"/>
       <c r="F38" s="200"/>
       <c r="G38" s="200"/>
@@ -18920,7 +18918,7 @@
       <c r="N38" s="200"/>
       <c r="O38" s="201"/>
     </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:15">
       <c r="E39" s="200"/>
       <c r="F39" s="200"/>
       <c r="G39" s="200"/>
@@ -18933,7 +18931,7 @@
       <c r="N39" s="200"/>
       <c r="O39" s="200"/>
     </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:15">
       <c r="E40" s="200"/>
       <c r="F40" s="200"/>
       <c r="G40" s="200"/>
@@ -18946,7 +18944,7 @@
       <c r="N40" s="200"/>
       <c r="O40" s="200"/>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:15">
       <c r="E41" s="200"/>
       <c r="F41" s="200"/>
       <c r="G41" s="200"/>
@@ -18959,7 +18957,7 @@
       <c r="N41" s="200"/>
       <c r="O41" s="200"/>
     </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:15">
       <c r="E42" s="200"/>
       <c r="F42" s="200"/>
       <c r="G42" s="200"/>
@@ -18972,7 +18970,7 @@
       <c r="N42" s="200"/>
       <c r="O42" s="200"/>
     </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:15">
       <c r="E43" s="129"/>
       <c r="F43" s="129"/>
       <c r="G43" s="129"/>
@@ -18985,7 +18983,7 @@
       <c r="N43" s="129"/>
       <c r="O43" s="129"/>
     </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:15">
       <c r="E44" s="129"/>
       <c r="F44" s="129"/>
       <c r="G44" s="129"/>
@@ -18998,7 +18996,7 @@
       <c r="N44" s="129"/>
       <c r="O44" s="129"/>
     </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:15">
       <c r="E45" s="129"/>
       <c r="F45" s="129"/>
       <c r="G45" s="129"/>
@@ -19011,7 +19009,7 @@
       <c r="N45" s="129"/>
       <c r="O45" s="129"/>
     </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:15">
       <c r="E46" s="129"/>
       <c r="F46" s="129"/>
       <c r="G46" s="129"/>
@@ -19024,7 +19022,7 @@
       <c r="N46" s="129"/>
       <c r="O46" s="202"/>
     </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:15">
       <c r="E47" s="129"/>
       <c r="F47" s="129"/>
       <c r="G47" s="129"/>
@@ -19037,7 +19035,7 @@
       <c r="N47" s="129"/>
       <c r="O47" s="129"/>
     </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:15">
       <c r="E48" s="129"/>
       <c r="F48" s="129"/>
       <c r="G48" s="129"/>
@@ -19050,7 +19048,7 @@
       <c r="N48" s="129"/>
       <c r="O48" s="129"/>
     </row>
-    <row r="49" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:15">
       <c r="E49" s="129"/>
       <c r="F49" s="129"/>
       <c r="G49" s="129"/>
@@ -19063,7 +19061,7 @@
       <c r="N49" s="129"/>
       <c r="O49" s="129"/>
     </row>
-    <row r="50" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:15">
       <c r="E50" s="129"/>
       <c r="F50" s="129"/>
       <c r="G50" s="129"/>
@@ -19076,7 +19074,7 @@
       <c r="N50" s="129"/>
       <c r="O50" s="129"/>
     </row>
-    <row r="51" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:15">
       <c r="E51" s="129"/>
       <c r="F51" s="129"/>
       <c r="G51" s="129"/>
@@ -19089,7 +19087,7 @@
       <c r="N51" s="129"/>
       <c r="O51" s="129"/>
     </row>
-    <row r="52" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:15">
       <c r="E52" s="129"/>
       <c r="F52" s="129"/>
       <c r="G52" s="129"/>
@@ -19102,7 +19100,7 @@
       <c r="N52" s="129"/>
       <c r="O52" s="129"/>
     </row>
-    <row r="53" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:15">
       <c r="E53" s="129"/>
       <c r="F53" s="129"/>
       <c r="G53" s="129"/>
@@ -19115,7 +19113,7 @@
       <c r="N53" s="129"/>
       <c r="O53" s="129"/>
     </row>
-    <row r="54" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:15">
       <c r="E54" s="129"/>
       <c r="F54" s="129"/>
       <c r="G54" s="129"/>
@@ -19128,7 +19126,7 @@
       <c r="N54" s="129"/>
       <c r="O54" s="129"/>
     </row>
-    <row r="55" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:15">
       <c r="E55" s="200"/>
       <c r="F55" s="200"/>
       <c r="G55" s="200"/>
@@ -19141,7 +19139,7 @@
       <c r="N55" s="200"/>
       <c r="O55" s="200"/>
     </row>
-    <row r="56" spans="5:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:15" ht="20.25">
       <c r="E56" s="203"/>
       <c r="F56" s="203"/>
       <c r="G56" s="203"/>
@@ -19154,7 +19152,7 @@
       <c r="N56" s="203"/>
       <c r="O56" s="203"/>
     </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:15">
       <c r="E57" s="129"/>
       <c r="F57" s="129"/>
       <c r="G57" s="129"/>
@@ -19167,7 +19165,7 @@
       <c r="N57" s="129"/>
       <c r="O57" s="129"/>
     </row>
-    <row r="58" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:15">
       <c r="E58" s="129"/>
       <c r="F58" s="129"/>
       <c r="G58" s="129"/>

--- a/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
+++ b/ENTREGA/HITO0/Plantilla_Presupuesto_ABP_2016-17.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="586">
   <si>
     <t>Apellidos</t>
   </si>
@@ -4887,20 +4887,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="46" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4913,6 +4904,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="44" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="145" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="145" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12320,32 +12320,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="270" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
     </row>
     <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="271" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="67"/>
@@ -12360,20 +12360,20 @@
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="20.85" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="272" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="267"/>
+      <c r="B4" s="272"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="267" t="s">
+      <c r="D4" s="272" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="267"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="68" t="s">
@@ -12383,14 +12383,14 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="265" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
@@ -12404,14 +12404,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="264" t="s">
+      <c r="D6" s="265" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
@@ -12425,14 +12425,14 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="264" t="s">
+      <c r="D7" s="265" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
       <c r="J7" s="73">
         <f>I13</f>
         <v>694</v>
@@ -12446,14 +12446,14 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="264" t="s">
+      <c r="D8" s="265" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
         <v>5.1515151515151514E-2</v>
@@ -12468,14 +12468,14 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="269" t="s">
+      <c r="D9" s="266" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
       <c r="J9" s="77">
         <f>J13</f>
         <v>63.090909090909079</v>
@@ -12494,37 +12494,37 @@
       <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="270" t="s">
+      <c r="A11" s="267" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="270" t="s">
+      <c r="C11" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="271" t="s">
+      <c r="D11" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="272" t="s">
+      <c r="E11" s="269" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="271" t="s">
+      <c r="F11" s="268" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="271"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="272" t="s">
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="269" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="272"/>
+      <c r="J11" s="269"/>
     </row>
     <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="270"/>
-      <c r="B12" s="270"/>
-      <c r="C12" s="270"/>
-      <c r="D12" s="271"/>
-      <c r="E12" s="271"/>
+      <c r="A12" s="267"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="268"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -12542,14 +12542,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="268"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="268"/>
-      <c r="E13" s="268"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="268"/>
+      <c r="A13" s="264"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="264"/>
+      <c r="G13" s="264"/>
+      <c r="H13" s="264"/>
       <c r="I13" s="80">
         <f>SUM(I14:I49)</f>
         <v>694</v>
@@ -13711,6 +13711,12 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -13722,12 +13728,6 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="27" priority="1" operator="greaterThan">
@@ -13755,8 +13755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75"/>
@@ -13768,32 +13768,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="270" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
     </row>
     <row r="2" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="271" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="266"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="67"/>
@@ -13808,20 +13808,20 @@
       <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="20.85" customHeight="1">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="272" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="267"/>
+      <c r="B4" s="272"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="267" t="s">
+      <c r="D4" s="272" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="267"/>
-      <c r="H4" s="267"/>
-      <c r="I4" s="267"/>
-      <c r="J4" s="267"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="68" t="s">
@@ -13831,14 +13831,14 @@
         <v>215</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="265" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="265"/>
       <c r="J5" s="70">
         <f>'Principal - ABP'!G19</f>
         <v>6</v>
@@ -13852,14 +13852,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="67"/>
-      <c r="D6" s="264" t="s">
+      <c r="D6" s="265" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="264"/>
-      <c r="I6" s="264"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
       <c r="J6" s="72">
         <f>J5*B7</f>
         <v>660</v>
@@ -13873,17 +13873,17 @@
         <v>110</v>
       </c>
       <c r="C7" s="67"/>
-      <c r="D7" s="264" t="s">
+      <c r="D7" s="265" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="264"/>
-      <c r="I7" s="264"/>
+      <c r="E7" s="265"/>
+      <c r="F7" s="265"/>
+      <c r="G7" s="265"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="265"/>
       <c r="J7" s="73">
         <f>I13</f>
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1">
@@ -13894,17 +13894,17 @@
         <v>30</v>
       </c>
       <c r="C8" s="67"/>
-      <c r="D8" s="264" t="s">
+      <c r="D8" s="265" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
       <c r="J8" s="74">
         <f>ABS(J6-J7)/J6</f>
-        <v>0</v>
+        <v>7.575757575757576E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75">
@@ -13916,17 +13916,17 @@
         <v>150</v>
       </c>
       <c r="C9" s="67"/>
-      <c r="D9" s="269" t="s">
+      <c r="D9" s="266" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
       <c r="J9" s="77">
         <f>J13</f>
-        <v>60.000000000000007</v>
+        <v>60.454545454545453</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13942,37 +13942,37 @@
       <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="270" t="s">
+      <c r="A11" s="267" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="270" t="s">
+      <c r="C11" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="271" t="s">
+      <c r="D11" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="272" t="s">
+      <c r="E11" s="269" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="271" t="s">
+      <c r="F11" s="268" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="271"/>
-      <c r="H11" s="271"/>
-      <c r="I11" s="272" t="s">
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="269" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="272"/>
+      <c r="J11" s="269"/>
     </row>
     <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="270"/>
-      <c r="B12" s="270"/>
-      <c r="C12" s="270"/>
-      <c r="D12" s="271"/>
-      <c r="E12" s="271"/>
+      <c r="A12" s="267"/>
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="268"/>
       <c r="F12" s="78" t="s">
         <v>228</v>
       </c>
@@ -13990,21 +13990,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="268"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="268"/>
-      <c r="E13" s="268"/>
-      <c r="F13" s="268"/>
-      <c r="G13" s="268"/>
-      <c r="H13" s="268"/>
+      <c r="A13" s="264"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="264"/>
+      <c r="G13" s="264"/>
+      <c r="H13" s="264"/>
       <c r="I13" s="80">
         <f>SUM(I14:I48)</f>
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="J13" s="80">
         <f>SUM(J14:J48)</f>
-        <v>60.000000000000007</v>
+        <v>60.454545454545453</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31.5">
@@ -14020,8 +14020,8 @@
       <c r="D14" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="E14" s="84">
-        <v>1</v>
+      <c r="E14" s="84" t="s">
+        <v>584</v>
       </c>
       <c r="F14" s="85">
         <v>5</v>
@@ -14034,11 +14034,11 @@
         <v>55</v>
       </c>
       <c r="I14" s="87">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J14" s="88">
         <f>I14/$J$6*10*$J$5</f>
-        <v>5.454545454545455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31.5">
@@ -14054,8 +14054,8 @@
       <c r="D15" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="E15" s="84" t="s">
-        <v>584</v>
+      <c r="E15" s="84">
+        <v>1</v>
       </c>
       <c r="F15" s="85">
         <v>10</v>
@@ -14067,10 +14067,12 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="I15" s="87"/>
+      <c r="I15" s="87">
+        <v>85</v>
+      </c>
       <c r="J15" s="88">
         <f t="shared" ref="J15:J48" si="1">I15/$J$6*10*$J$5</f>
-        <v>0</v>
+        <v>7.7272727272727266</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
@@ -14912,8 +14914,8 @@
       <c r="D41" s="81" t="s">
         <v>374</v>
       </c>
-      <c r="E41" s="84">
-        <v>2</v>
+      <c r="E41" s="84" t="s">
+        <v>584</v>
       </c>
       <c r="F41" s="85">
         <v>2</v>
@@ -14926,11 +14928,11 @@
         <v>17</v>
       </c>
       <c r="I41" s="87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J41" s="88">
         <f t="shared" si="1"/>
-        <v>1.8181818181818183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="31.5">
@@ -15156,12 +15158,6 @@
   </sheetData>
   <sheetProtection password="C894" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:I5"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
@@ -15173,6 +15169,12 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="J8">
     <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
